--- a/data/inputs/layered oxide cathode type_HC anode SIB .xlsx
+++ b/data/inputs/layered oxide cathode type_HC anode SIB .xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="173">
   <si>
     <t>cutoff</t>
   </si>
@@ -124,9 +124,6 @@
     <t>market for municipal solid waste</t>
   </si>
   <si>
-    <t>market activity</t>
-  </si>
-  <si>
     <t>market for water, deionised</t>
   </si>
   <si>
@@ -389,9 +386,6 @@
   </si>
   <si>
     <t>municipal solid waste</t>
-  </si>
-  <si>
-    <t>m3</t>
   </si>
   <si>
     <t>market for butadiene</t>
@@ -1025,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A259" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A103" sqref="A103:XFD103"/>
+    <sheetView tabSelected="1" topLeftCell="A265" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A187" sqref="A187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1051,10 +1045,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -1063,7 +1057,7 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1079,7 +1073,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1109,7 +1103,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
@@ -1132,7 +1126,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" t="str">
         <f>A11</f>
@@ -1157,7 +1151,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" t="str">
         <f>A12</f>
@@ -1193,7 +1187,7 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1209,7 +1203,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -1239,7 +1233,7 @@
         <v>9</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>10</v>
@@ -1262,7 +1256,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" ref="B22:B23" si="0">A22</f>
@@ -1279,7 +1273,7 @@
         <v>sib_shan</v>
       </c>
       <c r="G22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H22" t="s">
         <v>14</v>
@@ -1287,7 +1281,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
@@ -1304,7 +1298,7 @@
         <v>sib_shan</v>
       </c>
       <c r="G23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H23" t="s">
         <v>14</v>
@@ -1312,10 +1306,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C24">
         <v>2.12E-2</v>
@@ -1324,7 +1318,7 @@
         <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G24" t="s">
         <v>17</v>
@@ -1335,7 +1329,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25" t="str">
         <f>A25</f>
@@ -1352,7 +1346,7 @@
         <v>sib_shan</v>
       </c>
       <c r="G25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H25" t="s">
         <v>14</v>
@@ -1360,7 +1354,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B26" t="str">
         <f>A26</f>
@@ -1377,7 +1371,7 @@
         <v>sib_shan</v>
       </c>
       <c r="G26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H26" t="s">
         <v>14</v>
@@ -1388,7 +1382,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C27">
         <v>1.0500000000000001E-2</v>
@@ -1397,7 +1391,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G27" t="s">
         <v>15</v>
@@ -1408,10 +1402,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C28" s="5">
         <v>4.0000000000000001E-10</v>
@@ -1420,7 +1414,7 @@
         <v>6</v>
       </c>
       <c r="E28" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G28" t="s">
         <v>15</v>
@@ -1431,22 +1425,22 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C29" s="5">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="D29" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E29" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H29" t="s">
         <v>14</v>
@@ -1457,16 +1451,16 @@
         <v>20</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C30" s="5">
         <v>0.25</v>
       </c>
       <c r="D30" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E30" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G30" t="s">
         <v>15</v>
@@ -1477,22 +1471,22 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="C31" s="5">
         <v>3.64</v>
       </c>
       <c r="D31" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H31" t="s">
         <v>14</v>
@@ -1500,19 +1494,19 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="C32" s="5">
         <v>26.31</v>
       </c>
       <c r="D32" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E32" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G32" t="s">
         <v>15</v>
@@ -1529,10 +1523,10 @@
         <v>0.46899999999999997</v>
       </c>
       <c r="D33" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E33" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H33" t="s">
         <v>19</v>
@@ -1540,10 +1534,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="C34" s="5">
         <v>0.05</v>
@@ -1552,7 +1546,7 @@
         <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G34" t="s">
         <v>17</v>
@@ -1573,7 +1567,7 @@
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -1589,7 +1583,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -1619,7 +1613,7 @@
         <v>9</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>10</v>
@@ -1642,7 +1636,11 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="B44" t="str">
+        <f>A44</f>
+        <v>NMMT active material</v>
       </c>
       <c r="C44" s="10">
         <v>0.85399999999999998</v>
@@ -1654,16 +1652,19 @@
         <f>$C$2</f>
         <v>sib_shan</v>
       </c>
+      <c r="G44" t="s">
+        <v>43</v>
+      </c>
       <c r="H44" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C45" s="5">
         <v>1.8200000000000001E-2</v>
@@ -1672,7 +1673,7 @@
         <v>7</v>
       </c>
       <c r="E45" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G45" t="s">
         <v>17</v>
@@ -1683,10 +1684,10 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" t="s">
         <v>66</v>
-      </c>
-      <c r="B46" t="s">
-        <v>67</v>
       </c>
       <c r="C46" s="5">
         <v>1.8200000000000001E-2</v>
@@ -1695,7 +1696,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G46" t="s">
         <v>17</v>
@@ -1706,10 +1707,10 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" t="s">
         <v>64</v>
-      </c>
-      <c r="B47" t="s">
-        <v>65</v>
       </c>
       <c r="C47" s="5">
         <v>1.8200000000000001E-2</v>
@@ -1718,7 +1719,7 @@
         <v>7</v>
       </c>
       <c r="E47" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G47" t="s">
         <v>17</v>
@@ -1729,10 +1730,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48" t="s">
         <v>68</v>
-      </c>
-      <c r="B48" t="s">
-        <v>69</v>
       </c>
       <c r="C48" s="5">
         <v>3.1800000000000001E-3</v>
@@ -1741,7 +1742,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G48" t="s">
         <v>17</v>
@@ -1752,19 +1753,19 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C49" s="5">
         <v>1.49E-2</v>
       </c>
       <c r="D49" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E49" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G49" t="s">
         <v>15</v>
@@ -1778,16 +1779,16 @@
         <v>20</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C50" s="5">
         <v>5.28E-2</v>
       </c>
       <c r="D50" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E50" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G50" t="s">
         <v>15</v>
@@ -1798,10 +1799,10 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" t="s">
         <v>71</v>
-      </c>
-      <c r="B51" t="s">
-        <v>72</v>
       </c>
       <c r="C51" s="12">
         <v>4.5800000000000002E-10</v>
@@ -1810,7 +1811,7 @@
         <v>6</v>
       </c>
       <c r="E51" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G51" t="s">
         <v>15</v>
@@ -1821,22 +1822,22 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C52" s="5">
         <v>2E-3</v>
       </c>
       <c r="D52" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E52" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H52" t="s">
         <v>14</v>
@@ -1844,22 +1845,22 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C53" s="5">
         <v>0.26700000000000002</v>
       </c>
       <c r="D53" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E53" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H53" t="s">
         <v>14</v>
@@ -1873,10 +1874,10 @@
         <v>0.26700000000000002</v>
       </c>
       <c r="D54" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E54" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H54" t="s">
         <v>19</v>
@@ -1894,7 +1895,7 @@
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -1902,7 +1903,7 @@
         <v>2</v>
       </c>
       <c r="C59" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -1910,7 +1911,7 @@
         <v>3</v>
       </c>
       <c r="C60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
@@ -1940,7 +1941,7 @@
         <v>9</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>10</v>
@@ -1963,10 +1964,10 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65" t="s">
         <v>75</v>
-      </c>
-      <c r="B65" t="s">
-        <v>76</v>
       </c>
       <c r="C65" s="10">
         <v>0.55000000000000004</v>
@@ -1975,7 +1976,7 @@
         <v>7</v>
       </c>
       <c r="E65" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G65" t="s">
         <v>17</v>
@@ -1986,10 +1987,10 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B66" s="9" t="s">
         <v>77</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>78</v>
       </c>
       <c r="C66" s="10">
         <v>0.41</v>
@@ -1998,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="E66" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G66" t="s">
         <v>17</v>
@@ -2009,7 +2010,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B67" t="str">
         <f>A67</f>
@@ -2026,7 +2027,7 @@
         <v>sib_shan</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H67" t="s">
         <v>14</v>
@@ -2034,7 +2035,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B68" t="str">
         <f>A68</f>
@@ -2051,7 +2052,7 @@
         <v>sib_shan</v>
       </c>
       <c r="G68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H68" t="s">
         <v>14</v>
@@ -2059,10 +2060,10 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>80</v>
+      </c>
+      <c r="B69" t="s">
         <v>81</v>
-      </c>
-      <c r="B69" t="s">
-        <v>82</v>
       </c>
       <c r="C69" s="3">
         <v>3.7699999999999997E-2</v>
@@ -2071,7 +2072,7 @@
         <v>7</v>
       </c>
       <c r="E69" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G69" t="s">
         <v>15</v>
@@ -2082,19 +2083,19 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C70" s="3">
         <v>0.13600000000000001</v>
       </c>
       <c r="D70" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E70" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G70" t="s">
         <v>15</v>
@@ -2108,16 +2109,16 @@
         <v>20</v>
       </c>
       <c r="B71" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C71" s="3">
         <v>0.81699999999999995</v>
       </c>
       <c r="D71" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E71" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G71" t="s">
         <v>15</v>
@@ -2128,7 +2129,7 @@
     </row>
     <row r="72" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="5">
@@ -2138,7 +2139,7 @@
         <v>6</v>
       </c>
       <c r="E72" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G72" t="s">
         <v>15</v>
@@ -2149,20 +2150,20 @@
     </row>
     <row r="73" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73" s="4"/>
       <c r="C73" s="5">
         <v>3.0800000000000001E-2</v>
       </c>
       <c r="D73" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E73" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G73" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H73" t="s">
         <v>14</v>
@@ -2170,17 +2171,17 @@
     </row>
     <row r="74" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74" s="4"/>
       <c r="C74" s="5">
         <v>10.6</v>
       </c>
       <c r="D74" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E74" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G74" t="s">
         <v>15</v>
@@ -2191,7 +2192,7 @@
     </row>
     <row r="75" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="5">
@@ -2201,7 +2202,7 @@
         <v>7</v>
       </c>
       <c r="E75" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H75" t="s">
         <v>19</v>
@@ -2216,10 +2217,10 @@
         <v>10.71</v>
       </c>
       <c r="D76" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E76" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H76" t="s">
         <v>19</v>
@@ -2241,20 +2242,23 @@
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>2</v>
       </c>
+      <c r="C80" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>3</v>
       </c>
       <c r="C81" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
@@ -2289,7 +2293,7 @@
         <v>9</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>10</v>
@@ -2312,10 +2316,10 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
+        <v>74</v>
+      </c>
+      <c r="B86" t="s">
         <v>75</v>
-      </c>
-      <c r="B86" t="s">
-        <v>76</v>
       </c>
       <c r="C86" s="5">
         <v>1.42</v>
@@ -2324,7 +2328,7 @@
         <v>7</v>
       </c>
       <c r="E86" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G86" t="s">
         <v>17</v>
@@ -2335,10 +2339,10 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
+        <v>82</v>
+      </c>
+      <c r="B87" t="s">
         <v>83</v>
-      </c>
-      <c r="B87" t="s">
-        <v>84</v>
       </c>
       <c r="C87" s="5">
         <v>1.3</v>
@@ -2347,7 +2351,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G87" t="s">
         <v>17</v>
@@ -2358,10 +2362,10 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C88" s="6">
         <v>7.98</v>
@@ -2370,10 +2374,10 @@
         <v>7</v>
       </c>
       <c r="E88" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G88" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H88" t="s">
         <v>14</v>
@@ -2381,19 +2385,19 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B89" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C89" s="5">
         <v>0.27200000000000002</v>
       </c>
       <c r="D89" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E89" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G89" t="s">
         <v>18</v>
@@ -2407,16 +2411,16 @@
         <v>20</v>
       </c>
       <c r="B90" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C90" s="5">
         <v>1.63</v>
       </c>
       <c r="D90" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E90" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G90" t="s">
         <v>15</v>
@@ -2427,17 +2431,17 @@
     </row>
     <row r="91" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B91" s="4"/>
       <c r="C91" s="5">
         <v>1.12E-2</v>
       </c>
       <c r="D91" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E91" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G91" t="s">
         <v>18</v>
@@ -2448,20 +2452,20 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B92" s="4"/>
       <c r="C92" s="5">
         <v>2.62</v>
       </c>
       <c r="D92" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E92" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G92" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H92" t="s">
         <v>14</v>
@@ -2469,7 +2473,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B93" s="4"/>
       <c r="C93">
@@ -2479,7 +2483,7 @@
         <v>7</v>
       </c>
       <c r="E93" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H93" t="s">
         <v>19</v>
@@ -2494,10 +2498,10 @@
         <v>2.29</v>
       </c>
       <c r="D94" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E94" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H94" t="s">
         <v>19</v>
@@ -2505,7 +2509,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C95">
         <v>0.19400000000000001</v>
@@ -2514,10 +2518,10 @@
         <v>7</v>
       </c>
       <c r="E95" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F95" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H95" t="s">
         <v>19</v>
@@ -2525,7 +2529,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C96">
         <v>0.80900000000000005</v>
@@ -2534,10 +2538,10 @@
         <v>7</v>
       </c>
       <c r="E96" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F96" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H96" t="s">
         <v>19</v>
@@ -2545,7 +2549,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C97">
         <v>1.2699999999999999E-2</v>
@@ -2554,10 +2558,10 @@
         <v>7</v>
       </c>
       <c r="E97" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F97" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H97" t="s">
         <v>19</v>
@@ -2565,7 +2569,7 @@
     </row>
     <row r="98" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C98">
         <v>1.2999999999999999E-2</v>
@@ -2574,10 +2578,10 @@
         <v>7</v>
       </c>
       <c r="E98" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F98" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H98" t="s">
         <v>19</v>
@@ -2598,7 +2602,7 @@
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
@@ -2614,7 +2618,7 @@
         <v>3</v>
       </c>
       <c r="C104" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
@@ -2650,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>10</v>
@@ -2673,10 +2677,10 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
+        <v>89</v>
+      </c>
+      <c r="B109" s="14" t="s">
         <v>90</v>
-      </c>
-      <c r="B109" s="14" t="s">
-        <v>91</v>
       </c>
       <c r="C109">
         <v>0.1</v>
@@ -2685,7 +2689,7 @@
         <v>7</v>
       </c>
       <c r="E109" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G109" t="s">
         <v>17</v>
@@ -2696,10 +2700,10 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
+        <v>91</v>
+      </c>
+      <c r="B110" s="15" t="s">
         <v>92</v>
-      </c>
-      <c r="B110" s="15" t="s">
-        <v>93</v>
       </c>
       <c r="C110" s="15">
         <v>1.2</v>
@@ -2708,7 +2712,7 @@
         <v>7</v>
       </c>
       <c r="E110" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F110" s="4"/>
       <c r="G110" t="s">
@@ -2720,19 +2724,19 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B111" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C111" s="5">
         <v>0.27200000000000002</v>
       </c>
       <c r="D111" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E111" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G111" t="s">
         <v>15</v>
@@ -2746,16 +2750,16 @@
         <v>20</v>
       </c>
       <c r="B112" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C112" s="5">
         <v>0.71699999999999997</v>
       </c>
       <c r="D112" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E112" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G112" t="s">
         <v>15</v>
@@ -2766,20 +2770,20 @@
     </row>
     <row r="113" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B113" s="4"/>
       <c r="C113" s="5">
         <v>1.78</v>
       </c>
       <c r="D113" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E113" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G113" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H113" t="s">
         <v>14</v>
@@ -2794,10 +2798,10 @@
         <v>6.42</v>
       </c>
       <c r="D114" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E114" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H114" t="s">
         <v>19</v>
@@ -2814,7 +2818,7 @@
       </c>
       <c r="B117" s="1"/>
       <c r="C117" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
@@ -2830,7 +2834,7 @@
         <v>3</v>
       </c>
       <c r="C119" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
@@ -2881,7 +2885,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C124" s="5">
         <v>0.80100000000000005</v>
@@ -2894,7 +2898,7 @@
         <v>sib_shan</v>
       </c>
       <c r="G124" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H124" t="s">
         <v>14</v>
@@ -2902,10 +2906,10 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B125" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C125" s="5">
         <v>2.5899999999999999E-2</v>
@@ -2914,7 +2918,7 @@
         <v>7</v>
       </c>
       <c r="E125" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G125" t="s">
         <v>17</v>
@@ -2925,10 +2929,10 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
+        <v>94</v>
+      </c>
+      <c r="B126" t="s">
         <v>95</v>
-      </c>
-      <c r="B126" t="s">
-        <v>96</v>
       </c>
       <c r="C126" s="5">
         <v>2.4199999999999999E-2</v>
@@ -2937,7 +2941,7 @@
         <v>7</v>
       </c>
       <c r="E126" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G126" t="s">
         <v>17</v>
@@ -2948,7 +2952,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C127" s="5">
         <v>1.04E-2</v>
@@ -2957,10 +2961,10 @@
         <v>7</v>
       </c>
       <c r="E127" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G127" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H127" t="s">
         <v>14</v>
@@ -2968,10 +2972,10 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C128" s="5">
         <v>0.34499999999999997</v>
@@ -2980,10 +2984,10 @@
         <v>7</v>
       </c>
       <c r="E128" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G128" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H128" t="s">
         <v>14</v>
@@ -2991,10 +2995,10 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
+        <v>97</v>
+      </c>
+      <c r="B129" t="s">
         <v>98</v>
-      </c>
-      <c r="B129" t="s">
-        <v>99</v>
       </c>
       <c r="C129" s="5">
         <v>0.13800000000000001</v>
@@ -3003,7 +3007,7 @@
         <v>7</v>
       </c>
       <c r="E129" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G129" t="s">
         <v>17</v>
@@ -3014,10 +3018,10 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
+        <v>99</v>
+      </c>
+      <c r="B130" t="s">
         <v>100</v>
-      </c>
-      <c r="B130" t="s">
-        <v>101</v>
       </c>
       <c r="C130" s="5">
         <v>0.13800000000000001</v>
@@ -3026,7 +3030,7 @@
         <v>7</v>
       </c>
       <c r="E130" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G130" t="s">
         <v>17</v>
@@ -3037,22 +3041,22 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C131" s="5">
         <v>1.8800000000000001E-2</v>
       </c>
       <c r="D131" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E131" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G131" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H131" t="s">
         <v>14</v>
@@ -3063,16 +3067,16 @@
         <v>20</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C132" s="5">
         <v>5.7700000000000001E-2</v>
       </c>
       <c r="D132" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E132" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G132" t="s">
         <v>15</v>
@@ -3083,10 +3087,10 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B133" t="s">
         <v>102</v>
-      </c>
-      <c r="B133" t="s">
-        <v>103</v>
       </c>
       <c r="C133" s="5">
         <v>4.5800000000000002E-10</v>
@@ -3095,7 +3099,7 @@
         <v>6</v>
       </c>
       <c r="E133" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G133" t="s">
         <v>15</v>
@@ -3112,10 +3116,10 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="D134" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E134" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H134" t="s">
         <v>19</v>
@@ -3132,7 +3136,7 @@
         <v>7</v>
       </c>
       <c r="E135" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H135" t="s">
         <v>19</v>
@@ -3147,7 +3151,7 @@
       </c>
       <c r="B137" s="1"/>
       <c r="C137" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
@@ -3163,7 +3167,7 @@
         <v>3</v>
       </c>
       <c r="C139" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
@@ -3190,7 +3194,7 @@
         <v>9</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>10</v>
@@ -3213,10 +3217,10 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
+        <v>105</v>
+      </c>
+      <c r="B144" t="s">
         <v>106</v>
-      </c>
-      <c r="B144" t="s">
-        <v>107</v>
       </c>
       <c r="C144">
         <v>20</v>
@@ -3225,7 +3229,7 @@
         <v>7</v>
       </c>
       <c r="E144" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G144" t="s">
         <v>17</v>
@@ -3236,22 +3240,22 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B145" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="C145" s="5">
         <v>0.107</v>
       </c>
       <c r="D145" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E145" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G145" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H145" t="s">
         <v>14</v>
@@ -3259,22 +3263,22 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B146" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="C146">
         <v>9.52</v>
       </c>
       <c r="D146" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E146" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G146" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H146" t="s">
         <v>14</v>
@@ -3282,10 +3286,10 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C147" s="5">
         <v>0.17799999999999999</v>
@@ -3294,10 +3298,10 @@
         <v>7</v>
       </c>
       <c r="E147" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G147" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H147" t="s">
         <v>14</v>
@@ -3305,10 +3309,10 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
+        <v>107</v>
+      </c>
+      <c r="B148" t="s">
         <v>108</v>
-      </c>
-      <c r="B148" t="s">
-        <v>109</v>
       </c>
       <c r="C148" s="5">
         <v>0.26700000000000002</v>
@@ -3317,7 +3321,7 @@
         <v>7</v>
       </c>
       <c r="E148" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G148" t="s">
         <v>17</v>
@@ -3331,7 +3335,7 @@
         <v>26</v>
       </c>
       <c r="B149" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C149">
         <v>6.99</v>
@@ -3340,7 +3344,7 @@
         <v>7</v>
       </c>
       <c r="E149" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G149" t="s">
         <v>15</v>
@@ -3351,19 +3355,19 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C150">
         <v>1.38</v>
       </c>
       <c r="D150" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E150" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G150" t="s">
         <v>15</v>
@@ -3377,16 +3381,16 @@
         <v>20</v>
       </c>
       <c r="B151" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C151">
         <v>4.8600000000000003</v>
       </c>
       <c r="D151" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E151" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G151" t="s">
         <v>17</v>
@@ -3397,19 +3401,19 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C152" s="5">
         <v>4.0000000000000001E-10</v>
       </c>
       <c r="D152" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E152" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G152" t="s">
         <v>15</v>
@@ -3420,7 +3424,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C153">
         <v>6.6199999999999996E-5</v>
@@ -3429,7 +3433,7 @@
         <v>7</v>
       </c>
       <c r="E153" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H153" t="s">
         <v>19</v>
@@ -3437,7 +3441,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C154">
         <v>29.33</v>
@@ -3446,7 +3450,7 @@
         <v>7</v>
       </c>
       <c r="E154" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H154" t="s">
         <v>19</v>
@@ -3454,7 +3458,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C155">
         <v>3.5300000000000002E-4</v>
@@ -3463,7 +3467,7 @@
         <v>7</v>
       </c>
       <c r="E155" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H155" t="s">
         <v>19</v>
@@ -3480,7 +3484,7 @@
         <v>7</v>
       </c>
       <c r="E156" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H156" t="s">
         <v>19</v>
@@ -3488,7 +3492,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C157">
         <v>1.17E-3</v>
@@ -3497,7 +3501,7 @@
         <v>7</v>
       </c>
       <c r="E157" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H157" t="s">
         <v>19</v>
@@ -3514,7 +3518,7 @@
         <v>7</v>
       </c>
       <c r="E158" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H158" t="s">
         <v>19</v>
@@ -3531,7 +3535,7 @@
         <v>7</v>
       </c>
       <c r="E159" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H159" t="s">
         <v>19</v>
@@ -3539,7 +3543,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C160">
         <v>5.0799999999999999E-4</v>
@@ -3548,7 +3552,7 @@
         <v>7</v>
       </c>
       <c r="E160" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H160" t="s">
         <v>19</v>
@@ -3563,10 +3567,10 @@
         <v>9.9</v>
       </c>
       <c r="D161" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E161" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H161" t="s">
         <v>19</v>
@@ -3574,10 +3578,10 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
+        <v>115</v>
+      </c>
+      <c r="B162" t="s">
         <v>116</v>
-      </c>
-      <c r="B162" t="s">
-        <v>117</v>
       </c>
       <c r="C162" s="5">
         <v>4.44E-4</v>
@@ -3586,10 +3590,10 @@
         <v>7</v>
       </c>
       <c r="E162" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G162" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H162" t="s">
         <v>14</v>
@@ -3600,19 +3604,19 @@
         <v>29</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C163" s="5">
         <v>1.78E-2</v>
       </c>
       <c r="D163" t="s">
-        <v>119</v>
+        <v>172</v>
       </c>
       <c r="E163" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G163" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="H163" t="s">
         <v>14</v>
@@ -3630,7 +3634,7 @@
       </c>
       <c r="B166" s="1"/>
       <c r="C166" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
@@ -3646,7 +3650,7 @@
         <v>3</v>
       </c>
       <c r="C168" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
@@ -3697,10 +3701,10 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B173" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C173" s="5">
         <v>0.752</v>
@@ -3709,7 +3713,7 @@
         <v>7</v>
       </c>
       <c r="E173" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G173" t="s">
         <v>15</v>
@@ -3720,10 +3724,10 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B174" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C174" s="5">
         <v>1.8</v>
@@ -3732,10 +3736,10 @@
         <v>7</v>
       </c>
       <c r="E174" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G174" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H174" t="s">
         <v>14</v>
@@ -3743,10 +3747,10 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B175" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C175" s="5">
         <v>0.251</v>
@@ -3755,7 +3759,7 @@
         <v>7</v>
       </c>
       <c r="E175" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G175" t="s">
         <v>17</v>
@@ -3766,10 +3770,10 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B176" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C176" s="5">
         <v>2.7300000000000001E-2</v>
@@ -3778,7 +3782,7 @@
         <v>7</v>
       </c>
       <c r="E176" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G176" t="s">
         <v>17</v>
@@ -3789,10 +3793,10 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B177" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C177" s="5">
         <v>0.01</v>
@@ -3801,7 +3805,7 @@
         <v>7</v>
       </c>
       <c r="E177" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G177" t="s">
         <v>17</v>
@@ -3812,10 +3816,10 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B178" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C178" s="5">
         <v>5.0400000000000002E-3</v>
@@ -3824,7 +3828,7 @@
         <v>7</v>
       </c>
       <c r="E178" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G178" t="s">
         <v>17</v>
@@ -3835,10 +3839,10 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C179" s="5">
         <v>4.0000000000000001E-10</v>
@@ -3847,7 +3851,7 @@
         <v>6</v>
       </c>
       <c r="E179" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G179" t="s">
         <v>17</v>
@@ -3858,10 +3862,10 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
+        <v>94</v>
+      </c>
+      <c r="B180" t="s">
         <v>95</v>
-      </c>
-      <c r="B180" t="s">
-        <v>96</v>
       </c>
       <c r="C180" s="5">
         <v>0</v>
@@ -3870,7 +3874,7 @@
         <v>7</v>
       </c>
       <c r="E180" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G180" t="s">
         <v>17</v>
@@ -3881,19 +3885,19 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C181" s="5">
         <v>0.105</v>
       </c>
       <c r="D181" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E181" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G181" t="s">
         <v>15</v>
@@ -3907,16 +3911,16 @@
         <v>20</v>
       </c>
       <c r="B182" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C182" s="5">
         <v>0.627</v>
       </c>
       <c r="D182" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E182" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G182" t="s">
         <v>15</v>
@@ -3927,22 +3931,22 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B183" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="B183" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="C183" s="5">
         <v>0.55000000000000004</v>
       </c>
       <c r="D183" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E183" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G183" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H183" t="s">
         <v>14</v>
@@ -3950,19 +3954,19 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B184" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="B184" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="C184">
         <v>13.75</v>
       </c>
       <c r="D184" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E184" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G184" t="s">
         <v>15</v>
@@ -3973,10 +3977,10 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B185" t="s">
         <v>102</v>
-      </c>
-      <c r="B185" t="s">
-        <v>103</v>
       </c>
       <c r="C185" s="5">
         <v>1.44E-2</v>
@@ -3985,7 +3989,7 @@
         <v>6</v>
       </c>
       <c r="E185" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G185" t="s">
         <v>15</v>
@@ -4002,10 +4006,10 @@
         <v>15.73</v>
       </c>
       <c r="D186" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E186" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H186" t="s">
         <v>19</v>
@@ -4022,7 +4026,7 @@
         <v>7</v>
       </c>
       <c r="E187" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H187" t="s">
         <v>19</v>
@@ -4040,7 +4044,7 @@
       </c>
       <c r="B191" s="1"/>
       <c r="C191" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
@@ -4056,7 +4060,7 @@
         <v>3</v>
       </c>
       <c r="C193" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
@@ -4104,10 +4108,10 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B198" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C198" s="5">
         <v>0.70699999999999996</v>
@@ -4116,7 +4120,7 @@
         <v>7</v>
       </c>
       <c r="E198" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G198" t="s">
         <v>17</v>
@@ -4127,10 +4131,10 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B199" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C199" s="5">
         <v>0.17699999999999999</v>
@@ -4139,7 +4143,7 @@
         <v>7</v>
       </c>
       <c r="E199" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G199" t="s">
         <v>17</v>
@@ -4150,7 +4154,7 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B200" t="str">
         <f>A200</f>
@@ -4167,7 +4171,7 @@
         <v>sib_shan</v>
       </c>
       <c r="G200" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H200" t="s">
         <v>14</v>
@@ -4175,19 +4179,19 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C201" s="5">
         <v>0.1</v>
       </c>
       <c r="D201" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E201" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G201" t="s">
         <v>15</v>
@@ -4201,16 +4205,16 @@
         <v>20</v>
       </c>
       <c r="B202" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C202" s="5">
         <v>0.6</v>
       </c>
       <c r="D202" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E202" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G202" t="s">
         <v>15</v>
@@ -4235,7 +4239,7 @@
       </c>
       <c r="B205" s="1"/>
       <c r="C205" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
@@ -4251,7 +4255,7 @@
         <v>3</v>
       </c>
       <c r="C207" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
@@ -4302,10 +4306,10 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B212" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C212" s="5">
         <v>0.27700000000000002</v>
@@ -4314,7 +4318,7 @@
         <v>7</v>
       </c>
       <c r="E212" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G212" t="s">
         <v>17</v>
@@ -4325,10 +4329,10 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B213" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C213" s="5">
         <v>1.98</v>
@@ -4337,7 +4341,7 @@
         <v>7</v>
       </c>
       <c r="E213" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G213" t="s">
         <v>17</v>
@@ -4351,7 +4355,7 @@
         <v>21</v>
       </c>
       <c r="B214" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C214" s="20">
         <v>4.04</v>
@@ -4360,7 +4364,7 @@
         <v>7</v>
       </c>
       <c r="E214" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G214" t="s">
         <v>15</v>
@@ -4374,7 +4378,7 @@
         <v>26</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C215" s="5">
         <v>1.25E-3</v>
@@ -4383,7 +4387,7 @@
         <v>7</v>
       </c>
       <c r="E215" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G215" t="s">
         <v>15</v>
@@ -4397,7 +4401,7 @@
         <v>22</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C216" s="5">
         <v>7.44</v>
@@ -4406,7 +4410,7 @@
         <v>7</v>
       </c>
       <c r="E216" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G216" t="s">
         <v>15</v>
@@ -4417,19 +4421,19 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B217" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C217" s="5">
         <v>0.1</v>
       </c>
       <c r="D217" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E217" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G217" t="s">
         <v>15</v>
@@ -4443,19 +4447,19 @@
         <v>20</v>
       </c>
       <c r="B218" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C218" s="5">
         <v>0.6</v>
       </c>
       <c r="D218" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E218" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G218" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H218" t="s">
         <v>14</v>
@@ -4463,19 +4467,19 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B219" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C219" s="5">
         <v>4.0000000000000001E-10</v>
       </c>
       <c r="D219" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E219" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G219" t="s">
         <v>15</v>
@@ -4486,7 +4490,7 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B220" s="9"/>
       <c r="C220">
@@ -4496,7 +4500,7 @@
         <v>7</v>
       </c>
       <c r="E220" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H220" t="s">
         <v>19</v>
@@ -4510,10 +4514,10 @@
         <v>1.95</v>
       </c>
       <c r="D221" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E221" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H221" t="s">
         <v>19</v>
@@ -4521,10 +4525,10 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B222" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C222">
         <v>8.69</v>
@@ -4533,7 +4537,7 @@
         <v>7</v>
       </c>
       <c r="E222" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G222" t="s">
         <v>18</v>
@@ -4544,19 +4548,19 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B223" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C223">
         <v>3.6099999999999999E-3</v>
       </c>
       <c r="D223" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E223" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G223" t="s">
         <v>18</v>
@@ -4576,7 +4580,7 @@
       </c>
       <c r="B226" s="1"/>
       <c r="C226" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
@@ -4640,10 +4644,10 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C233" s="5">
         <v>0.97899999999999998</v>
@@ -4652,7 +4656,7 @@
         <v>7</v>
       </c>
       <c r="E233" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G233" t="s">
         <v>17</v>
@@ -4663,10 +4667,10 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C234" s="5">
         <v>0.97899999999999998</v>
@@ -4675,7 +4679,7 @@
         <v>7</v>
       </c>
       <c r="E234" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G234" t="s">
         <v>17</v>
@@ -4686,10 +4690,10 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C235" s="5">
         <v>2.1100000000000001E-2</v>
@@ -4698,10 +4702,10 @@
         <v>7</v>
       </c>
       <c r="E235" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G235" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H235" t="s">
         <v>14</v>
@@ -4709,19 +4713,19 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C236" s="5">
         <v>0.2</v>
       </c>
       <c r="D236" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E236" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G236" t="s">
         <v>17</v>
@@ -4735,16 +4739,16 @@
         <v>20</v>
       </c>
       <c r="B237" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C237" s="5">
         <v>1.2</v>
       </c>
       <c r="D237" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E237" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G237" t="s">
         <v>17</v>
@@ -4755,10 +4759,10 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B238" t="s">
         <v>102</v>
-      </c>
-      <c r="B238" t="s">
-        <v>103</v>
       </c>
       <c r="C238" s="5">
         <v>4.48E-10</v>
@@ -4767,7 +4771,7 @@
         <v>6</v>
       </c>
       <c r="E238" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G238" t="s">
         <v>17</v>
@@ -4787,7 +4791,7 @@
       </c>
       <c r="B242" s="1"/>
       <c r="C242" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
@@ -4851,10 +4855,10 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C249" s="5">
         <v>0.14499999999999999</v>
@@ -4863,7 +4867,7 @@
         <v>7</v>
       </c>
       <c r="E249" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G249" t="s">
         <v>17</v>
@@ -4874,10 +4878,10 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C250" s="5">
         <v>0.14499999999999999</v>
@@ -4886,7 +4890,7 @@
         <v>7</v>
       </c>
       <c r="E250" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G250" t="s">
         <v>15</v>
@@ -4897,7 +4901,7 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B251" s="4"/>
       <c r="C251" s="5">
@@ -4916,19 +4920,19 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B252" t="s">
         <v>102</v>
-      </c>
-      <c r="B252" t="s">
-        <v>103</v>
       </c>
       <c r="C252" s="5">
         <v>4.5800000000000002E-10</v>
       </c>
       <c r="D252" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E252" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G252" t="s">
         <v>15</v>
@@ -4939,19 +4943,19 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C253" s="5">
         <v>0.1</v>
       </c>
       <c r="D253" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E253" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G253" t="s">
         <v>15</v>
@@ -4965,19 +4969,19 @@
         <v>20</v>
       </c>
       <c r="B254" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C254" s="5">
         <v>0.54200000000000004</v>
       </c>
       <c r="D254" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E254" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G254" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H254" t="s">
         <v>14</v>
@@ -4985,22 +4989,22 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B255" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="B255" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="C255" s="5">
         <v>3.53</v>
       </c>
       <c r="D255" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E255" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G255" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H255" t="s">
         <v>14</v>
@@ -5014,10 +5018,10 @@
         <v>12.72</v>
       </c>
       <c r="D256" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E256" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H256" t="s">
         <v>19</v>
@@ -5029,7 +5033,7 @@
       </c>
       <c r="B259" s="1"/>
       <c r="C259" s="21" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.3">
@@ -5093,10 +5097,10 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C266" s="5">
         <v>1.8100000000000002E-2</v>
@@ -5105,7 +5109,7 @@
         <v>7</v>
       </c>
       <c r="E266" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G266" t="s">
         <v>17</v>
@@ -5116,10 +5120,10 @@
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B267" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C267" s="5">
         <v>4.2299999999999997E-2</v>
@@ -5128,7 +5132,7 @@
         <v>7</v>
       </c>
       <c r="E267" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G267" t="s">
         <v>17</v>
@@ -5139,19 +5143,19 @@
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C268" s="5">
         <v>6.66</v>
       </c>
       <c r="D268" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E268" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G268" t="s">
         <v>17</v>
@@ -5162,19 +5166,19 @@
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B269" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C269" s="5">
         <v>0.44600000000000001</v>
       </c>
       <c r="D269" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E269" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G269" t="s">
         <v>17</v>
@@ -5185,19 +5189,19 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C270" s="5">
         <v>9.3956999999999999E-2</v>
       </c>
       <c r="D270" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E270" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G270" t="s">
         <v>15</v>
@@ -5211,19 +5215,19 @@
         <v>20</v>
       </c>
       <c r="B271" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C271" s="5">
         <v>0.56374000000000002</v>
       </c>
       <c r="D271" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E271" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G271" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H271" t="s">
         <v>14</v>
@@ -5390,18 +5394,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5423,6 +5427,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC7C0EC8-0C3B-44A9-8033-00137DC09A49}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5855932F-2918-4696-B2D1-0ED741520C0F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -5436,12 +5448,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC7C0EC8-0C3B-44A9-8033-00137DC09A49}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/inputs/layered oxide cathode type_HC anode SIB .xlsx
+++ b/data/inputs/layered oxide cathode type_HC anode SIB .xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="171">
   <si>
     <t>cutoff</t>
   </si>
@@ -49,9 +49,6 @@
     <t>CN</t>
   </si>
   <si>
-    <t>production amount</t>
-  </si>
-  <si>
     <t>unit</t>
   </si>
   <si>
@@ -148,9 +145,6 @@
     <t>Anode, HC-Al</t>
   </si>
   <si>
-    <t>battery separator production</t>
-  </si>
-  <si>
     <t>NaPF6_electrolyte</t>
   </si>
   <si>
@@ -166,12 +160,6 @@
     <t>SE</t>
   </si>
   <si>
-    <t xml:space="preserve">Product </t>
-  </si>
-  <si>
-    <t>Product</t>
-  </si>
-  <si>
     <t>battery separator</t>
   </si>
   <si>
@@ -217,15 +205,9 @@
     <t>market for carbon black</t>
   </si>
   <si>
-    <t>product</t>
-  </si>
-  <si>
     <t>carbon black</t>
   </si>
   <si>
-    <t>polyethylene production, low density, granulate</t>
-  </si>
-  <si>
     <t>polyethylene, low density, granulate</t>
   </si>
   <si>
@@ -253,9 +235,6 @@
     <t>electricity voltage transformation from high to medium voltage</t>
   </si>
   <si>
-    <t>heat production, natural gas, at boiler condensing modulating &lt;100kW</t>
-  </si>
-  <si>
     <t>market for soda ash, dense</t>
   </si>
   <si>
@@ -496,9 +475,6 @@
     <t>Europe without Swizerlands</t>
   </si>
   <si>
-    <t>printed wiring board production, for surface mounting, Pb containing surface</t>
-  </si>
-  <si>
     <t>printed wiring board, for surface mounting, Pb containing surface</t>
   </si>
   <si>
@@ -551,6 +527,24 @@
   </si>
   <si>
     <t>cubic meter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reference product </t>
+  </si>
+  <si>
+    <t>reference product</t>
+  </si>
+  <si>
+    <t>battery separator reference production</t>
+  </si>
+  <si>
+    <t>polyethylene reference production, low density, granulate</t>
+  </si>
+  <si>
+    <t>heat reference production, natural gas, at boiler condensing modulating &lt;100kW</t>
+  </si>
+  <si>
+    <t>printed wiring board reference production, for surface mounting, Pb containing surface</t>
   </si>
 </sst>
 </file>
@@ -1019,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A265" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A187" sqref="A187"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1045,10 +1039,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -1057,7 +1051,7 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1065,7 +1059,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1073,12 +1067,12 @@
         <v>3</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1086,47 +1080,47 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" t="str">
         <f>A11</f>
@@ -1136,7 +1130,7 @@
         <v>0.79900000000000004</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E11" t="str">
         <f>$C$2</f>
@@ -1146,12 +1140,12 @@
         <v>4</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" t="str">
         <f>A12</f>
@@ -1162,17 +1156,17 @@
         <v>0.20099999999999996</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E12" t="str">
         <f>$C$2</f>
         <v>sib_shan</v>
       </c>
       <c r="G12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1187,7 +1181,7 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1195,7 +1189,7 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -1203,12 +1197,12 @@
         <v>3</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1216,47 +1210,47 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" ref="B22:B23" si="0">A22</f>
@@ -1266,22 +1260,22 @@
         <v>0.27</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E22" s="9" t="str">
         <f>$C$2</f>
         <v>sib_shan</v>
       </c>
       <c r="G22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
@@ -1291,45 +1285,45 @@
         <v>0.36499999999999999</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E23" s="9" t="str">
         <f>$C$2</f>
         <v>sib_shan</v>
       </c>
       <c r="G23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>38</v>
+        <v>167</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C24">
         <v>2.12E-2</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B25" t="str">
         <f>A25</f>
@@ -1339,22 +1333,22 @@
         <v>0.14699999999999999</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E25" t="str">
         <f>$C$2</f>
         <v>sib_shan</v>
       </c>
       <c r="G25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B26" t="str">
         <f>A26</f>
@@ -1364,195 +1358,195 @@
         <v>0.247</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E26" t="str">
         <f>$C$2</f>
         <v>sib_shan</v>
       </c>
       <c r="G26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C27">
         <v>1.0500000000000001E-2</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C28" s="5">
         <v>4.0000000000000001E-10</v>
       </c>
       <c r="D28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C29" s="5">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="D29" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E29" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C30" s="5">
         <v>0.25</v>
       </c>
       <c r="D30" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E30" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C31" s="5">
         <v>3.64</v>
       </c>
       <c r="D31" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E31" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C32" s="5">
         <v>26.31</v>
       </c>
       <c r="D32" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E32" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C33" s="5">
         <v>0.46899999999999997</v>
       </c>
       <c r="D33" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E33" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C34" s="5">
         <v>0.05</v>
       </c>
       <c r="D34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E34" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -1567,7 +1561,7 @@
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -1575,7 +1569,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -1583,12 +1577,12 @@
         <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -1596,47 +1590,47 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B42" s="1"/>
     </row>
     <row r="43" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" s="2" t="s">
+      <c r="D43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E43" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B44" t="str">
         <f>A44</f>
@@ -1646,241 +1640,241 @@
         <v>0.85399999999999998</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E44" t="str">
         <f>$C$2</f>
         <v>sib_shan</v>
       </c>
       <c r="G44" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C45" s="5">
         <v>1.8200000000000001E-2</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E45" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C46" s="5">
         <v>1.8200000000000001E-2</v>
       </c>
       <c r="D46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E46" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>63</v>
+        <v>168</v>
       </c>
       <c r="B47" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C47" s="5">
         <v>1.8200000000000001E-2</v>
       </c>
       <c r="D47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E47" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B48" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C48" s="5">
         <v>3.1800000000000001E-3</v>
       </c>
       <c r="D48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E48" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C49" s="5">
         <v>1.49E-2</v>
       </c>
       <c r="D49" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E49" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C50" s="5">
         <v>5.28E-2</v>
       </c>
       <c r="D50" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E50" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B51" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C51" s="12">
         <v>4.5800000000000002E-10</v>
       </c>
       <c r="D51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E51" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C52" s="5">
         <v>2E-3</v>
       </c>
       <c r="D52" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E52" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G52" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>169</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C53" s="5">
         <v>0.26700000000000002</v>
       </c>
       <c r="D53" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E53" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C54" s="5">
         <v>0.26700000000000002</v>
       </c>
       <c r="D54" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E54" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -1895,7 +1889,7 @@
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -1903,7 +1897,7 @@
         <v>2</v>
       </c>
       <c r="C59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -1911,12 +1905,12 @@
         <v>3</v>
       </c>
       <c r="C60" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -1924,93 +1918,93 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B63" s="7"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C64" s="1" t="s">
+      <c r="D64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E64" s="1" t="s">
+      <c r="F64" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C65" s="10">
         <v>0.55000000000000004</v>
       </c>
       <c r="D65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E65" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C66" s="10">
         <v>0.41</v>
       </c>
       <c r="D66" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E66" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H66" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="15" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B67" t="str">
         <f>A67</f>
@@ -2020,22 +2014,22 @@
         <v>0.33600000000000002</v>
       </c>
       <c r="D67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E67" s="4" t="str">
         <f>$C$2</f>
         <v>sib_shan</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B68" t="str">
         <f>A68</f>
@@ -2045,185 +2039,185 @@
         <v>2.75E-2</v>
       </c>
       <c r="D68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E68" s="4" t="str">
         <f>$C$2</f>
         <v>sib_shan</v>
       </c>
       <c r="G68" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B69" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C69" s="3">
         <v>3.7699999999999997E-2</v>
       </c>
       <c r="D69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E69" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B70" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C70" s="3">
         <v>0.13600000000000001</v>
       </c>
       <c r="D70" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E70" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B71" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C71" s="3">
         <v>0.81699999999999995</v>
       </c>
       <c r="D71" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E71" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="5">
         <v>4.0000000000000001E-10</v>
       </c>
       <c r="D72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E72" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B73" s="4"/>
       <c r="C73" s="5">
         <v>3.0800000000000001E-2</v>
       </c>
       <c r="D73" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E73" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G73" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>169</v>
       </c>
       <c r="B74" s="4"/>
       <c r="C74" s="5">
         <v>10.6</v>
       </c>
       <c r="D74" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E74" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="5">
         <v>0.35299999999999998</v>
       </c>
       <c r="D75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E75" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H75" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B76" s="4"/>
       <c r="C76" s="5">
         <v>10.71</v>
       </c>
       <c r="D76" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E76" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H76" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2242,7 +2236,7 @@
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
@@ -2250,7 +2244,7 @@
         <v>2</v>
       </c>
       <c r="C80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
@@ -2258,12 +2252,12 @@
         <v>3</v>
       </c>
       <c r="C81" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -2271,15 +2265,15 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C84"/>
       <c r="D84"/>
@@ -2290,301 +2284,301 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C85" s="2" t="s">
+      <c r="D85" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E85" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E85" s="1" t="s">
+      <c r="F85" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B86" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C86" s="5">
         <v>1.42</v>
       </c>
       <c r="D86" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E86" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G86" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H86" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B87" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C87" s="5">
         <v>1.3</v>
       </c>
       <c r="D87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E87" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G87" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H87" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C88" s="6">
         <v>7.98</v>
       </c>
       <c r="D88" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E88" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H88" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B89" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C89" s="5">
         <v>0.27200000000000002</v>
       </c>
       <c r="D89" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E89" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G89" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H89" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B90" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C90" s="5">
         <v>1.63</v>
       </c>
       <c r="D90" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E90" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G90" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H90" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B91" s="4"/>
       <c r="C91" s="5">
         <v>1.12E-2</v>
       </c>
       <c r="D91" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E91" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G91" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H91" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>73</v>
+        <v>169</v>
       </c>
       <c r="B92" s="4"/>
       <c r="C92" s="5">
         <v>2.62</v>
       </c>
       <c r="D92" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E92" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G92" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H92" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B93" s="4"/>
       <c r="C93">
         <v>0.371</v>
       </c>
       <c r="D93" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E93" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H93" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B94" s="4"/>
       <c r="C94">
         <v>2.29</v>
       </c>
       <c r="D94" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E94" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C95">
         <v>0.19400000000000001</v>
       </c>
       <c r="D95" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E95" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F95" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="H95" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C96">
         <v>0.80900000000000005</v>
       </c>
       <c r="D96" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E96" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F96" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="H96" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C97">
         <v>1.2699999999999999E-2</v>
       </c>
       <c r="D97" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E97" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F97" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="H97" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C98">
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="D98" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E98" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F98" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="H98" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
@@ -2602,7 +2596,7 @@
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
@@ -2610,7 +2604,7 @@
         <v>2</v>
       </c>
       <c r="C103" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
@@ -2618,12 +2612,12 @@
         <v>3</v>
       </c>
       <c r="C104" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -2631,11 +2625,11 @@
     </row>
     <row r="106" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B106"/>
       <c r="C106" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D106"/>
       <c r="E106"/>
@@ -2645,166 +2639,166 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B107" s="1"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C108" s="2" t="s">
+      <c r="D108" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E108" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D108" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E108" s="1" t="s">
+      <c r="F108" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C109">
         <v>0.1</v>
       </c>
       <c r="D109" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E109" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G109" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H109" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C110" s="15">
         <v>1.2</v>
       </c>
       <c r="D110" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E110" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F110" s="4"/>
       <c r="G110" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H110" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B111" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C111" s="5">
         <v>0.27200000000000002</v>
       </c>
       <c r="D111" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E111" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G111" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H111" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B112" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C112" s="5">
         <v>0.71699999999999997</v>
       </c>
       <c r="D112" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E112" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G112" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H112" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B113" s="4"/>
       <c r="C113" s="5">
         <v>1.78</v>
       </c>
       <c r="D113" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E113" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G113" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H113" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B114" s="4"/>
       <c r="C114">
         <v>6.42</v>
       </c>
       <c r="D114" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E114" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H114" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
@@ -2818,7 +2812,7 @@
       </c>
       <c r="B117" s="1"/>
       <c r="C117" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
@@ -2826,7 +2820,7 @@
         <v>2</v>
       </c>
       <c r="C118" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
@@ -2834,12 +2828,12 @@
         <v>3</v>
       </c>
       <c r="C119" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -2847,299 +2841,299 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C121" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B122" s="1"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E123" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D123" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E123" s="1" t="s">
+      <c r="F123" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="15" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C124" s="5">
         <v>0.80100000000000005</v>
       </c>
       <c r="D124" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E124" t="str">
         <f>$C$2</f>
         <v>sib_shan</v>
       </c>
       <c r="G124" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H124" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B125" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C125" s="5">
         <v>2.5899999999999999E-2</v>
       </c>
       <c r="D125" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E125" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G125" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H125" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B126" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C126" s="5">
         <v>2.4199999999999999E-2</v>
       </c>
       <c r="D126" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E126" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G126" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H126" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="15" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C127" s="5">
         <v>1.04E-2</v>
       </c>
       <c r="D127" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E127" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G127" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="H127" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C128" s="5">
         <v>0.34499999999999997</v>
       </c>
       <c r="D128" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E128" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G128" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H128" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B129" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C129" s="5">
         <v>0.13800000000000001</v>
       </c>
       <c r="D129" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E129" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G129" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H129" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B130" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C130" s="5">
         <v>0.13800000000000001</v>
       </c>
       <c r="D130" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E130" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G130" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H130" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C131" s="5">
         <v>1.8800000000000001E-2</v>
       </c>
       <c r="D131" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E131" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G131" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H131" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C132" s="5">
         <v>5.7700000000000001E-2</v>
       </c>
       <c r="D132" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E132" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G132" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H132" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="18" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B133" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C133" s="5">
         <v>4.5800000000000002E-10</v>
       </c>
       <c r="D133" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E133" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G133" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H133" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C134" s="5">
         <v>1.1200000000000001</v>
       </c>
       <c r="D134" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E134" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H134" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C135" s="5">
         <v>0.34499999999999997</v>
       </c>
       <c r="D135" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E135" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H135" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
@@ -3151,7 +3145,7 @@
       </c>
       <c r="B137" s="1"/>
       <c r="C137" s="7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
@@ -3159,7 +3153,7 @@
         <v>2</v>
       </c>
       <c r="C138" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
@@ -3167,12 +3161,12 @@
         <v>3</v>
       </c>
       <c r="C139" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -3180,446 +3174,446 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B142" s="1"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B143" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C143" s="2" t="s">
+      <c r="D143" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E143" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D143" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E143" s="1" t="s">
+      <c r="F143" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B144" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C144">
         <v>20</v>
       </c>
       <c r="D144" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E144" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G144" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H144" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C145" s="5">
         <v>0.107</v>
       </c>
       <c r="D145" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E145" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G145" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H145" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C146">
         <v>9.52</v>
       </c>
       <c r="D146" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E146" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G146" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="H146" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C147" s="5">
         <v>0.17799999999999999</v>
       </c>
       <c r="D147" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E147" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G147" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="H147" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B148" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C148" s="5">
         <v>0.26700000000000002</v>
       </c>
       <c r="D148" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E148" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G148" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H148" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B149" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C149">
         <v>6.99</v>
       </c>
       <c r="D149" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E149" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G149" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H149" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C150">
         <v>1.38</v>
       </c>
       <c r="D150" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E150" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G150" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H150" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B151" s="13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C151">
         <v>4.8600000000000003</v>
       </c>
       <c r="D151" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E151" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G151" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H151" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C152" s="5">
         <v>4.0000000000000001E-10</v>
       </c>
       <c r="D152" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E152" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G152" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H152" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C153">
         <v>6.6199999999999996E-5</v>
       </c>
       <c r="D153" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E153" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H153" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C154">
         <v>29.33</v>
       </c>
       <c r="D154" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E154" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H154" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C155">
         <v>3.5300000000000002E-4</v>
       </c>
       <c r="D155" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E155" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H155" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C156">
         <v>6.1599999999999997E-3</v>
       </c>
       <c r="D156" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E156" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H156" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C157">
         <v>1.17E-3</v>
       </c>
       <c r="D157" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E157" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H157" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C158">
         <v>1.1E-4</v>
       </c>
       <c r="D158" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E158" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H158" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C159">
         <v>8.8899999999999996E-6</v>
       </c>
       <c r="D159" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E159" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H159" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C160">
         <v>5.0799999999999999E-4</v>
       </c>
       <c r="D160" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E160" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H160" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B161" s="8"/>
       <c r="C161">
         <v>9.9</v>
       </c>
       <c r="D161" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E161" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H161" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B162" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C162" s="5">
         <v>4.44E-4</v>
       </c>
       <c r="D162" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E162" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G162" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H162" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C163" s="5">
         <v>1.78E-2</v>
       </c>
       <c r="D163" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E163" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G163" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H163" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
@@ -3634,7 +3628,7 @@
       </c>
       <c r="B166" s="1"/>
       <c r="C166" s="7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
@@ -3642,7 +3636,7 @@
         <v>2</v>
       </c>
       <c r="C167" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
@@ -3650,12 +3644,12 @@
         <v>3</v>
       </c>
       <c r="C168" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C169">
         <v>1</v>
@@ -3663,373 +3657,373 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C170" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B171" s="1"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B172" s="1"/>
       <c r="C172" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E172" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D172" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E172" s="1" t="s">
+      <c r="F172" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F172" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="G172" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="15" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B173" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C173" s="5">
         <v>0.752</v>
       </c>
       <c r="D173" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E173" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G173" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H173" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B174" s="11" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C174" s="5">
         <v>1.8</v>
       </c>
       <c r="D174" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E174" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G174" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H174" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B175" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C175" s="5">
         <v>0.251</v>
       </c>
       <c r="D175" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E175" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G175" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H175" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B176" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C176" s="5">
         <v>2.7300000000000001E-2</v>
       </c>
       <c r="D176" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E176" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G176" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H176" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B177" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C177" s="5">
         <v>0.01</v>
       </c>
       <c r="D177" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E177" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G177" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H177" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B178" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C178" s="5">
         <v>5.0400000000000002E-3</v>
       </c>
       <c r="D178" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E178" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G178" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H178" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C179" s="5">
         <v>4.0000000000000001E-10</v>
       </c>
       <c r="D179" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E179" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G179" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H179" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B180" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C180" s="5">
         <v>0</v>
       </c>
       <c r="D180" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E180" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G180" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H180" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C181" s="5">
         <v>0.105</v>
       </c>
       <c r="D181" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E181" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G181" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H181" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B182" s="13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C182" s="5">
         <v>0.627</v>
       </c>
       <c r="D182" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E182" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G182" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H182" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C183" s="5">
         <v>0.55000000000000004</v>
       </c>
       <c r="D183" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E183" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G183" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H183" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C184">
         <v>13.75</v>
       </c>
       <c r="D184" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E184" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G184" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H184" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="18" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B185" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C185" s="5">
         <v>1.44E-2</v>
       </c>
       <c r="D185" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E185" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G185" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H185" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C186" s="5">
         <v>15.73</v>
       </c>
       <c r="D186" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E186" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H186" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C187" s="5">
         <v>1.8</v>
       </c>
       <c r="D187" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E187" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H187" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
@@ -4044,7 +4038,7 @@
       </c>
       <c r="B191" s="1"/>
       <c r="C191" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
@@ -4052,7 +4046,7 @@
         <v>2</v>
       </c>
       <c r="C192" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
@@ -4060,12 +4054,12 @@
         <v>3</v>
       </c>
       <c r="C193" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C194">
         <v>1</v>
@@ -4073,88 +4067,88 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B196" s="1"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B197" s="1"/>
       <c r="C197" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E197" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D197" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E197" s="1" t="s">
+      <c r="F197" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F197" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="G197" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B198" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C198" s="5">
         <v>0.70699999999999996</v>
       </c>
       <c r="D198" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E198" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G198" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H198" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B199" s="11" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C199" s="5">
         <v>0.17699999999999999</v>
       </c>
       <c r="D199" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E199" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G199" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H199" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="15" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B200" t="str">
         <f>A200</f>
@@ -4164,63 +4158,63 @@
         <v>0.11700000000000001</v>
       </c>
       <c r="D200" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E200" t="str">
         <f>$C$2</f>
         <v>sib_shan</v>
       </c>
       <c r="G200" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H200" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C201" s="5">
         <v>0.1</v>
       </c>
       <c r="D201" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E201" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G201" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H201" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B202" s="13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C202" s="5">
         <v>0.6</v>
       </c>
       <c r="D202" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E202" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G202" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H202" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
@@ -4239,7 +4233,7 @@
       </c>
       <c r="B205" s="1"/>
       <c r="C205" s="7" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
@@ -4247,7 +4241,7 @@
         <v>2</v>
       </c>
       <c r="C206" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
@@ -4255,12 +4249,12 @@
         <v>3</v>
       </c>
       <c r="C207" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -4268,305 +4262,305 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C209" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B210" s="1"/>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B211" s="1"/>
       <c r="C211" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E211" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D211" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E211" s="1" t="s">
+      <c r="F211" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F211" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="G211" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B212" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C212" s="5">
         <v>0.27700000000000002</v>
       </c>
       <c r="D212" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E212" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G212" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H212" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B213" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C213" s="5">
         <v>1.98</v>
       </c>
       <c r="D213" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E213" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G213" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H213" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C214" s="20">
         <v>4.04</v>
       </c>
       <c r="D214" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E214" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G214" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H214" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C215" s="5">
         <v>1.25E-3</v>
       </c>
       <c r="D215" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E215" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G215" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H215" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C216" s="5">
         <v>7.44</v>
       </c>
       <c r="D216" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E216" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G216" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H216" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B217" s="9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C217" s="5">
         <v>0.1</v>
       </c>
       <c r="D217" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E217" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G217" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H217" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B218" s="13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C218" s="5">
         <v>0.6</v>
       </c>
       <c r="D218" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E218" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G218" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H218" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B219" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C219" s="5">
         <v>4.0000000000000001E-10</v>
       </c>
       <c r="D219" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E219" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G219" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H219" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="9" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B220" s="9"/>
       <c r="C220">
         <v>0.26300000000000001</v>
       </c>
       <c r="D220" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E220" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H220" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C221">
         <v>1.95</v>
       </c>
       <c r="D221" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E221" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H221" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="9" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B222" s="9" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C222">
         <v>8.69</v>
       </c>
       <c r="D222" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E222" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G222" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H222" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="9" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B223" s="9" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C223">
         <v>3.6099999999999999E-3</v>
       </c>
       <c r="D223" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E223" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G223" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H223" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
@@ -4580,7 +4574,7 @@
       </c>
       <c r="B226" s="1"/>
       <c r="C226" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
@@ -4588,7 +4582,7 @@
         <v>2</v>
       </c>
       <c r="C227" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
@@ -4598,7 +4592,7 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -4606,178 +4600,178 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C230" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B231" s="1"/>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B232" s="1"/>
       <c r="C232" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E232" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D232" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E232" s="1" t="s">
+      <c r="F232" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F232" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="G232" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H232" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="4" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C233" s="5">
         <v>0.97899999999999998</v>
       </c>
       <c r="D233" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E233" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G233" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H233" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="4" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C234" s="5">
         <v>0.97899999999999998</v>
       </c>
       <c r="D234" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E234" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G234" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H234" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C235" s="5">
         <v>2.1100000000000001E-2</v>
       </c>
       <c r="D235" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E235" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G235" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H235" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C236" s="5">
         <v>0.2</v>
       </c>
       <c r="D236" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E236" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G236" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H236" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B237" s="13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C237" s="5">
         <v>1.2</v>
       </c>
       <c r="D237" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E237" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G237" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H237" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="18" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B238" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C238" s="5">
         <v>4.48E-10</v>
       </c>
       <c r="D238" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E238" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G238" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H238" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
@@ -4791,7 +4785,7 @@
       </c>
       <c r="B242" s="1"/>
       <c r="C242" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
@@ -4799,7 +4793,7 @@
         <v>2</v>
       </c>
       <c r="C243" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
@@ -4809,7 +4803,7 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C245">
         <v>1</v>
@@ -4817,214 +4811,214 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C246" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B247" s="1"/>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B248" s="1"/>
       <c r="C248" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E248" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D248" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E248" s="1" t="s">
+      <c r="F248" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F248" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="G248" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C249" s="5">
         <v>0.14499999999999999</v>
       </c>
       <c r="D249" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E249" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G249" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H249" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C250" s="5">
         <v>0.14499999999999999</v>
       </c>
       <c r="D250" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E250" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G250" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H250" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="15" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B251" s="4"/>
       <c r="C251" s="5">
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="D251" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E251" t="str">
         <f>$C$2</f>
         <v>sib_shan</v>
       </c>
       <c r="H251" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="18" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B252" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C252" s="5">
         <v>4.5800000000000002E-10</v>
       </c>
       <c r="D252" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E252" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G252" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H252" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C253" s="5">
         <v>0.1</v>
       </c>
       <c r="D253" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E253" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G253" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H253" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B254" s="13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C254" s="5">
         <v>0.54200000000000004</v>
       </c>
       <c r="D254" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E254" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G254" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="H254" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C255" s="5">
         <v>3.53</v>
       </c>
       <c r="D255" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E255" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G255" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H255" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C256" s="5">
         <v>12.72</v>
       </c>
       <c r="D256" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E256" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H256" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.3">
@@ -5033,7 +5027,7 @@
       </c>
       <c r="B259" s="1"/>
       <c r="C259" s="21" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.3">
@@ -5041,7 +5035,7 @@
         <v>2</v>
       </c>
       <c r="C260" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.3">
@@ -5051,7 +5045,7 @@
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C262">
         <v>1</v>
@@ -5059,178 +5053,178 @@
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C263" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B264" s="1"/>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B265" s="1"/>
       <c r="C265" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E265" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D265" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E265" s="1" t="s">
+      <c r="F265" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F265" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="G265" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H265" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" s="4" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C266" s="5">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="D266" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E266" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G266" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H266" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" s="4" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B267" s="22" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C267" s="5">
         <v>4.2299999999999997E-2</v>
       </c>
       <c r="D267" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E267" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G267" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H267" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" s="4" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C268" s="5">
         <v>6.66</v>
       </c>
       <c r="D268" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E268" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G268" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H268" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" s="18" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B269" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C269" s="5">
         <v>0.44600000000000001</v>
       </c>
       <c r="D269" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E269" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G269" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H269" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C270" s="5">
         <v>9.3956999999999999E-2</v>
       </c>
       <c r="D270" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E270" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G270" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H270" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B271" s="13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C271" s="5">
         <v>0.56374000000000002</v>
       </c>
       <c r="D271" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E271" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G271" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="H271" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
@@ -5248,6 +5242,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101008B99206B7DC69543AE34BCFBD34E33AE" ma:contentTypeVersion="4" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="075500c07a6b4cedf2f211c962ddf63c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9df43d4f-f25a-4c61-bbc2-7515b39020c0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7fc67ce68b0b1abce75b627b593138d8" ns3:_="">
     <xsd:import namespace="9df43d4f-f25a-4c61-bbc2-7515b39020c0"/>
@@ -5393,22 +5402,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5855932F-2918-4696-B2D1-0ED741520C0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="9df43d4f-f25a-4c61-bbc2-7515b39020c0"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC7C0EC8-0C3B-44A9-8033-00137DC09A49}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFB2C521-9248-407E-ACEC-FA01CBCAF755}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5424,28 +5442,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC7C0EC8-0C3B-44A9-8033-00137DC09A49}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5855932F-2918-4696-B2D1-0ED741520C0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="9df43d4f-f25a-4c61-bbc2-7515b39020c0"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/inputs/layered oxide cathode type_HC anode SIB .xlsx
+++ b/data/inputs/layered oxide cathode type_HC anode SIB .xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="170">
   <si>
     <t>cutoff</t>
   </si>
@@ -40,9 +40,6 @@
     <t>Activity</t>
   </si>
   <si>
-    <t>activity type</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
@@ -79,9 +76,6 @@
     <t>RER</t>
   </si>
   <si>
-    <t>ordinary transforming activity</t>
-  </si>
-  <si>
     <t>GLO</t>
   </si>
   <si>
@@ -545,6 +539,9 @@
   </si>
   <si>
     <t>printed wiring board reference production, for surface mounting, Pb containing surface</t>
+  </si>
+  <si>
+    <t>process</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1011,7 @@
   <dimension ref="A1:H273"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1039,10 +1036,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -1051,28 +1048,28 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1080,47 +1077,47 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B11" t="str">
         <f>A11</f>
@@ -1130,22 +1127,22 @@
         <v>0.79900000000000004</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11" t="str">
         <f>$C$2</f>
         <v>sib_shan</v>
       </c>
       <c r="G11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B12" t="str">
         <f>A12</f>
@@ -1156,17 +1153,17 @@
         <v>0.20099999999999996</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E12" t="str">
         <f>$C$2</f>
         <v>sib_shan</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1181,28 +1178,28 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1210,47 +1207,47 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" ref="B22:B23" si="0">A22</f>
@@ -1260,22 +1257,22 @@
         <v>0.27</v>
       </c>
       <c r="D22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E22" s="9" t="str">
         <f>$C$2</f>
         <v>sib_shan</v>
       </c>
       <c r="G22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
@@ -1285,45 +1282,45 @@
         <v>0.36499999999999999</v>
       </c>
       <c r="D23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E23" s="9" t="str">
         <f>$C$2</f>
         <v>sib_shan</v>
       </c>
       <c r="G23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C24">
         <v>2.12E-2</v>
       </c>
       <c r="D24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B25" t="str">
         <f>A25</f>
@@ -1333,22 +1330,22 @@
         <v>0.14699999999999999</v>
       </c>
       <c r="D25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E25" t="str">
         <f>$C$2</f>
         <v>sib_shan</v>
       </c>
       <c r="G25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B26" t="str">
         <f>A26</f>
@@ -1358,195 +1355,195 @@
         <v>0.247</v>
       </c>
       <c r="D26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E26" t="str">
         <f>$C$2</f>
         <v>sib_shan</v>
       </c>
       <c r="G26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C27">
         <v>1.0500000000000001E-2</v>
       </c>
       <c r="D27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E27" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C28" s="5">
         <v>4.0000000000000001E-10</v>
       </c>
       <c r="D28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C29" s="5">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="D29" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E29" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C30" s="5">
         <v>0.25</v>
       </c>
       <c r="D30" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E30" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C31" s="5">
         <v>3.64</v>
       </c>
       <c r="D31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E31" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C32" s="5">
         <v>26.31</v>
       </c>
       <c r="D32" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E32" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C33" s="5">
         <v>0.46899999999999997</v>
       </c>
       <c r="D33" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E33" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H33" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C34" s="5">
         <v>0.05</v>
       </c>
       <c r="D34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E34" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -1561,28 +1558,28 @@
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>15</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -1590,47 +1587,47 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B42" s="1"/>
     </row>
     <row r="43" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C43" s="2" t="s">
+      <c r="D43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="G43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B44" t="str">
         <f>A44</f>
@@ -1640,241 +1637,241 @@
         <v>0.85399999999999998</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E44" t="str">
         <f>$C$2</f>
         <v>sib_shan</v>
       </c>
       <c r="G44" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C45" s="5">
         <v>1.8200000000000001E-2</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E45" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G45" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C46" s="5">
         <v>1.8200000000000001E-2</v>
       </c>
       <c r="D46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E46" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G46" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C47" s="5">
         <v>1.8200000000000001E-2</v>
       </c>
       <c r="D47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G47" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C48" s="5">
         <v>3.1800000000000001E-3</v>
       </c>
       <c r="D48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E48" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G48" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B49" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C49" s="5">
         <v>1.49E-2</v>
       </c>
       <c r="D49" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E49" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B50" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C50" s="5">
         <v>5.28E-2</v>
       </c>
       <c r="D50" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E50" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B51" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C51" s="12">
         <v>4.5800000000000002E-10</v>
       </c>
       <c r="D51" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E51" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B52" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C52" s="5">
         <v>2E-3</v>
       </c>
       <c r="D52" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E52" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G52" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C53" s="5">
         <v>0.26700000000000002</v>
       </c>
       <c r="D53" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E53" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G53" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C54" s="5">
         <v>0.26700000000000002</v>
       </c>
       <c r="D54" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E54" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H54" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -1889,28 +1886,28 @@
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C59" t="s">
-        <v>15</v>
+        <v>169</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C60" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -1918,93 +1915,93 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B63" s="7"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C64" s="1" t="s">
+      <c r="D64" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E64" s="1" t="s">
+      <c r="F64" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="G64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H64" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C65" s="10">
         <v>0.55000000000000004</v>
       </c>
       <c r="D65" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E65" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G65" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H65" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C66" s="10">
         <v>0.41</v>
       </c>
       <c r="D66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E66" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G66" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B67" t="str">
         <f>A67</f>
@@ -2014,22 +2011,22 @@
         <v>0.33600000000000002</v>
       </c>
       <c r="D67" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E67" s="4" t="str">
         <f>$C$2</f>
         <v>sib_shan</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H67" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B68" t="str">
         <f>A68</f>
@@ -2039,185 +2036,185 @@
         <v>2.75E-2</v>
       </c>
       <c r="D68" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E68" s="4" t="str">
         <f>$C$2</f>
         <v>sib_shan</v>
       </c>
       <c r="G68" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C69" s="3">
         <v>3.7699999999999997E-2</v>
       </c>
       <c r="D69" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E69" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C70" s="3">
         <v>0.13600000000000001</v>
       </c>
       <c r="D70" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B71" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C71" s="3">
         <v>0.81699999999999995</v>
       </c>
       <c r="D71" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E71" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G71" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H71" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="5">
         <v>4.0000000000000001E-10</v>
       </c>
       <c r="D72" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E72" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H72" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B73" s="4"/>
       <c r="C73" s="5">
         <v>3.0800000000000001E-2</v>
       </c>
       <c r="D73" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E73" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G73" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B74" s="4"/>
       <c r="C74" s="5">
         <v>10.6</v>
       </c>
       <c r="D74" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E74" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G74" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="5">
         <v>0.35299999999999998</v>
       </c>
       <c r="D75" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E75" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H75" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B76" s="4"/>
       <c r="C76" s="5">
         <v>10.71</v>
       </c>
       <c r="D76" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E76" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H76" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2236,28 +2233,28 @@
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C80" t="s">
-        <v>15</v>
+        <v>169</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C81" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -2265,15 +2262,15 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C83" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C84"/>
       <c r="D84"/>
@@ -2284,301 +2281,301 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C85" s="2" t="s">
+      <c r="D85" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E85" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E85" s="1" t="s">
+      <c r="F85" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F85" s="1" t="s">
+      <c r="G85" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H85" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B86" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C86" s="5">
         <v>1.42</v>
       </c>
       <c r="D86" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E86" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G86" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H86" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B87" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C87" s="5">
         <v>1.3</v>
       </c>
       <c r="D87" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E87" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G87" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H87" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C88" s="6">
         <v>7.98</v>
       </c>
       <c r="D88" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E88" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G88" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H88" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B89" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C89" s="5">
         <v>0.27200000000000002</v>
       </c>
       <c r="D89" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E89" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G89" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H89" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B90" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C90" s="5">
         <v>1.63</v>
       </c>
       <c r="D90" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E90" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G90" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H90" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B91" s="4"/>
       <c r="C91" s="5">
         <v>1.12E-2</v>
       </c>
       <c r="D91" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E91" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G91" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H91" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B92" s="4"/>
       <c r="C92" s="5">
         <v>2.62</v>
       </c>
       <c r="D92" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E92" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G92" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H92" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B93" s="4"/>
       <c r="C93">
         <v>0.371</v>
       </c>
       <c r="D93" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E93" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H93" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B94" s="4"/>
       <c r="C94">
         <v>2.29</v>
       </c>
       <c r="D94" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E94" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H94" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C95">
         <v>0.19400000000000001</v>
       </c>
       <c r="D95" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E95" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F95" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H95" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C96">
         <v>0.80900000000000005</v>
       </c>
       <c r="D96" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E96" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F96" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H96" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C97">
         <v>1.2699999999999999E-2</v>
       </c>
       <c r="D97" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E97" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F97" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H97" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C98">
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="D98" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E98" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F98" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H98" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
@@ -2596,28 +2593,28 @@
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C103" t="s">
-        <v>15</v>
+        <v>169</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C104" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -2625,11 +2622,11 @@
     </row>
     <row r="106" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B106"/>
       <c r="C106" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D106"/>
       <c r="E106"/>
@@ -2639,166 +2636,166 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B107" s="1"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C108" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C108" s="2" t="s">
+      <c r="D108" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E108" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D108" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E108" s="1" t="s">
+      <c r="F108" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F108" s="1" t="s">
+      <c r="G108" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H108" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C109">
         <v>0.1</v>
       </c>
       <c r="D109" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E109" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G109" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H109" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C110" s="15">
         <v>1.2</v>
       </c>
       <c r="D110" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E110" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F110" s="4"/>
       <c r="G110" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H110" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B111" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C111" s="5">
         <v>0.27200000000000002</v>
       </c>
       <c r="D111" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E111" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G111" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H111" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B112" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C112" s="5">
         <v>0.71699999999999997</v>
       </c>
       <c r="D112" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E112" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G112" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H112" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B113" s="4"/>
       <c r="C113" s="5">
         <v>1.78</v>
       </c>
       <c r="D113" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E113" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G113" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H113" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B114" s="4"/>
       <c r="C114">
         <v>6.42</v>
       </c>
       <c r="D114" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E114" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H114" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
@@ -2812,28 +2809,28 @@
       </c>
       <c r="B117" s="1"/>
       <c r="C117" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C118" t="s">
-        <v>15</v>
+        <v>169</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C119" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -2841,299 +2838,299 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C121" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B122" s="1"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E123" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D123" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E123" s="1" t="s">
+      <c r="F123" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F123" s="1" t="s">
+      <c r="G123" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H123" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H123" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C124" s="5">
         <v>0.80100000000000005</v>
       </c>
       <c r="D124" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E124" t="str">
         <f>$C$2</f>
         <v>sib_shan</v>
       </c>
       <c r="G124" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H124" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B125" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C125" s="5">
         <v>2.5899999999999999E-2</v>
       </c>
       <c r="D125" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E125" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G125" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H125" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B126" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C126" s="5">
         <v>2.4199999999999999E-2</v>
       </c>
       <c r="D126" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E126" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G126" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H126" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C127" s="5">
         <v>1.04E-2</v>
       </c>
       <c r="D127" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E127" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G127" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H127" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C128" s="5">
         <v>0.34499999999999997</v>
       </c>
       <c r="D128" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E128" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G128" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H128" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B129" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C129" s="5">
         <v>0.13800000000000001</v>
       </c>
       <c r="D129" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E129" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G129" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H129" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B130" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C130" s="5">
         <v>0.13800000000000001</v>
       </c>
       <c r="D130" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E130" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G130" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H130" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C131" s="5">
         <v>1.8800000000000001E-2</v>
       </c>
       <c r="D131" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E131" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G131" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H131" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C132" s="5">
         <v>5.7700000000000001E-2</v>
       </c>
       <c r="D132" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E132" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G132" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H132" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B133" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C133" s="5">
         <v>4.5800000000000002E-10</v>
       </c>
       <c r="D133" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E133" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G133" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H133" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C134" s="5">
         <v>1.1200000000000001</v>
       </c>
       <c r="D134" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E134" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H134" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C135" s="5">
         <v>0.34499999999999997</v>
       </c>
       <c r="D135" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E135" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H135" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
@@ -3145,28 +3142,28 @@
       </c>
       <c r="B137" s="1"/>
       <c r="C137" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C138" t="s">
-        <v>15</v>
+        <v>169</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C139" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -3174,446 +3171,446 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B142" s="1"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C143" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B143" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C143" s="2" t="s">
+      <c r="D143" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E143" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D143" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E143" s="1" t="s">
+      <c r="F143" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F143" s="1" t="s">
+      <c r="G143" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H143" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G143" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H143" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B144" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C144">
         <v>20</v>
       </c>
       <c r="D144" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E144" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G144" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H144" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C145" s="5">
         <v>0.107</v>
       </c>
       <c r="D145" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E145" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G145" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H145" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C146">
         <v>9.52</v>
       </c>
       <c r="D146" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E146" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G146" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H146" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C147" s="5">
         <v>0.17799999999999999</v>
       </c>
       <c r="D147" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E147" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G147" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H147" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B148" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C148" s="5">
         <v>0.26700000000000002</v>
       </c>
       <c r="D148" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E148" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G148" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H148" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B149" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C149">
         <v>6.99</v>
       </c>
       <c r="D149" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E149" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G149" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H149" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C150">
         <v>1.38</v>
       </c>
       <c r="D150" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E150" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G150" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H150" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B151" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C151">
         <v>4.8600000000000003</v>
       </c>
       <c r="D151" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E151" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G151" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H151" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C152" s="5">
         <v>4.0000000000000001E-10</v>
       </c>
       <c r="D152" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E152" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G152" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H152" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C153">
         <v>6.6199999999999996E-5</v>
       </c>
       <c r="D153" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E153" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H153" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C154">
         <v>29.33</v>
       </c>
       <c r="D154" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E154" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H154" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C155">
         <v>3.5300000000000002E-4</v>
       </c>
       <c r="D155" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E155" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H155" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C156">
         <v>6.1599999999999997E-3</v>
       </c>
       <c r="D156" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E156" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H156" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C157">
         <v>1.17E-3</v>
       </c>
       <c r="D157" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E157" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H157" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C158">
         <v>1.1E-4</v>
       </c>
       <c r="D158" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E158" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H158" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C159">
         <v>8.8899999999999996E-6</v>
       </c>
       <c r="D159" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E159" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H159" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C160">
         <v>5.0799999999999999E-4</v>
       </c>
       <c r="D160" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E160" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H160" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B161" s="8"/>
       <c r="C161">
         <v>9.9</v>
       </c>
       <c r="D161" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E161" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H161" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B162" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C162" s="5">
         <v>4.44E-4</v>
       </c>
       <c r="D162" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E162" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G162" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H162" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C163" s="5">
         <v>1.78E-2</v>
       </c>
       <c r="D163" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G163" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H163" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
@@ -3628,28 +3625,28 @@
       </c>
       <c r="B166" s="1"/>
       <c r="C166" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C167" t="s">
-        <v>15</v>
+        <v>169</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C168" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C169">
         <v>1</v>
@@ -3657,373 +3654,373 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C170" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B171" s="1"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B172" s="1"/>
       <c r="C172" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E172" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D172" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E172" s="1" t="s">
+      <c r="F172" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F172" s="1" t="s">
+      <c r="G172" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H172" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G172" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H172" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B173" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C173" s="5">
         <v>0.752</v>
       </c>
       <c r="D173" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E173" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G173" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H173" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B174" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C174" s="5">
         <v>1.8</v>
       </c>
       <c r="D174" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E174" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G174" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H174" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B175" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C175" s="5">
         <v>0.251</v>
       </c>
       <c r="D175" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E175" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G175" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H175" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B176" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C176" s="5">
         <v>2.7300000000000001E-2</v>
       </c>
       <c r="D176" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E176" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G176" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H176" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B177" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C177" s="5">
         <v>0.01</v>
       </c>
       <c r="D177" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E177" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G177" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H177" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B178" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C178" s="5">
         <v>5.0400000000000002E-3</v>
       </c>
       <c r="D178" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E178" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G178" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H178" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C179" s="5">
         <v>4.0000000000000001E-10</v>
       </c>
       <c r="D179" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E179" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G179" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H179" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B180" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C180" s="5">
         <v>0</v>
       </c>
       <c r="D180" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E180" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G180" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H180" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C181" s="5">
         <v>0.105</v>
       </c>
       <c r="D181" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E181" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G181" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H181" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B182" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C182" s="5">
         <v>0.627</v>
       </c>
       <c r="D182" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E182" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G182" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H182" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C183" s="5">
         <v>0.55000000000000004</v>
       </c>
       <c r="D183" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E183" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G183" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H183" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C184">
         <v>13.75</v>
       </c>
       <c r="D184" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E184" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G184" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H184" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B185" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C185" s="5">
         <v>1.44E-2</v>
       </c>
       <c r="D185" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E185" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G185" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H185" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C186" s="5">
         <v>15.73</v>
       </c>
       <c r="D186" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E186" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H186" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C187" s="5">
         <v>1.8</v>
       </c>
       <c r="D187" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E187" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H187" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
@@ -4038,28 +4035,28 @@
       </c>
       <c r="B191" s="1"/>
       <c r="C191" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C192" t="s">
-        <v>15</v>
+        <v>169</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C193" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C194">
         <v>1</v>
@@ -4067,88 +4064,88 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B196" s="1"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B197" s="1"/>
       <c r="C197" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E197" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D197" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E197" s="1" t="s">
+      <c r="F197" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F197" s="1" t="s">
+      <c r="G197" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H197" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G197" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H197" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B198" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C198" s="5">
         <v>0.70699999999999996</v>
       </c>
       <c r="D198" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E198" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G198" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H198" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B199" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C199" s="5">
         <v>0.17699999999999999</v>
       </c>
       <c r="D199" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E199" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G199" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H199" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B200" t="str">
         <f>A200</f>
@@ -4158,63 +4155,63 @@
         <v>0.11700000000000001</v>
       </c>
       <c r="D200" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E200" t="str">
         <f>$C$2</f>
         <v>sib_shan</v>
       </c>
       <c r="G200" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H200" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C201" s="5">
         <v>0.1</v>
       </c>
       <c r="D201" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E201" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G201" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H201" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B202" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C202" s="5">
         <v>0.6</v>
       </c>
       <c r="D202" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E202" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G202" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H202" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
@@ -4233,28 +4230,28 @@
       </c>
       <c r="B205" s="1"/>
       <c r="C205" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C206" t="s">
-        <v>15</v>
+        <v>169</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C207" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -4262,305 +4259,305 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C209" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B210" s="1"/>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B211" s="1"/>
       <c r="C211" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E211" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D211" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E211" s="1" t="s">
+      <c r="F211" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F211" s="1" t="s">
+      <c r="G211" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H211" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G211" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H211" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B212" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C212" s="5">
         <v>0.27700000000000002</v>
       </c>
       <c r="D212" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E212" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G212" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H212" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B213" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C213" s="5">
         <v>1.98</v>
       </c>
       <c r="D213" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E213" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G213" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H213" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B214" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C214" s="20">
         <v>4.04</v>
       </c>
       <c r="D214" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E214" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G214" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H214" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C215" s="5">
         <v>1.25E-3</v>
       </c>
       <c r="D215" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E215" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G215" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H215" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C216" s="5">
         <v>7.44</v>
       </c>
       <c r="D216" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E216" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G216" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H216" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B217" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C217" s="5">
         <v>0.1</v>
       </c>
       <c r="D217" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E217" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G217" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H217" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B218" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C218" s="5">
         <v>0.6</v>
       </c>
       <c r="D218" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E218" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G218" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H218" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B219" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C219" s="5">
         <v>4.0000000000000001E-10</v>
       </c>
       <c r="D219" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E219" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G219" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H219" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B220" s="9"/>
       <c r="C220">
         <v>0.26300000000000001</v>
       </c>
       <c r="D220" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E220" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H220" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C221">
         <v>1.95</v>
       </c>
       <c r="D221" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E221" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H221" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B222" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C222">
         <v>8.69</v>
       </c>
       <c r="D222" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E222" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G222" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H222" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B223" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C223">
         <v>3.6099999999999999E-3</v>
       </c>
       <c r="D223" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E223" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G223" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H223" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
@@ -4574,25 +4571,25 @@
       </c>
       <c r="B226" s="1"/>
       <c r="C226" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C227" t="s">
-        <v>15</v>
+        <v>169</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -4600,178 +4597,178 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C230" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B231" s="1"/>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B232" s="1"/>
       <c r="C232" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E232" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D232" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E232" s="1" t="s">
+      <c r="F232" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F232" s="1" t="s">
+      <c r="G232" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H232" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G232" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H232" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C233" s="5">
         <v>0.97899999999999998</v>
       </c>
       <c r="D233" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E233" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G233" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H233" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C234" s="5">
         <v>0.97899999999999998</v>
       </c>
       <c r="D234" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E234" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G234" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H234" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C235" s="5">
         <v>2.1100000000000001E-2</v>
       </c>
       <c r="D235" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E235" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G235" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H235" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C236" s="5">
         <v>0.2</v>
       </c>
       <c r="D236" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E236" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G236" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H236" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B237" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C237" s="5">
         <v>1.2</v>
       </c>
       <c r="D237" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E237" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G237" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H237" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B238" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C238" s="5">
         <v>4.48E-10</v>
       </c>
       <c r="D238" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E238" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G238" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H238" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
@@ -4785,25 +4782,25 @@
       </c>
       <c r="B242" s="1"/>
       <c r="C242" s="21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C243" t="s">
-        <v>15</v>
+        <v>169</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C245">
         <v>1</v>
@@ -4811,214 +4808,214 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C246" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B247" s="1"/>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B248" s="1"/>
       <c r="C248" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E248" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D248" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E248" s="1" t="s">
+      <c r="F248" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F248" s="1" t="s">
+      <c r="G248" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H248" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G248" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H248" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C249" s="5">
         <v>0.14499999999999999</v>
       </c>
       <c r="D249" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E249" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G249" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H249" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C250" s="5">
         <v>0.14499999999999999</v>
       </c>
       <c r="D250" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E250" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G250" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H250" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B251" s="4"/>
       <c r="C251" s="5">
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="D251" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E251" t="str">
         <f>$C$2</f>
         <v>sib_shan</v>
       </c>
       <c r="H251" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B252" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C252" s="5">
         <v>4.5800000000000002E-10</v>
       </c>
       <c r="D252" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E252" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G252" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H252" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C253" s="5">
         <v>0.1</v>
       </c>
       <c r="D253" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E253" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G253" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H253" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B254" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C254" s="5">
         <v>0.54200000000000004</v>
       </c>
       <c r="D254" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E254" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G254" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H254" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C255" s="5">
         <v>3.53</v>
       </c>
       <c r="D255" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E255" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G255" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H255" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C256" s="5">
         <v>12.72</v>
       </c>
       <c r="D256" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E256" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H256" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.3">
@@ -5027,25 +5024,25 @@
       </c>
       <c r="B259" s="1"/>
       <c r="C259" s="21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C260" t="s">
-        <v>15</v>
+        <v>169</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C262">
         <v>1</v>
@@ -5053,178 +5050,178 @@
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C263" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B264" s="1"/>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B265" s="1"/>
       <c r="C265" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E265" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D265" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E265" s="1" t="s">
+      <c r="F265" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F265" s="1" t="s">
+      <c r="G265" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H265" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G265" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H265" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C266" s="5">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="D266" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E266" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G266" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H266" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B267" s="22" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C267" s="5">
         <v>4.2299999999999997E-2</v>
       </c>
       <c r="D267" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E267" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G267" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H267" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C268" s="5">
         <v>6.66</v>
       </c>
       <c r="D268" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E268" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G268" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H268" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" s="18" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B269" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C269" s="5">
         <v>0.44600000000000001</v>
       </c>
       <c r="D269" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E269" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G269" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H269" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C270" s="5">
         <v>9.3956999999999999E-2</v>
       </c>
       <c r="D270" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E270" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G270" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H270" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B271" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C271" s="5">
         <v>0.56374000000000002</v>
       </c>
       <c r="D271" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E271" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G271" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H271" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
@@ -5248,15 +5245,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101008B99206B7DC69543AE34BCFBD34E33AE" ma:contentTypeVersion="4" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="075500c07a6b4cedf2f211c962ddf63c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9df43d4f-f25a-4c61-bbc2-7515b39020c0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7fc67ce68b0b1abce75b627b593138d8" ns3:_="">
     <xsd:import namespace="9df43d4f-f25a-4c61-bbc2-7515b39020c0"/>
@@ -5402,6 +5390,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5855932F-2918-4696-B2D1-0ED741520C0F}">
   <ds:schemaRefs>
@@ -5419,14 +5416,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC7C0EC8-0C3B-44A9-8033-00137DC09A49}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFB2C521-9248-407E-ACEC-FA01CBCAF755}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5442,4 +5431,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC7C0EC8-0C3B-44A9-8033-00137DC09A49}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/inputs/layered oxide cathode type_HC anode SIB .xlsx
+++ b/data/inputs/layered oxide cathode type_HC anode SIB .xlsx
@@ -1010,27 +1010,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H273"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.77734375" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1">
+      <c r="B1">
         <v>10</v>
       </c>
     </row>
@@ -1038,7 +1036,7 @@
       <c r="A2" t="s">
         <v>153</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s">
         <v>154</v>
       </c>
     </row>
@@ -1046,16 +1044,16 @@
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="7" t="s">
         <v>30</v>
       </c>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1063,7 +1061,7 @@
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="B6" s="16" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1071,7 +1069,7 @@
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="C7">
+      <c r="B7">
         <v>1</v>
       </c>
     </row>
@@ -1079,7 +1077,7 @@
       <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1087,105 +1085,105 @@
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B11" t="str">
+      <c r="B11">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="str">
+        <f>$B$2</f>
+        <v>sib_shan</v>
+      </c>
+      <c r="F11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" t="str">
         <f>A11</f>
         <v>NMMT_HC battery cell</v>
-      </c>
-      <c r="C11">
-        <v>0.79900000000000004</v>
-      </c>
-      <c r="D11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" t="str">
-        <f>$C$2</f>
-        <v>sib_shan</v>
-      </c>
-      <c r="G11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B12" t="str">
+      <c r="B12">
+        <f>1-B11</f>
+        <v>0.20099999999999996</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="str">
+        <f>$B$2</f>
+        <v>sib_shan</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" t="str">
         <f>A12</f>
         <v>SIB pack, except battery cell</v>
       </c>
-      <c r="C12">
-        <f>1-C11</f>
-        <v>0.20099999999999996</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" t="str">
-        <f>$C$2</f>
-        <v>sib_shan</v>
-      </c>
-      <c r="G12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C13" s="5"/>
+      <c r="B13" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C14" s="5"/>
+      <c r="B14" s="5"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>11</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B16" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1193,7 +1191,7 @@
       <c r="A17" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="B17" s="16" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1201,7 +1199,7 @@
       <c r="A18" t="s">
         <v>8</v>
       </c>
-      <c r="C18">
+      <c r="B18">
         <v>1</v>
       </c>
     </row>
@@ -1209,7 +1207,7 @@
       <c r="A19" t="s">
         <v>4</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B19" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1217,309 +1215,309 @@
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="1"/>
+      <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B22" t="str">
-        <f t="shared" ref="B22:B23" si="0">A22</f>
+      <c r="B22" s="15">
+        <v>0.27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="9" t="str">
+        <f>$B$2</f>
+        <v>sib_shan</v>
+      </c>
+      <c r="F22" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" t="str">
+        <f>A22</f>
         <v>NMMT cathode, with current collector</v>
-      </c>
-      <c r="C22" s="15">
-        <v>0.27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="9" t="str">
-        <f>$C$2</f>
-        <v>sib_shan</v>
-      </c>
-      <c r="G22" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B23" t="str">
-        <f t="shared" si="0"/>
+      <c r="B23" s="15">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="9" t="str">
+        <f>$B$2</f>
+        <v>sib_shan</v>
+      </c>
+      <c r="F23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" t="str">
+        <f>A23</f>
         <v>Anode, HC-Al</v>
-      </c>
-      <c r="C23" s="15">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="D23" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="9" t="str">
-        <f>$C$2</f>
-        <v>sib_shan</v>
-      </c>
-      <c r="G23" t="s">
-        <v>39</v>
-      </c>
-      <c r="H23" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24">
+        <v>2.12E-2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>155</v>
+      </c>
+      <c r="F24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="C24">
-        <v>2.12E-2</v>
-      </c>
-      <c r="D24" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" t="s">
-        <v>155</v>
-      </c>
-      <c r="G24" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B25" t="str">
+      <c r="B25">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="str">
+        <f>$B$2</f>
+        <v>sib_shan</v>
+      </c>
+      <c r="F25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" t="str">
         <f>A25</f>
         <v>NaPF6_electrolyte</v>
-      </c>
-      <c r="C25">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="D25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" t="str">
-        <f>$C$2</f>
-        <v>sib_shan</v>
-      </c>
-      <c r="G25" t="s">
-        <v>39</v>
-      </c>
-      <c r="H25" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B26" t="str">
+      <c r="B26">
+        <v>0.247</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="str">
+        <f>$B$2</f>
+        <v>sib_shan</v>
+      </c>
+      <c r="F26" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" t="str">
         <f>A26</f>
         <v>Nickel plated steel cell container</v>
-      </c>
-      <c r="C26">
-        <v>0.247</v>
-      </c>
-      <c r="D26" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" t="str">
-        <f>$C$2</f>
-        <v>sib_shan</v>
-      </c>
-      <c r="G26" t="s">
-        <v>39</v>
-      </c>
-      <c r="H26" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>155</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="C27">
-        <v>1.0500000000000001E-2</v>
-      </c>
-      <c r="D27" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" t="s">
-        <v>155</v>
-      </c>
-      <c r="G27" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="5">
+        <v>4.0000000000000001E-10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>155</v>
+      </c>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="C28" s="5">
-        <v>4.0000000000000001E-10</v>
-      </c>
-      <c r="D28" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" t="s">
-        <v>155</v>
-      </c>
-      <c r="G28" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="5">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>157</v>
+      </c>
+      <c r="D29" t="s">
+        <v>155</v>
+      </c>
+      <c r="F29" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="C29" s="5">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="D29" t="s">
-        <v>157</v>
-      </c>
-      <c r="E29" t="s">
-        <v>155</v>
-      </c>
-      <c r="G29" t="s">
-        <v>38</v>
-      </c>
-      <c r="H29" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30" t="s">
+        <v>155</v>
+      </c>
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="13" t="s">
         <v>45</v>
-      </c>
-      <c r="C30" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="D30" t="s">
-        <v>157</v>
-      </c>
-      <c r="E30" t="s">
-        <v>155</v>
-      </c>
-      <c r="G30" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="5">
+        <v>3.64</v>
+      </c>
+      <c r="C31" t="s">
+        <v>158</v>
+      </c>
+      <c r="D31" t="s">
+        <v>155</v>
+      </c>
+      <c r="F31" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="C31" s="5">
-        <v>3.64</v>
-      </c>
-      <c r="D31" t="s">
-        <v>158</v>
-      </c>
-      <c r="E31" t="s">
-        <v>155</v>
-      </c>
-      <c r="G31" t="s">
-        <v>39</v>
-      </c>
-      <c r="H31" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="5">
+        <v>26.31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>159</v>
+      </c>
+      <c r="D32" t="s">
+        <v>155</v>
+      </c>
+      <c r="F32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="C32" s="5">
-        <v>26.31</v>
-      </c>
-      <c r="D32" t="s">
-        <v>159</v>
-      </c>
-      <c r="E32" t="s">
-        <v>155</v>
-      </c>
-      <c r="G32" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="5">
+      <c r="B33" s="5">
         <v>0.46899999999999997</v>
       </c>
+      <c r="C33" t="s">
+        <v>159</v>
+      </c>
       <c r="D33" t="s">
-        <v>159</v>
-      </c>
-      <c r="E33" t="s">
         <v>156</v>
       </c>
-      <c r="H33" t="s">
+      <c r="G33" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1527,45 +1525,45 @@
       <c r="A34" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>155</v>
+      </c>
+      <c r="F34" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="D34" t="s">
-        <v>5</v>
-      </c>
-      <c r="E34" t="s">
-        <v>155</v>
-      </c>
-      <c r="G34" t="s">
-        <v>14</v>
-      </c>
-      <c r="H34" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C35" s="5"/>
+      <c r="B35" s="5"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C36" s="5"/>
+      <c r="B36" s="5"/>
     </row>
     <row r="37" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>11</v>
       </c>
-      <c r="C38" t="s">
+      <c r="B38" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1573,7 +1571,7 @@
       <c r="A39" t="s">
         <v>2</v>
       </c>
-      <c r="C39" t="s">
+      <c r="B39" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1581,7 +1579,7 @@
       <c r="A40" t="s">
         <v>8</v>
       </c>
-      <c r="C40">
+      <c r="B40">
         <v>1</v>
       </c>
     </row>
@@ -1589,7 +1587,7 @@
       <c r="A41" t="s">
         <v>4</v>
       </c>
-      <c r="C41" t="s">
+      <c r="B41" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1597,303 +1595,303 @@
       <c r="A42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="1"/>
+      <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B44" t="str">
+      <c r="B44" s="10">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" t="str">
+        <f>$B$2</f>
+        <v>sib_shan</v>
+      </c>
+      <c r="F44" t="s">
+        <v>39</v>
+      </c>
+      <c r="G44" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" t="str">
         <f>A44</f>
         <v>NMMT active material</v>
-      </c>
-      <c r="C44" s="10">
-        <v>0.85399999999999998</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" t="str">
-        <f>$C$2</f>
-        <v>sib_shan</v>
-      </c>
-      <c r="G44" t="s">
-        <v>39</v>
-      </c>
-      <c r="H44" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>54</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="5">
+        <v>1.8200000000000001E-2</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" t="s">
+        <v>155</v>
+      </c>
+      <c r="F45" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" t="s">
         <v>55</v>
-      </c>
-      <c r="C45" s="5">
-        <v>1.8200000000000001E-2</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45" t="s">
-        <v>155</v>
-      </c>
-      <c r="G45" t="s">
-        <v>14</v>
-      </c>
-      <c r="H45" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>57</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="5">
+        <v>1.8200000000000001E-2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
+        <v>155</v>
+      </c>
+      <c r="F46" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" t="s">
         <v>58</v>
-      </c>
-      <c r="C46" s="5">
-        <v>1.8200000000000001E-2</v>
-      </c>
-      <c r="D46" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46" t="s">
-        <v>155</v>
-      </c>
-      <c r="G46" t="s">
-        <v>14</v>
-      </c>
-      <c r="H46" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>166</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="5">
+        <v>1.8200000000000001E-2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
+        <v>155</v>
+      </c>
+      <c r="F47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" t="s">
         <v>56</v>
-      </c>
-      <c r="C47" s="5">
-        <v>1.8200000000000001E-2</v>
-      </c>
-      <c r="D47" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" t="s">
-        <v>155</v>
-      </c>
-      <c r="G47" t="s">
-        <v>14</v>
-      </c>
-      <c r="H47" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>59</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="5">
+        <v>3.1800000000000001E-3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" t="s">
+        <v>155</v>
+      </c>
+      <c r="F48" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" t="s">
         <v>60</v>
-      </c>
-      <c r="C48" s="5">
-        <v>3.1800000000000001E-3</v>
-      </c>
-      <c r="D48" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" t="s">
-        <v>155</v>
-      </c>
-      <c r="G48" t="s">
-        <v>14</v>
-      </c>
-      <c r="H48" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>61</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="5">
+        <v>1.49E-2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>157</v>
+      </c>
+      <c r="D49" t="s">
+        <v>155</v>
+      </c>
+      <c r="F49" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" t="s">
         <v>44</v>
-      </c>
-      <c r="C49" s="5">
-        <v>1.49E-2</v>
-      </c>
-      <c r="D49" t="s">
-        <v>157</v>
-      </c>
-      <c r="E49" t="s">
-        <v>155</v>
-      </c>
-      <c r="G49" t="s">
-        <v>13</v>
-      </c>
-      <c r="H49" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>17</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="5">
+        <v>5.28E-2</v>
+      </c>
+      <c r="C50" t="s">
+        <v>157</v>
+      </c>
+      <c r="D50" t="s">
+        <v>155</v>
+      </c>
+      <c r="F50" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" t="s">
         <v>45</v>
-      </c>
-      <c r="C50" s="5">
-        <v>5.28E-2</v>
-      </c>
-      <c r="D50" t="s">
-        <v>157</v>
-      </c>
-      <c r="E50" t="s">
-        <v>155</v>
-      </c>
-      <c r="G50" t="s">
-        <v>13</v>
-      </c>
-      <c r="H50" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>62</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="12">
+        <v>4.5800000000000002E-10</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" t="s">
+        <v>155</v>
+      </c>
+      <c r="F51" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" t="s">
         <v>63</v>
-      </c>
-      <c r="C51" s="12">
-        <v>4.5800000000000002E-10</v>
-      </c>
-      <c r="D51" t="s">
-        <v>4</v>
-      </c>
-      <c r="E51" t="s">
-        <v>155</v>
-      </c>
-      <c r="G51" t="s">
-        <v>13</v>
-      </c>
-      <c r="H51" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>64</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>158</v>
+      </c>
+      <c r="D52" t="s">
+        <v>155</v>
+      </c>
+      <c r="F52" t="s">
+        <v>39</v>
+      </c>
+      <c r="G52" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" t="s">
         <v>47</v>
-      </c>
-      <c r="C52" s="5">
-        <v>2E-3</v>
-      </c>
-      <c r="D52" t="s">
-        <v>158</v>
-      </c>
-      <c r="E52" t="s">
-        <v>155</v>
-      </c>
-      <c r="G52" t="s">
-        <v>39</v>
-      </c>
-      <c r="H52" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>167</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="5">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="C53" t="s">
+        <v>159</v>
+      </c>
+      <c r="D53" t="s">
+        <v>155</v>
+      </c>
+      <c r="F53" t="s">
+        <v>29</v>
+      </c>
+      <c r="G53" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" t="s">
         <v>49</v>
-      </c>
-      <c r="C53" s="5">
-        <v>0.26700000000000002</v>
-      </c>
-      <c r="D53" t="s">
-        <v>159</v>
-      </c>
-      <c r="E53" t="s">
-        <v>155</v>
-      </c>
-      <c r="G53" t="s">
-        <v>29</v>
-      </c>
-      <c r="H53" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>21</v>
       </c>
-      <c r="C54" s="5">
+      <c r="B54" s="5">
         <v>0.26700000000000002</v>
       </c>
+      <c r="C54" t="s">
+        <v>159</v>
+      </c>
       <c r="D54" t="s">
-        <v>159</v>
-      </c>
-      <c r="E54" t="s">
         <v>156</v>
       </c>
-      <c r="H54" t="s">
+      <c r="G54" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C55" s="5"/>
+      <c r="B55" s="5"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C56" s="5"/>
+      <c r="B56" s="5"/>
     </row>
     <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B58" s="1"/>
-      <c r="C58" s="7" t="s">
+      <c r="B58" s="7" t="s">
         <v>52</v>
       </c>
+      <c r="H58" s="1"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>11</v>
       </c>
-      <c r="C59" t="s">
+      <c r="B59" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1901,7 +1899,7 @@
       <c r="A60" t="s">
         <v>2</v>
       </c>
-      <c r="C60" t="s">
+      <c r="B60" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1909,7 +1907,7 @@
       <c r="A61" t="s">
         <v>8</v>
       </c>
-      <c r="C61">
+      <c r="B61">
         <v>1</v>
       </c>
     </row>
@@ -1917,7 +1915,7 @@
       <c r="A62" t="s">
         <v>4</v>
       </c>
-      <c r="C62" t="s">
+      <c r="B62" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1925,322 +1923,322 @@
       <c r="A63" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B63" s="7"/>
+      <c r="H63" s="7"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>65</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="10">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" t="s">
+        <v>155</v>
+      </c>
+      <c r="F65" t="s">
+        <v>14</v>
+      </c>
+      <c r="G65" t="s">
+        <v>12</v>
+      </c>
+      <c r="H65" t="s">
         <v>66</v>
-      </c>
-      <c r="C65" s="10">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D65" t="s">
-        <v>5</v>
-      </c>
-      <c r="E65" t="s">
-        <v>155</v>
-      </c>
-      <c r="G65" t="s">
-        <v>14</v>
-      </c>
-      <c r="H65" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="10">
+        <v>0.41</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" t="s">
+        <v>155</v>
+      </c>
+      <c r="F66" t="s">
+        <v>14</v>
+      </c>
+      <c r="G66" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="C66" s="10">
-        <v>0.41</v>
-      </c>
-      <c r="D66" t="s">
-        <v>5</v>
-      </c>
-      <c r="E66" t="s">
-        <v>155</v>
-      </c>
-      <c r="G66" t="s">
-        <v>14</v>
-      </c>
-      <c r="H66" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B67" t="str">
+      <c r="B67" s="5">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="4" t="str">
+        <f>$B$2</f>
+        <v>sib_shan</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G67" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" t="str">
         <f>A67</f>
         <v xml:space="preserve">Nickel carbonate </v>
-      </c>
-      <c r="C67" s="5">
-        <v>0.33600000000000002</v>
-      </c>
-      <c r="D67" t="s">
-        <v>5</v>
-      </c>
-      <c r="E67" s="4" t="str">
-        <f>$C$2</f>
-        <v>sib_shan</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H67" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B68" t="str">
+      <c r="B68" s="3">
+        <v>2.75E-2</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="4" t="str">
+        <f>$B$2</f>
+        <v>sib_shan</v>
+      </c>
+      <c r="F68" t="s">
+        <v>39</v>
+      </c>
+      <c r="G68" t="s">
+        <v>12</v>
+      </c>
+      <c r="H68" t="str">
         <f>A68</f>
         <v>Magnesium hydroxide</v>
-      </c>
-      <c r="C68" s="3">
-        <v>2.75E-2</v>
-      </c>
-      <c r="D68" t="s">
-        <v>5</v>
-      </c>
-      <c r="E68" s="4" t="str">
-        <f>$C$2</f>
-        <v>sib_shan</v>
-      </c>
-      <c r="G68" t="s">
-        <v>39</v>
-      </c>
-      <c r="H68" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>71</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="3">
+        <v>3.7699999999999997E-2</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" t="s">
+        <v>155</v>
+      </c>
+      <c r="F69" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" t="s">
+        <v>12</v>
+      </c>
+      <c r="H69" t="s">
         <v>72</v>
-      </c>
-      <c r="C69" s="3">
-        <v>3.7699999999999997E-2</v>
-      </c>
-      <c r="D69" t="s">
-        <v>5</v>
-      </c>
-      <c r="E69" t="s">
-        <v>155</v>
-      </c>
-      <c r="G69" t="s">
-        <v>13</v>
-      </c>
-      <c r="H69" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>61</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="3">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="C70" t="s">
+        <v>157</v>
+      </c>
+      <c r="D70" t="s">
+        <v>155</v>
+      </c>
+      <c r="F70" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70" t="s">
+        <v>12</v>
+      </c>
+      <c r="H70" t="s">
         <v>44</v>
-      </c>
-      <c r="C70" s="3">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="D70" t="s">
-        <v>157</v>
-      </c>
-      <c r="E70" t="s">
-        <v>155</v>
-      </c>
-      <c r="G70" t="s">
-        <v>13</v>
-      </c>
-      <c r="H70" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>17</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="3">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="C71" t="s">
+        <v>157</v>
+      </c>
+      <c r="D71" t="s">
+        <v>155</v>
+      </c>
+      <c r="F71" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" t="s">
         <v>45</v>
-      </c>
-      <c r="C71" s="3">
-        <v>0.81699999999999995</v>
-      </c>
-      <c r="D71" t="s">
-        <v>157</v>
-      </c>
-      <c r="E71" t="s">
-        <v>155</v>
-      </c>
-      <c r="G71" t="s">
-        <v>13</v>
-      </c>
-      <c r="H71" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B72" s="4"/>
-      <c r="C72" s="5">
+      <c r="B72" s="5">
         <v>4.0000000000000001E-10</v>
       </c>
+      <c r="C72" t="s">
+        <v>4</v>
+      </c>
       <c r="D72" t="s">
-        <v>4</v>
-      </c>
-      <c r="E72" t="s">
-        <v>155</v>
+        <v>155</v>
+      </c>
+      <c r="F72" t="s">
+        <v>13</v>
       </c>
       <c r="G72" t="s">
-        <v>13</v>
-      </c>
-      <c r="H72" t="s">
-        <v>12</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H72" s="4"/>
     </row>
     <row r="73" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>64</v>
       </c>
-      <c r="B73" s="4"/>
-      <c r="C73" s="5">
+      <c r="B73" s="5">
         <v>3.0800000000000001E-2</v>
       </c>
+      <c r="C73" t="s">
+        <v>158</v>
+      </c>
       <c r="D73" t="s">
-        <v>158</v>
-      </c>
-      <c r="E73" t="s">
-        <v>155</v>
+        <v>155</v>
+      </c>
+      <c r="F73" t="s">
+        <v>39</v>
       </c>
       <c r="G73" t="s">
-        <v>39</v>
-      </c>
-      <c r="H73" t="s">
-        <v>12</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H73" s="4"/>
     </row>
     <row r="74" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>167</v>
       </c>
-      <c r="B74" s="4"/>
-      <c r="C74" s="5">
+      <c r="B74" s="5">
         <v>10.6</v>
       </c>
+      <c r="C74" t="s">
+        <v>159</v>
+      </c>
       <c r="D74" t="s">
-        <v>159</v>
-      </c>
-      <c r="E74" t="s">
-        <v>155</v>
+        <v>155</v>
+      </c>
+      <c r="F74" t="s">
+        <v>13</v>
       </c>
       <c r="G74" t="s">
-        <v>13</v>
-      </c>
-      <c r="H74" t="s">
-        <v>12</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H74" s="4"/>
     </row>
     <row r="75" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B75" s="4"/>
-      <c r="C75" s="5">
+      <c r="B75" s="5">
         <v>0.35299999999999998</v>
       </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
       <c r="D75" t="s">
-        <v>5</v>
-      </c>
-      <c r="E75" t="s">
         <v>156</v>
       </c>
-      <c r="H75" t="s">
+      <c r="G75" t="s">
         <v>16</v>
       </c>
+      <c r="H75" s="4"/>
     </row>
     <row r="76" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>21</v>
       </c>
-      <c r="B76" s="4"/>
-      <c r="C76" s="5">
+      <c r="B76" s="5">
         <v>10.71</v>
       </c>
+      <c r="C76" t="s">
+        <v>159</v>
+      </c>
       <c r="D76" t="s">
-        <v>159</v>
-      </c>
-      <c r="E76" t="s">
         <v>156</v>
       </c>
-      <c r="H76" t="s">
+      <c r="G76" t="s">
         <v>16</v>
       </c>
+      <c r="H76" s="4"/>
     </row>
     <row r="77" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="H77" s="4"/>
     </row>
     <row r="78" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="H78" s="4"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="H79" s="1"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>11</v>
       </c>
-      <c r="C80" t="s">
+      <c r="B80" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2248,7 +2246,7 @@
       <c r="A81" t="s">
         <v>2</v>
       </c>
-      <c r="C81" t="s">
+      <c r="B81" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2256,7 +2254,7 @@
       <c r="A82" t="s">
         <v>8</v>
       </c>
-      <c r="C82">
+      <c r="B82">
         <v>1</v>
       </c>
     </row>
@@ -2264,7 +2262,7 @@
       <c r="A83" t="s">
         <v>4</v>
       </c>
-      <c r="C83" t="s">
+      <c r="B83" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2272,249 +2270,249 @@
       <c r="A84" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B84"/>
       <c r="C84"/>
       <c r="D84"/>
       <c r="E84"/>
       <c r="F84"/>
       <c r="G84"/>
-      <c r="H84"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H85" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>65</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="5">
+        <v>1.42</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" t="s">
+        <v>155</v>
+      </c>
+      <c r="F86" t="s">
+        <v>14</v>
+      </c>
+      <c r="G86" t="s">
+        <v>12</v>
+      </c>
+      <c r="H86" t="s">
         <v>66</v>
-      </c>
-      <c r="C86" s="5">
-        <v>1.42</v>
-      </c>
-      <c r="D86" t="s">
-        <v>5</v>
-      </c>
-      <c r="E86" t="s">
-        <v>155</v>
-      </c>
-      <c r="G86" t="s">
-        <v>14</v>
-      </c>
-      <c r="H86" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>73</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" t="s">
+        <v>155</v>
+      </c>
+      <c r="F87" t="s">
+        <v>14</v>
+      </c>
+      <c r="G87" t="s">
+        <v>12</v>
+      </c>
+      <c r="H87" t="s">
         <v>74</v>
-      </c>
-      <c r="C87" s="5">
-        <v>1.3</v>
-      </c>
-      <c r="D87" t="s">
-        <v>5</v>
-      </c>
-      <c r="E87" t="s">
-        <v>155</v>
-      </c>
-      <c r="G87" t="s">
-        <v>14</v>
-      </c>
-      <c r="H87" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B88" s="6">
+        <v>7.98</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" t="s">
+        <v>155</v>
+      </c>
+      <c r="F88" t="s">
+        <v>29</v>
+      </c>
+      <c r="G88" t="s">
+        <v>12</v>
+      </c>
+      <c r="H88" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="C88" s="6">
-        <v>7.98</v>
-      </c>
-      <c r="D88" t="s">
-        <v>5</v>
-      </c>
-      <c r="E88" t="s">
-        <v>155</v>
-      </c>
-      <c r="G88" t="s">
-        <v>29</v>
-      </c>
-      <c r="H88" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>61</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="5">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="C89" t="s">
+        <v>157</v>
+      </c>
+      <c r="D89" t="s">
+        <v>155</v>
+      </c>
+      <c r="F89" t="s">
+        <v>15</v>
+      </c>
+      <c r="G89" t="s">
+        <v>12</v>
+      </c>
+      <c r="H89" t="s">
         <v>44</v>
-      </c>
-      <c r="C89" s="5">
-        <v>0.27200000000000002</v>
-      </c>
-      <c r="D89" t="s">
-        <v>157</v>
-      </c>
-      <c r="E89" t="s">
-        <v>155</v>
-      </c>
-      <c r="G89" t="s">
-        <v>15</v>
-      </c>
-      <c r="H89" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>17</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="5">
+        <v>1.63</v>
+      </c>
+      <c r="C90" t="s">
+        <v>157</v>
+      </c>
+      <c r="D90" t="s">
+        <v>155</v>
+      </c>
+      <c r="F90" t="s">
+        <v>13</v>
+      </c>
+      <c r="G90" t="s">
+        <v>12</v>
+      </c>
+      <c r="H90" t="s">
         <v>45</v>
-      </c>
-      <c r="C90" s="5">
-        <v>1.63</v>
-      </c>
-      <c r="D90" t="s">
-        <v>157</v>
-      </c>
-      <c r="E90" t="s">
-        <v>155</v>
-      </c>
-      <c r="G90" t="s">
-        <v>13</v>
-      </c>
-      <c r="H90" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>64</v>
       </c>
-      <c r="B91" s="4"/>
-      <c r="C91" s="5">
+      <c r="B91" s="5">
         <v>1.12E-2</v>
       </c>
+      <c r="C91" t="s">
+        <v>158</v>
+      </c>
       <c r="D91" t="s">
-        <v>158</v>
-      </c>
-      <c r="E91" t="s">
-        <v>155</v>
+        <v>155</v>
+      </c>
+      <c r="F91" t="s">
+        <v>15</v>
       </c>
       <c r="G91" t="s">
-        <v>15</v>
-      </c>
-      <c r="H91" t="s">
-        <v>12</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H91" s="4"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>167</v>
       </c>
-      <c r="B92" s="4"/>
-      <c r="C92" s="5">
+      <c r="B92" s="5">
         <v>2.62</v>
       </c>
+      <c r="C92" t="s">
+        <v>159</v>
+      </c>
       <c r="D92" t="s">
-        <v>159</v>
-      </c>
-      <c r="E92" t="s">
-        <v>155</v>
+        <v>155</v>
+      </c>
+      <c r="F92" t="s">
+        <v>29</v>
       </c>
       <c r="G92" t="s">
-        <v>29</v>
-      </c>
-      <c r="H92" t="s">
-        <v>12</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H92" s="4"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B93" s="4"/>
-      <c r="C93">
+      <c r="B93">
         <v>0.371</v>
       </c>
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
       <c r="D93" t="s">
-        <v>5</v>
-      </c>
-      <c r="E93" t="s">
         <v>156</v>
       </c>
-      <c r="H93" t="s">
+      <c r="G93" t="s">
         <v>16</v>
       </c>
+      <c r="H93" s="4"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>21</v>
       </c>
-      <c r="B94" s="4"/>
-      <c r="C94">
+      <c r="B94">
         <v>2.29</v>
       </c>
+      <c r="C94" t="s">
+        <v>159</v>
+      </c>
       <c r="D94" t="s">
-        <v>159</v>
-      </c>
-      <c r="E94" t="s">
         <v>156</v>
       </c>
-      <c r="H94" t="s">
+      <c r="G94" t="s">
         <v>16</v>
       </c>
+      <c r="H94" s="4"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>76</v>
       </c>
-      <c r="C95">
+      <c r="B95">
         <v>0.19400000000000001</v>
       </c>
+      <c r="C95" t="s">
+        <v>5</v>
+      </c>
       <c r="D95" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="E95" t="s">
-        <v>156</v>
-      </c>
-      <c r="F95" t="s">
         <v>160</v>
       </c>
-      <c r="H95" t="s">
+      <c r="G95" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2522,19 +2520,19 @@
       <c r="A96" t="s">
         <v>77</v>
       </c>
-      <c r="C96">
+      <c r="B96">
         <v>0.80900000000000005</v>
       </c>
+      <c r="C96" t="s">
+        <v>5</v>
+      </c>
       <c r="D96" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="E96" t="s">
-        <v>156</v>
-      </c>
-      <c r="F96" t="s">
         <v>160</v>
       </c>
-      <c r="H96" t="s">
+      <c r="G96" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2542,19 +2540,19 @@
       <c r="A97" t="s">
         <v>79</v>
       </c>
-      <c r="C97">
+      <c r="B97">
         <v>1.2699999999999999E-2</v>
       </c>
+      <c r="C97" t="s">
+        <v>5</v>
+      </c>
       <c r="D97" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="E97" t="s">
-        <v>156</v>
-      </c>
-      <c r="F97" t="s">
         <v>160</v>
       </c>
-      <c r="H97" t="s">
+      <c r="G97" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2562,45 +2560,45 @@
       <c r="A98" t="s">
         <v>78</v>
       </c>
-      <c r="C98">
+      <c r="B98">
         <v>1.2999999999999999E-2</v>
       </c>
+      <c r="C98" t="s">
+        <v>5</v>
+      </c>
       <c r="D98" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="E98" t="s">
-        <v>156</v>
-      </c>
-      <c r="F98" t="s">
         <v>160</v>
       </c>
-      <c r="H98" t="s">
+      <c r="G98" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C99" s="5"/>
+      <c r="B99" s="5"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C100" s="5"/>
+      <c r="B100" s="5"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C101" s="5"/>
+      <c r="B101" s="5"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1" t="s">
+      <c r="B102" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="H102" s="1"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>11</v>
       </c>
-      <c r="C103" t="s">
+      <c r="B103" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2608,7 +2606,7 @@
       <c r="A104" t="s">
         <v>2</v>
       </c>
-      <c r="C104" t="s">
+      <c r="B104" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2616,7 +2614,7 @@
       <c r="A105" t="s">
         <v>8</v>
       </c>
-      <c r="C105">
+      <c r="B105">
         <v>1</v>
       </c>
     </row>
@@ -2624,10 +2622,10 @@
       <c r="A106" t="s">
         <v>4</v>
       </c>
-      <c r="B106"/>
-      <c r="C106" t="s">
-        <v>5</v>
-      </c>
+      <c r="B106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106"/>
       <c r="D106"/>
       <c r="E106"/>
       <c r="F106"/>
@@ -2638,185 +2636,185 @@
       <c r="A107" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B107" s="1"/>
+      <c r="H107" s="1"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H108" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>80</v>
       </c>
-      <c r="B109" s="14" t="s">
+      <c r="B109">
+        <v>0.1</v>
+      </c>
+      <c r="C109" t="s">
+        <v>5</v>
+      </c>
+      <c r="D109" t="s">
+        <v>155</v>
+      </c>
+      <c r="F109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G109" t="s">
+        <v>12</v>
+      </c>
+      <c r="H109" s="14" t="s">
         <v>81</v>
-      </c>
-      <c r="C109">
-        <v>0.1</v>
-      </c>
-      <c r="D109" t="s">
-        <v>5</v>
-      </c>
-      <c r="E109" t="s">
-        <v>155</v>
-      </c>
-      <c r="G109" t="s">
-        <v>14</v>
-      </c>
-      <c r="H109" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>82</v>
       </c>
-      <c r="B110" s="15" t="s">
+      <c r="B110" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="C110" t="s">
+        <v>5</v>
+      </c>
+      <c r="D110" t="s">
+        <v>155</v>
+      </c>
+      <c r="E110" s="4"/>
+      <c r="F110" t="s">
+        <v>15</v>
+      </c>
+      <c r="G110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H110" s="15" t="s">
         <v>83</v>
-      </c>
-      <c r="C110" s="15">
-        <v>1.2</v>
-      </c>
-      <c r="D110" t="s">
-        <v>5</v>
-      </c>
-      <c r="E110" t="s">
-        <v>155</v>
-      </c>
-      <c r="F110" s="4"/>
-      <c r="G110" t="s">
-        <v>15</v>
-      </c>
-      <c r="H110" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>61</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="5">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="C111" t="s">
+        <v>157</v>
+      </c>
+      <c r="D111" t="s">
+        <v>155</v>
+      </c>
+      <c r="F111" t="s">
+        <v>13</v>
+      </c>
+      <c r="G111" t="s">
+        <v>12</v>
+      </c>
+      <c r="H111" t="s">
         <v>44</v>
-      </c>
-      <c r="C111" s="5">
-        <v>0.27200000000000002</v>
-      </c>
-      <c r="D111" t="s">
-        <v>157</v>
-      </c>
-      <c r="E111" t="s">
-        <v>155</v>
-      </c>
-      <c r="G111" t="s">
-        <v>13</v>
-      </c>
-      <c r="H111" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>17</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="5">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="C112" t="s">
+        <v>157</v>
+      </c>
+      <c r="D112" t="s">
+        <v>155</v>
+      </c>
+      <c r="F112" t="s">
+        <v>13</v>
+      </c>
+      <c r="G112" t="s">
+        <v>12</v>
+      </c>
+      <c r="H112" t="s">
         <v>45</v>
-      </c>
-      <c r="C112" s="5">
-        <v>0.71699999999999997</v>
-      </c>
-      <c r="D112" t="s">
-        <v>157</v>
-      </c>
-      <c r="E112" t="s">
-        <v>155</v>
-      </c>
-      <c r="G112" t="s">
-        <v>13</v>
-      </c>
-      <c r="H112" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>64</v>
       </c>
-      <c r="B113" s="4"/>
-      <c r="C113" s="5">
+      <c r="B113" s="5">
         <v>1.78</v>
       </c>
+      <c r="C113" t="s">
+        <v>158</v>
+      </c>
       <c r="D113" t="s">
-        <v>158</v>
-      </c>
-      <c r="E113" t="s">
-        <v>155</v>
+        <v>155</v>
+      </c>
+      <c r="F113" t="s">
+        <v>39</v>
       </c>
       <c r="G113" t="s">
-        <v>39</v>
-      </c>
-      <c r="H113" t="s">
-        <v>12</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H113" s="4"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B114" s="4"/>
-      <c r="C114">
+      <c r="B114">
         <v>6.42</v>
       </c>
+      <c r="C114" t="s">
+        <v>159</v>
+      </c>
       <c r="D114" t="s">
-        <v>159</v>
-      </c>
-      <c r="E114" t="s">
         <v>156</v>
       </c>
-      <c r="H114" t="s">
+      <c r="G114" t="s">
         <v>16</v>
       </c>
+      <c r="H114" s="4"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="4"/>
-      <c r="B115" s="4"/>
-      <c r="C115" s="5"/>
+      <c r="B115" s="5"/>
+      <c r="H115" s="4"/>
     </row>
     <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B117" s="1"/>
-      <c r="C117" s="7" t="s">
+      <c r="B117" s="7" t="s">
         <v>34</v>
       </c>
+      <c r="H117" s="1"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>11</v>
       </c>
-      <c r="C118" t="s">
+      <c r="B118" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2824,7 +2822,7 @@
       <c r="A119" t="s">
         <v>2</v>
       </c>
-      <c r="C119" t="s">
+      <c r="B119" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2832,7 +2830,7 @@
       <c r="A120" t="s">
         <v>8</v>
       </c>
-      <c r="C120">
+      <c r="B120">
         <v>1</v>
       </c>
     </row>
@@ -2840,7 +2838,7 @@
       <c r="A121" t="s">
         <v>4</v>
       </c>
-      <c r="C121" t="s">
+      <c r="B121" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2848,50 +2846,50 @@
       <c r="A122" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B122" s="1"/>
+      <c r="H122" s="1"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B123" s="1"/>
-      <c r="C123" s="2" t="s">
+      <c r="B123" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C123" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="D123" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H123" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="H123" s="1"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C124" s="5">
+      <c r="B124" s="5">
         <v>0.80100000000000005</v>
       </c>
-      <c r="D124" t="s">
-        <v>5</v>
-      </c>
-      <c r="E124" t="str">
-        <f>$C$2</f>
+      <c r="C124" t="s">
+        <v>5</v>
+      </c>
+      <c r="D124" t="str">
+        <f>$B$2</f>
         <v>sib_shan</v>
       </c>
+      <c r="F124" t="s">
+        <v>39</v>
+      </c>
       <c r="G124" t="s">
-        <v>39</v>
-      </c>
-      <c r="H124" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2899,65 +2897,65 @@
       <c r="A125" t="s">
         <v>54</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="5">
+        <v>2.5899999999999999E-2</v>
+      </c>
+      <c r="C125" t="s">
+        <v>5</v>
+      </c>
+      <c r="D125" t="s">
+        <v>155</v>
+      </c>
+      <c r="F125" t="s">
+        <v>14</v>
+      </c>
+      <c r="G125" t="s">
+        <v>12</v>
+      </c>
+      <c r="H125" t="s">
         <v>55</v>
-      </c>
-      <c r="C125" s="5">
-        <v>2.5899999999999999E-2</v>
-      </c>
-      <c r="D125" t="s">
-        <v>5</v>
-      </c>
-      <c r="E125" t="s">
-        <v>155</v>
-      </c>
-      <c r="G125" t="s">
-        <v>14</v>
-      </c>
-      <c r="H125" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>85</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="5">
+        <v>2.4199999999999999E-2</v>
+      </c>
+      <c r="C126" t="s">
+        <v>5</v>
+      </c>
+      <c r="D126" t="s">
+        <v>155</v>
+      </c>
+      <c r="F126" t="s">
+        <v>14</v>
+      </c>
+      <c r="G126" t="s">
+        <v>12</v>
+      </c>
+      <c r="H126" t="s">
         <v>86</v>
-      </c>
-      <c r="C126" s="5">
-        <v>2.4199999999999999E-2</v>
-      </c>
-      <c r="D126" t="s">
-        <v>5</v>
-      </c>
-      <c r="E126" t="s">
-        <v>155</v>
-      </c>
-      <c r="G126" t="s">
-        <v>14</v>
-      </c>
-      <c r="H126" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C127" s="5">
+      <c r="B127" s="5">
         <v>1.04E-2</v>
       </c>
+      <c r="C127" t="s">
+        <v>5</v>
+      </c>
       <c r="D127" t="s">
-        <v>5</v>
-      </c>
-      <c r="E127" t="s">
-        <v>155</v>
+        <v>155</v>
+      </c>
+      <c r="F127" t="s">
+        <v>94</v>
       </c>
       <c r="G127" t="s">
-        <v>94</v>
-      </c>
-      <c r="H127" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2965,154 +2963,154 @@
       <c r="A128" t="s">
         <v>27</v>
       </c>
-      <c r="B128" s="11" t="s">
+      <c r="B128" s="5">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="C128" t="s">
+        <v>5</v>
+      </c>
+      <c r="D128" t="s">
+        <v>155</v>
+      </c>
+      <c r="F128" t="s">
+        <v>95</v>
+      </c>
+      <c r="G128" t="s">
+        <v>12</v>
+      </c>
+      <c r="H128" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="C128" s="5">
-        <v>0.34499999999999997</v>
-      </c>
-      <c r="D128" t="s">
-        <v>5</v>
-      </c>
-      <c r="E128" t="s">
-        <v>155</v>
-      </c>
-      <c r="G128" t="s">
-        <v>95</v>
-      </c>
-      <c r="H128" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>88</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="5">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="C129" t="s">
+        <v>5</v>
+      </c>
+      <c r="D129" t="s">
+        <v>155</v>
+      </c>
+      <c r="F129" t="s">
+        <v>14</v>
+      </c>
+      <c r="G129" t="s">
+        <v>12</v>
+      </c>
+      <c r="H129" t="s">
         <v>89</v>
-      </c>
-      <c r="C129" s="5">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="D129" t="s">
-        <v>5</v>
-      </c>
-      <c r="E129" t="s">
-        <v>155</v>
-      </c>
-      <c r="G129" t="s">
-        <v>14</v>
-      </c>
-      <c r="H129" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>90</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="5">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="C130" t="s">
+        <v>5</v>
+      </c>
+      <c r="D130" t="s">
+        <v>155</v>
+      </c>
+      <c r="F130" t="s">
+        <v>14</v>
+      </c>
+      <c r="G130" t="s">
+        <v>12</v>
+      </c>
+      <c r="H130" t="s">
         <v>91</v>
-      </c>
-      <c r="C130" s="5">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="D130" t="s">
-        <v>5</v>
-      </c>
-      <c r="E130" t="s">
-        <v>155</v>
-      </c>
-      <c r="G130" t="s">
-        <v>14</v>
-      </c>
-      <c r="H130" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B131" s="9" t="s">
+      <c r="B131" s="5">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="C131" t="s">
+        <v>157</v>
+      </c>
+      <c r="D131" t="s">
+        <v>155</v>
+      </c>
+      <c r="F131" t="s">
+        <v>38</v>
+      </c>
+      <c r="G131" t="s">
+        <v>12</v>
+      </c>
+      <c r="H131" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="C131" s="5">
-        <v>1.8800000000000001E-2</v>
-      </c>
-      <c r="D131" t="s">
-        <v>157</v>
-      </c>
-      <c r="E131" t="s">
-        <v>155</v>
-      </c>
-      <c r="G131" t="s">
-        <v>38</v>
-      </c>
-      <c r="H131" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B132" s="13" t="s">
+      <c r="B132" s="5">
+        <v>5.7700000000000001E-2</v>
+      </c>
+      <c r="C132" t="s">
+        <v>157</v>
+      </c>
+      <c r="D132" t="s">
+        <v>155</v>
+      </c>
+      <c r="F132" t="s">
+        <v>13</v>
+      </c>
+      <c r="G132" t="s">
+        <v>12</v>
+      </c>
+      <c r="H132" s="13" t="s">
         <v>45</v>
-      </c>
-      <c r="C132" s="5">
-        <v>5.7700000000000001E-2</v>
-      </c>
-      <c r="D132" t="s">
-        <v>157</v>
-      </c>
-      <c r="E132" t="s">
-        <v>155</v>
-      </c>
-      <c r="G132" t="s">
-        <v>13</v>
-      </c>
-      <c r="H132" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="5">
+        <v>4.5800000000000002E-10</v>
+      </c>
+      <c r="C133" t="s">
+        <v>4</v>
+      </c>
+      <c r="D133" t="s">
+        <v>155</v>
+      </c>
+      <c r="F133" t="s">
+        <v>13</v>
+      </c>
+      <c r="G133" t="s">
+        <v>12</v>
+      </c>
+      <c r="H133" t="s">
         <v>93</v>
-      </c>
-      <c r="C133" s="5">
-        <v>4.5800000000000002E-10</v>
-      </c>
-      <c r="D133" t="s">
-        <v>4</v>
-      </c>
-      <c r="E133" t="s">
-        <v>155</v>
-      </c>
-      <c r="G133" t="s">
-        <v>13</v>
-      </c>
-      <c r="H133" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C134" s="5">
+      <c r="B134" s="5">
         <v>1.1200000000000001</v>
       </c>
+      <c r="C134" t="s">
+        <v>159</v>
+      </c>
       <c r="D134" t="s">
-        <v>159</v>
-      </c>
-      <c r="E134" t="s">
         <v>156</v>
       </c>
-      <c r="H134" t="s">
+      <c r="G134" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3120,16 +3118,16 @@
       <c r="A135" t="s">
         <v>20</v>
       </c>
-      <c r="C135" s="5">
+      <c r="B135" s="5">
         <v>0.34499999999999997</v>
       </c>
+      <c r="C135" t="s">
+        <v>5</v>
+      </c>
       <c r="D135" t="s">
-        <v>5</v>
-      </c>
-      <c r="E135" t="s">
         <v>156</v>
       </c>
-      <c r="H135" t="s">
+      <c r="G135" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3140,16 +3138,16 @@
       <c r="A137" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B137" s="1"/>
-      <c r="C137" s="7" t="s">
+      <c r="B137" s="7" t="s">
         <v>84</v>
       </c>
+      <c r="H137" s="1"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>11</v>
       </c>
-      <c r="C138" t="s">
+      <c r="B138" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3157,7 +3155,7 @@
       <c r="A139" t="s">
         <v>2</v>
       </c>
-      <c r="C139" t="s">
+      <c r="B139" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3165,7 +3163,7 @@
       <c r="A140" t="s">
         <v>8</v>
       </c>
-      <c r="C140">
+      <c r="B140">
         <v>1</v>
       </c>
     </row>
@@ -3178,255 +3176,255 @@
       <c r="A142" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B142" s="1"/>
+      <c r="H142" s="1"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B143" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H143" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G143" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H143" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>96</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144">
+        <v>20</v>
+      </c>
+      <c r="C144" t="s">
+        <v>5</v>
+      </c>
+      <c r="D144" t="s">
+        <v>155</v>
+      </c>
+      <c r="F144" t="s">
+        <v>14</v>
+      </c>
+      <c r="G144" t="s">
+        <v>12</v>
+      </c>
+      <c r="H144" t="s">
         <v>97</v>
-      </c>
-      <c r="C144">
-        <v>20</v>
-      </c>
-      <c r="D144" t="s">
-        <v>5</v>
-      </c>
-      <c r="E144" t="s">
-        <v>155</v>
-      </c>
-      <c r="G144" t="s">
-        <v>14</v>
-      </c>
-      <c r="H144" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B145" s="4" t="s">
+      <c r="B145" s="5">
+        <v>0.107</v>
+      </c>
+      <c r="C145" t="s">
+        <v>158</v>
+      </c>
+      <c r="D145" t="s">
+        <v>155</v>
+      </c>
+      <c r="F145" t="s">
+        <v>39</v>
+      </c>
+      <c r="G145" t="s">
+        <v>12</v>
+      </c>
+      <c r="H145" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="C145" s="5">
-        <v>0.107</v>
-      </c>
-      <c r="D145" t="s">
-        <v>158</v>
-      </c>
-      <c r="E145" t="s">
-        <v>155</v>
-      </c>
-      <c r="G145" t="s">
-        <v>39</v>
-      </c>
-      <c r="H145" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B146" s="4" t="s">
+      <c r="B146">
+        <v>9.52</v>
+      </c>
+      <c r="C146" t="s">
+        <v>159</v>
+      </c>
+      <c r="D146" t="s">
+        <v>155</v>
+      </c>
+      <c r="F146" t="s">
+        <v>105</v>
+      </c>
+      <c r="G146" t="s">
+        <v>12</v>
+      </c>
+      <c r="H146" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="C146">
-        <v>9.52</v>
-      </c>
-      <c r="D146" t="s">
-        <v>159</v>
-      </c>
-      <c r="E146" t="s">
-        <v>155</v>
-      </c>
-      <c r="G146" t="s">
-        <v>105</v>
-      </c>
-      <c r="H146" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B147" s="4" t="s">
+      <c r="B147" s="5">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="C147" t="s">
+        <v>5</v>
+      </c>
+      <c r="D147" t="s">
+        <v>155</v>
+      </c>
+      <c r="F147" t="s">
+        <v>105</v>
+      </c>
+      <c r="G147" t="s">
+        <v>12</v>
+      </c>
+      <c r="H147" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="C147" s="5">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="D147" t="s">
-        <v>5</v>
-      </c>
-      <c r="E147" t="s">
-        <v>155</v>
-      </c>
-      <c r="G147" t="s">
-        <v>105</v>
-      </c>
-      <c r="H147" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>98</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="5">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="C148" t="s">
+        <v>5</v>
+      </c>
+      <c r="D148" t="s">
+        <v>155</v>
+      </c>
+      <c r="F148" t="s">
+        <v>14</v>
+      </c>
+      <c r="G148" t="s">
+        <v>12</v>
+      </c>
+      <c r="H148" t="s">
         <v>99</v>
-      </c>
-      <c r="C148" s="5">
-        <v>0.26700000000000002</v>
-      </c>
-      <c r="D148" t="s">
-        <v>5</v>
-      </c>
-      <c r="E148" t="s">
-        <v>155</v>
-      </c>
-      <c r="G148" t="s">
-        <v>14</v>
-      </c>
-      <c r="H148" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>23</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149">
+        <v>6.99</v>
+      </c>
+      <c r="C149" t="s">
+        <v>5</v>
+      </c>
+      <c r="D149" t="s">
+        <v>155</v>
+      </c>
+      <c r="F149" t="s">
+        <v>13</v>
+      </c>
+      <c r="G149" t="s">
+        <v>12</v>
+      </c>
+      <c r="H149" t="s">
         <v>41</v>
-      </c>
-      <c r="C149">
-        <v>6.99</v>
-      </c>
-      <c r="D149" t="s">
-        <v>5</v>
-      </c>
-      <c r="E149" t="s">
-        <v>155</v>
-      </c>
-      <c r="G149" t="s">
-        <v>13</v>
-      </c>
-      <c r="H149" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B150" s="9" t="s">
+      <c r="B150">
+        <v>1.38</v>
+      </c>
+      <c r="C150" t="s">
+        <v>157</v>
+      </c>
+      <c r="D150" t="s">
+        <v>155</v>
+      </c>
+      <c r="F150" t="s">
+        <v>13</v>
+      </c>
+      <c r="G150" t="s">
+        <v>12</v>
+      </c>
+      <c r="H150" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="C150">
-        <v>1.38</v>
-      </c>
-      <c r="D150" t="s">
-        <v>157</v>
-      </c>
-      <c r="E150" t="s">
-        <v>155</v>
-      </c>
-      <c r="G150" t="s">
-        <v>13</v>
-      </c>
-      <c r="H150" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B151" s="13" t="s">
+      <c r="B151">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="C151" t="s">
+        <v>157</v>
+      </c>
+      <c r="D151" t="s">
+        <v>155</v>
+      </c>
+      <c r="F151" t="s">
+        <v>14</v>
+      </c>
+      <c r="G151" t="s">
+        <v>12</v>
+      </c>
+      <c r="H151" s="13" t="s">
         <v>45</v>
-      </c>
-      <c r="C151">
-        <v>4.8600000000000003</v>
-      </c>
-      <c r="D151" t="s">
-        <v>157</v>
-      </c>
-      <c r="E151" t="s">
-        <v>155</v>
-      </c>
-      <c r="G151" t="s">
-        <v>14</v>
-      </c>
-      <c r="H151" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B152" s="9" t="s">
+      <c r="B152" s="5">
+        <v>4.0000000000000001E-10</v>
+      </c>
+      <c r="C152" t="s">
+        <v>36</v>
+      </c>
+      <c r="D152" t="s">
+        <v>155</v>
+      </c>
+      <c r="F152" t="s">
+        <v>13</v>
+      </c>
+      <c r="G152" t="s">
+        <v>12</v>
+      </c>
+      <c r="H152" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="C152" s="5">
-        <v>4.0000000000000001E-10</v>
-      </c>
-      <c r="D152" t="s">
-        <v>36</v>
-      </c>
-      <c r="E152" t="s">
-        <v>155</v>
-      </c>
-      <c r="G152" t="s">
-        <v>13</v>
-      </c>
-      <c r="H152" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>101</v>
       </c>
-      <c r="C153">
+      <c r="B153">
         <v>6.6199999999999996E-5</v>
       </c>
+      <c r="C153" t="s">
+        <v>5</v>
+      </c>
       <c r="D153" t="s">
-        <v>5</v>
-      </c>
-      <c r="E153" t="s">
         <v>156</v>
       </c>
-      <c r="H153" t="s">
+      <c r="G153" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3434,16 +3432,16 @@
       <c r="A154" t="s">
         <v>102</v>
       </c>
-      <c r="C154">
+      <c r="B154">
         <v>29.33</v>
       </c>
+      <c r="C154" t="s">
+        <v>5</v>
+      </c>
       <c r="D154" t="s">
-        <v>5</v>
-      </c>
-      <c r="E154" t="s">
         <v>156</v>
       </c>
-      <c r="H154" t="s">
+      <c r="G154" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3451,16 +3449,16 @@
       <c r="A155" t="s">
         <v>103</v>
       </c>
-      <c r="C155">
+      <c r="B155">
         <v>3.5300000000000002E-4</v>
       </c>
+      <c r="C155" t="s">
+        <v>5</v>
+      </c>
       <c r="D155" t="s">
-        <v>5</v>
-      </c>
-      <c r="E155" t="s">
         <v>156</v>
       </c>
-      <c r="H155" t="s">
+      <c r="G155" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3468,16 +3466,16 @@
       <c r="A156" t="s">
         <v>22</v>
       </c>
-      <c r="C156">
+      <c r="B156">
         <v>6.1599999999999997E-3</v>
       </c>
+      <c r="C156" t="s">
+        <v>5</v>
+      </c>
       <c r="D156" t="s">
-        <v>5</v>
-      </c>
-      <c r="E156" t="s">
         <v>156</v>
       </c>
-      <c r="H156" t="s">
+      <c r="G156" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3485,16 +3483,16 @@
       <c r="A157" t="s">
         <v>104</v>
       </c>
-      <c r="C157">
+      <c r="B157">
         <v>1.17E-3</v>
       </c>
+      <c r="C157" t="s">
+        <v>5</v>
+      </c>
       <c r="D157" t="s">
-        <v>5</v>
-      </c>
-      <c r="E157" t="s">
         <v>156</v>
       </c>
-      <c r="H157" t="s">
+      <c r="G157" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3502,16 +3500,16 @@
       <c r="A158" t="s">
         <v>25</v>
       </c>
-      <c r="C158">
+      <c r="B158">
         <v>1.1E-4</v>
       </c>
+      <c r="C158" t="s">
+        <v>5</v>
+      </c>
       <c r="D158" t="s">
-        <v>5</v>
-      </c>
-      <c r="E158" t="s">
         <v>156</v>
       </c>
-      <c r="H158" t="s">
+      <c r="G158" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3519,16 +3517,16 @@
       <c r="A159" t="s">
         <v>24</v>
       </c>
-      <c r="C159">
+      <c r="B159">
         <v>8.8899999999999996E-6</v>
       </c>
+      <c r="C159" t="s">
+        <v>5</v>
+      </c>
       <c r="D159" t="s">
-        <v>5</v>
-      </c>
-      <c r="E159" t="s">
         <v>156</v>
       </c>
-      <c r="H159" t="s">
+      <c r="G159" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3536,16 +3534,16 @@
       <c r="A160" t="s">
         <v>100</v>
       </c>
-      <c r="C160">
+      <c r="B160">
         <v>5.0799999999999999E-4</v>
       </c>
+      <c r="C160" t="s">
+        <v>5</v>
+      </c>
       <c r="D160" t="s">
-        <v>5</v>
-      </c>
-      <c r="E160" t="s">
         <v>156</v>
       </c>
-      <c r="H160" t="s">
+      <c r="G160" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3553,86 +3551,86 @@
       <c r="A161" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B161" s="8"/>
-      <c r="C161">
+      <c r="B161">
         <v>9.9</v>
       </c>
+      <c r="C161" t="s">
+        <v>159</v>
+      </c>
       <c r="D161" t="s">
-        <v>159</v>
-      </c>
-      <c r="E161" t="s">
         <v>156</v>
       </c>
-      <c r="H161" t="s">
+      <c r="G161" t="s">
         <v>16</v>
       </c>
+      <c r="H161" s="8"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>106</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="5">
+        <v>4.44E-4</v>
+      </c>
+      <c r="C162" t="s">
+        <v>5</v>
+      </c>
+      <c r="D162" t="s">
+        <v>155</v>
+      </c>
+      <c r="F162" t="s">
+        <v>39</v>
+      </c>
+      <c r="G162" t="s">
+        <v>12</v>
+      </c>
+      <c r="H162" t="s">
         <v>107</v>
-      </c>
-      <c r="C162" s="5">
-        <v>4.44E-4</v>
-      </c>
-      <c r="D162" t="s">
-        <v>5</v>
-      </c>
-      <c r="E162" t="s">
-        <v>155</v>
-      </c>
-      <c r="G162" t="s">
-        <v>39</v>
-      </c>
-      <c r="H162" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>26</v>
       </c>
-      <c r="B163" s="5" t="s">
+      <c r="B163" s="5">
+        <v>1.78E-2</v>
+      </c>
+      <c r="C163" t="s">
+        <v>162</v>
+      </c>
+      <c r="D163" t="s">
+        <v>155</v>
+      </c>
+      <c r="F163" t="s">
+        <v>29</v>
+      </c>
+      <c r="G163" t="s">
+        <v>12</v>
+      </c>
+      <c r="H163" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C163" s="5">
-        <v>1.78E-2</v>
-      </c>
-      <c r="D163" t="s">
-        <v>162</v>
-      </c>
-      <c r="E163" t="s">
-        <v>155</v>
-      </c>
-      <c r="G163" t="s">
-        <v>29</v>
-      </c>
-      <c r="H163" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B164" s="5"/>
+      <c r="H164" s="5"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B165" s="5"/>
+      <c r="H165" s="5"/>
     </row>
     <row r="166" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B166" s="1"/>
-      <c r="C166" s="7" t="s">
+      <c r="B166" s="7" t="s">
         <v>87</v>
       </c>
+      <c r="H166" s="1"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>11</v>
       </c>
-      <c r="C167" t="s">
+      <c r="B167" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3640,7 +3638,7 @@
       <c r="A168" t="s">
         <v>2</v>
       </c>
-      <c r="C168" t="s">
+      <c r="B168" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3648,7 +3646,7 @@
       <c r="A169" t="s">
         <v>8</v>
       </c>
-      <c r="C169">
+      <c r="B169">
         <v>1</v>
       </c>
     </row>
@@ -3656,7 +3654,7 @@
       <c r="A170" t="s">
         <v>4</v>
       </c>
-      <c r="C170" t="s">
+      <c r="B170" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3664,345 +3662,345 @@
       <c r="A171" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B171" s="1"/>
+      <c r="H171" s="1"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B172" s="1"/>
-      <c r="C172" s="2" t="s">
+      <c r="B172" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C172" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="D172" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H172" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="H172" s="1"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="5">
+        <v>0.752</v>
+      </c>
+      <c r="C173" t="s">
+        <v>5</v>
+      </c>
+      <c r="D173" t="s">
+        <v>155</v>
+      </c>
+      <c r="F173" t="s">
+        <v>13</v>
+      </c>
+      <c r="G173" t="s">
+        <v>12</v>
+      </c>
+      <c r="H173" t="s">
         <v>110</v>
-      </c>
-      <c r="C173" s="5">
-        <v>0.752</v>
-      </c>
-      <c r="D173" t="s">
-        <v>5</v>
-      </c>
-      <c r="E173" t="s">
-        <v>155</v>
-      </c>
-      <c r="G173" t="s">
-        <v>13</v>
-      </c>
-      <c r="H173" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>27</v>
       </c>
-      <c r="B174" s="11" t="s">
+      <c r="B174" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="C174" t="s">
+        <v>5</v>
+      </c>
+      <c r="D174" t="s">
+        <v>155</v>
+      </c>
+      <c r="F174" t="s">
+        <v>95</v>
+      </c>
+      <c r="G174" t="s">
+        <v>12</v>
+      </c>
+      <c r="H174" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="C174" s="5">
-        <v>1.8</v>
-      </c>
-      <c r="D174" t="s">
-        <v>5</v>
-      </c>
-      <c r="E174" t="s">
-        <v>155</v>
-      </c>
-      <c r="G174" t="s">
-        <v>95</v>
-      </c>
-      <c r="H174" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>111</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175" s="5">
+        <v>0.251</v>
+      </c>
+      <c r="C175" t="s">
+        <v>5</v>
+      </c>
+      <c r="D175" t="s">
+        <v>155</v>
+      </c>
+      <c r="F175" t="s">
+        <v>14</v>
+      </c>
+      <c r="G175" t="s">
+        <v>12</v>
+      </c>
+      <c r="H175" t="s">
         <v>112</v>
-      </c>
-      <c r="C175" s="5">
-        <v>0.251</v>
-      </c>
-      <c r="D175" t="s">
-        <v>5</v>
-      </c>
-      <c r="E175" t="s">
-        <v>155</v>
-      </c>
-      <c r="G175" t="s">
-        <v>14</v>
-      </c>
-      <c r="H175" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>113</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" s="5">
+        <v>2.7300000000000001E-2</v>
+      </c>
+      <c r="C176" t="s">
+        <v>5</v>
+      </c>
+      <c r="D176" t="s">
+        <v>155</v>
+      </c>
+      <c r="F176" t="s">
+        <v>14</v>
+      </c>
+      <c r="G176" t="s">
+        <v>12</v>
+      </c>
+      <c r="H176" t="s">
         <v>114</v>
-      </c>
-      <c r="C176" s="5">
-        <v>2.7300000000000001E-2</v>
-      </c>
-      <c r="D176" t="s">
-        <v>5</v>
-      </c>
-      <c r="E176" t="s">
-        <v>155</v>
-      </c>
-      <c r="G176" t="s">
-        <v>14</v>
-      </c>
-      <c r="H176" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>161</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B177" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="C177" t="s">
+        <v>5</v>
+      </c>
+      <c r="D177" t="s">
+        <v>155</v>
+      </c>
+      <c r="F177" t="s">
+        <v>14</v>
+      </c>
+      <c r="G177" t="s">
+        <v>12</v>
+      </c>
+      <c r="H177" t="s">
         <v>115</v>
-      </c>
-      <c r="C177" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="D177" t="s">
-        <v>5</v>
-      </c>
-      <c r="E177" t="s">
-        <v>155</v>
-      </c>
-      <c r="G177" t="s">
-        <v>14</v>
-      </c>
-      <c r="H177" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>116</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178" s="5">
+        <v>5.0400000000000002E-3</v>
+      </c>
+      <c r="C178" t="s">
+        <v>5</v>
+      </c>
+      <c r="D178" t="s">
+        <v>155</v>
+      </c>
+      <c r="F178" t="s">
+        <v>14</v>
+      </c>
+      <c r="G178" t="s">
+        <v>12</v>
+      </c>
+      <c r="H178" t="s">
         <v>117</v>
-      </c>
-      <c r="C178" s="5">
-        <v>5.0400000000000002E-3</v>
-      </c>
-      <c r="D178" t="s">
-        <v>5</v>
-      </c>
-      <c r="E178" t="s">
-        <v>155</v>
-      </c>
-      <c r="G178" t="s">
-        <v>14</v>
-      </c>
-      <c r="H178" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B179" s="9" t="s">
+      <c r="B179" s="5">
+        <v>4.0000000000000001E-10</v>
+      </c>
+      <c r="C179" t="s">
+        <v>4</v>
+      </c>
+      <c r="D179" t="s">
+        <v>155</v>
+      </c>
+      <c r="F179" t="s">
+        <v>14</v>
+      </c>
+      <c r="G179" t="s">
+        <v>12</v>
+      </c>
+      <c r="H179" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="C179" s="5">
-        <v>4.0000000000000001E-10</v>
-      </c>
-      <c r="D179" t="s">
-        <v>4</v>
-      </c>
-      <c r="E179" t="s">
-        <v>155</v>
-      </c>
-      <c r="G179" t="s">
-        <v>14</v>
-      </c>
-      <c r="H179" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>85</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180" s="5">
+        <v>0</v>
+      </c>
+      <c r="C180" t="s">
+        <v>5</v>
+      </c>
+      <c r="D180" t="s">
+        <v>155</v>
+      </c>
+      <c r="F180" t="s">
+        <v>14</v>
+      </c>
+      <c r="G180" t="s">
+        <v>12</v>
+      </c>
+      <c r="H180" t="s">
         <v>86</v>
-      </c>
-      <c r="C180" s="5">
-        <v>0</v>
-      </c>
-      <c r="D180" t="s">
-        <v>5</v>
-      </c>
-      <c r="E180" t="s">
-        <v>155</v>
-      </c>
-      <c r="G180" t="s">
-        <v>14</v>
-      </c>
-      <c r="H180" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B181" s="9" t="s">
+      <c r="B181" s="5">
+        <v>0.105</v>
+      </c>
+      <c r="C181" t="s">
+        <v>157</v>
+      </c>
+      <c r="D181" t="s">
+        <v>155</v>
+      </c>
+      <c r="F181" t="s">
+        <v>13</v>
+      </c>
+      <c r="G181" t="s">
+        <v>12</v>
+      </c>
+      <c r="H181" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="C181" s="5">
-        <v>0.105</v>
-      </c>
-      <c r="D181" t="s">
-        <v>157</v>
-      </c>
-      <c r="E181" t="s">
-        <v>155</v>
-      </c>
-      <c r="G181" t="s">
-        <v>13</v>
-      </c>
-      <c r="H181" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B182" s="13" t="s">
+      <c r="B182" s="5">
+        <v>0.627</v>
+      </c>
+      <c r="C182" t="s">
+        <v>157</v>
+      </c>
+      <c r="D182" t="s">
+        <v>155</v>
+      </c>
+      <c r="F182" t="s">
+        <v>13</v>
+      </c>
+      <c r="G182" t="s">
+        <v>12</v>
+      </c>
+      <c r="H182" s="13" t="s">
         <v>45</v>
-      </c>
-      <c r="C182" s="5">
-        <v>0.627</v>
-      </c>
-      <c r="D182" t="s">
-        <v>157</v>
-      </c>
-      <c r="E182" t="s">
-        <v>155</v>
-      </c>
-      <c r="G182" t="s">
-        <v>13</v>
-      </c>
-      <c r="H182" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B183" s="4" t="s">
+      <c r="B183" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C183" t="s">
+        <v>158</v>
+      </c>
+      <c r="D183" t="s">
+        <v>155</v>
+      </c>
+      <c r="F183" t="s">
+        <v>39</v>
+      </c>
+      <c r="G183" t="s">
+        <v>12</v>
+      </c>
+      <c r="H183" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="C183" s="5">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D183" t="s">
-        <v>158</v>
-      </c>
-      <c r="E183" t="s">
-        <v>155</v>
-      </c>
-      <c r="G183" t="s">
-        <v>39</v>
-      </c>
-      <c r="H183" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B184" s="4" t="s">
+      <c r="B184">
+        <v>13.75</v>
+      </c>
+      <c r="C184" t="s">
+        <v>159</v>
+      </c>
+      <c r="D184" t="s">
+        <v>155</v>
+      </c>
+      <c r="F184" t="s">
+        <v>13</v>
+      </c>
+      <c r="G184" t="s">
+        <v>12</v>
+      </c>
+      <c r="H184" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="C184">
-        <v>13.75</v>
-      </c>
-      <c r="D184" t="s">
-        <v>159</v>
-      </c>
-      <c r="E184" t="s">
-        <v>155</v>
-      </c>
-      <c r="G184" t="s">
-        <v>13</v>
-      </c>
-      <c r="H184" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185" s="5">
+        <v>1.44E-2</v>
+      </c>
+      <c r="C185" t="s">
+        <v>4</v>
+      </c>
+      <c r="D185" t="s">
+        <v>155</v>
+      </c>
+      <c r="F185" t="s">
+        <v>13</v>
+      </c>
+      <c r="G185" t="s">
+        <v>12</v>
+      </c>
+      <c r="H185" t="s">
         <v>93</v>
-      </c>
-      <c r="C185" s="5">
-        <v>1.44E-2</v>
-      </c>
-      <c r="D185" t="s">
-        <v>4</v>
-      </c>
-      <c r="E185" t="s">
-        <v>155</v>
-      </c>
-      <c r="G185" t="s">
-        <v>13</v>
-      </c>
-      <c r="H185" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C186" s="5">
+      <c r="B186" s="5">
         <v>15.73</v>
       </c>
+      <c r="C186" t="s">
+        <v>159</v>
+      </c>
       <c r="D186" t="s">
-        <v>159</v>
-      </c>
-      <c r="E186" t="s">
         <v>156</v>
       </c>
-      <c r="H186" t="s">
+      <c r="G186" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4010,39 +4008,39 @@
       <c r="A187" t="s">
         <v>20</v>
       </c>
-      <c r="C187" s="5">
+      <c r="B187" s="5">
         <v>1.8</v>
       </c>
+      <c r="C187" t="s">
+        <v>5</v>
+      </c>
       <c r="D187" t="s">
-        <v>5</v>
-      </c>
-      <c r="E187" t="s">
         <v>156</v>
       </c>
-      <c r="H187" t="s">
+      <c r="G187" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C189" s="15"/>
+      <c r="B189" s="15"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C190" s="15"/>
+      <c r="B190" s="15"/>
     </row>
     <row r="191" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B191" s="1"/>
-      <c r="C191" s="7" t="s">
+      <c r="B191" s="7" t="s">
         <v>35</v>
       </c>
+      <c r="H191" s="1"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>11</v>
       </c>
-      <c r="C192" t="s">
+      <c r="B192" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4050,7 +4048,7 @@
       <c r="A193" t="s">
         <v>2</v>
       </c>
-      <c r="C193" t="s">
+      <c r="B193" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4058,7 +4056,7 @@
       <c r="A194" t="s">
         <v>8</v>
       </c>
-      <c r="C194">
+      <c r="B194">
         <v>1</v>
       </c>
     </row>
@@ -4071,173 +4069,173 @@
       <c r="A196" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B196" s="1"/>
+      <c r="H196" s="1"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B197" s="1"/>
-      <c r="C197" s="2" t="s">
+      <c r="B197" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C197" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="D197" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H197" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="H197" s="1"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B198" s="5">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="C198" t="s">
+        <v>5</v>
+      </c>
+      <c r="D198" t="s">
+        <v>155</v>
+      </c>
+      <c r="F198" t="s">
+        <v>14</v>
+      </c>
+      <c r="G198" t="s">
+        <v>12</v>
+      </c>
+      <c r="H198" t="s">
         <v>119</v>
-      </c>
-      <c r="C198" s="5">
-        <v>0.70699999999999996</v>
-      </c>
-      <c r="D198" t="s">
-        <v>5</v>
-      </c>
-      <c r="E198" t="s">
-        <v>155</v>
-      </c>
-      <c r="G198" t="s">
-        <v>14</v>
-      </c>
-      <c r="H198" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>120</v>
       </c>
-      <c r="B199" s="11" t="s">
+      <c r="B199" s="5">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="C199" t="s">
+        <v>5</v>
+      </c>
+      <c r="D199" t="s">
+        <v>155</v>
+      </c>
+      <c r="F199" t="s">
+        <v>14</v>
+      </c>
+      <c r="G199" t="s">
+        <v>12</v>
+      </c>
+      <c r="H199" s="11" t="s">
         <v>121</v>
-      </c>
-      <c r="C199" s="5">
-        <v>0.17699999999999999</v>
-      </c>
-      <c r="D199" t="s">
-        <v>5</v>
-      </c>
-      <c r="E199" t="s">
-        <v>155</v>
-      </c>
-      <c r="G199" t="s">
-        <v>14</v>
-      </c>
-      <c r="H199" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="B200" t="str">
+      <c r="B200" s="5">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="C200" t="s">
+        <v>5</v>
+      </c>
+      <c r="D200" t="str">
+        <f>$B$2</f>
+        <v>sib_shan</v>
+      </c>
+      <c r="F200" t="s">
+        <v>39</v>
+      </c>
+      <c r="G200" t="s">
+        <v>12</v>
+      </c>
+      <c r="H200" t="str">
         <f>A200</f>
         <v>NaPF6</v>
-      </c>
-      <c r="C200" s="5">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="D200" t="s">
-        <v>5</v>
-      </c>
-      <c r="E200" t="str">
-        <f>$C$2</f>
-        <v>sib_shan</v>
-      </c>
-      <c r="G200" t="s">
-        <v>39</v>
-      </c>
-      <c r="H200" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B201" s="9" t="s">
+      <c r="B201" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C201" t="s">
+        <v>157</v>
+      </c>
+      <c r="D201" t="s">
+        <v>155</v>
+      </c>
+      <c r="F201" t="s">
+        <v>13</v>
+      </c>
+      <c r="G201" t="s">
+        <v>12</v>
+      </c>
+      <c r="H201" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="C201" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="D201" t="s">
-        <v>157</v>
-      </c>
-      <c r="E201" t="s">
-        <v>155</v>
-      </c>
-      <c r="G201" t="s">
-        <v>13</v>
-      </c>
-      <c r="H201" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B202" s="13" t="s">
+      <c r="B202" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="C202" t="s">
+        <v>157</v>
+      </c>
+      <c r="D202" t="s">
+        <v>155</v>
+      </c>
+      <c r="F202" t="s">
+        <v>13</v>
+      </c>
+      <c r="G202" t="s">
+        <v>12</v>
+      </c>
+      <c r="H202" s="13" t="s">
         <v>45</v>
-      </c>
-      <c r="C202" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="D202" t="s">
-        <v>157</v>
-      </c>
-      <c r="E202" t="s">
-        <v>155</v>
-      </c>
-      <c r="G202" t="s">
-        <v>13</v>
-      </c>
-      <c r="H202" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="4"/>
-      <c r="B203" s="13"/>
-      <c r="C203" s="5"/>
+      <c r="B203" s="5"/>
+      <c r="H203" s="13"/>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="4"/>
-      <c r="B204" s="13"/>
-      <c r="C204" s="5"/>
+      <c r="B204" s="5"/>
+      <c r="H204" s="13"/>
     </row>
     <row r="205" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B205" s="1"/>
-      <c r="C205" s="7" t="s">
+      <c r="B205" s="7" t="s">
         <v>122</v>
       </c>
+      <c r="H205" s="1"/>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>11</v>
       </c>
-      <c r="C206" t="s">
+      <c r="B206" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4245,7 +4243,7 @@
       <c r="A207" t="s">
         <v>2</v>
       </c>
-      <c r="C207" t="s">
+      <c r="B207" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4253,7 +4251,7 @@
       <c r="A208" t="s">
         <v>8</v>
       </c>
-      <c r="C208">
+      <c r="B208">
         <v>1</v>
       </c>
     </row>
@@ -4261,7 +4259,7 @@
       <c r="A209" t="s">
         <v>4</v>
       </c>
-      <c r="C209" t="s">
+      <c r="B209" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4269,248 +4267,248 @@
       <c r="A210" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B210" s="1"/>
+      <c r="H210" s="1"/>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B211" s="1"/>
-      <c r="C211" s="2" t="s">
+      <c r="B211" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C211" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="D211" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H211" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="H211" s="1"/>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>123</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B212" s="5">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="C212" t="s">
+        <v>5</v>
+      </c>
+      <c r="D212" t="s">
+        <v>155</v>
+      </c>
+      <c r="F212" t="s">
+        <v>14</v>
+      </c>
+      <c r="G212" t="s">
+        <v>12</v>
+      </c>
+      <c r="H212" t="s">
         <v>124</v>
-      </c>
-      <c r="C212" s="5">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="D212" t="s">
-        <v>5</v>
-      </c>
-      <c r="E212" t="s">
-        <v>155</v>
-      </c>
-      <c r="G212" t="s">
-        <v>14</v>
-      </c>
-      <c r="H212" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>125</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B213" s="5">
+        <v>1.98</v>
+      </c>
+      <c r="C213" t="s">
+        <v>5</v>
+      </c>
+      <c r="D213" t="s">
+        <v>155</v>
+      </c>
+      <c r="F213" t="s">
+        <v>14</v>
+      </c>
+      <c r="G213" t="s">
+        <v>12</v>
+      </c>
+      <c r="H213" t="s">
         <v>126</v>
-      </c>
-      <c r="C213" s="5">
-        <v>1.98</v>
-      </c>
-      <c r="D213" t="s">
-        <v>5</v>
-      </c>
-      <c r="E213" t="s">
-        <v>155</v>
-      </c>
-      <c r="G213" t="s">
-        <v>14</v>
-      </c>
-      <c r="H213" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>18</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B214" s="20">
+        <v>4.04</v>
+      </c>
+      <c r="C214" t="s">
+        <v>5</v>
+      </c>
+      <c r="D214" t="s">
+        <v>155</v>
+      </c>
+      <c r="F214" t="s">
+        <v>13</v>
+      </c>
+      <c r="G214" t="s">
+        <v>12</v>
+      </c>
+      <c r="H214" t="s">
         <v>127</v>
-      </c>
-      <c r="C214" s="20">
-        <v>4.04</v>
-      </c>
-      <c r="D214" t="s">
-        <v>5</v>
-      </c>
-      <c r="E214" t="s">
-        <v>155</v>
-      </c>
-      <c r="G214" t="s">
-        <v>13</v>
-      </c>
-      <c r="H214" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B215" s="4" t="s">
+      <c r="B215" s="5">
+        <v>1.25E-3</v>
+      </c>
+      <c r="C215" t="s">
+        <v>5</v>
+      </c>
+      <c r="D215" t="s">
+        <v>155</v>
+      </c>
+      <c r="F215" t="s">
+        <v>13</v>
+      </c>
+      <c r="G215" t="s">
+        <v>12</v>
+      </c>
+      <c r="H215" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="C215" s="5">
-        <v>1.25E-3</v>
-      </c>
-      <c r="D215" t="s">
-        <v>5</v>
-      </c>
-      <c r="E215" t="s">
-        <v>155</v>
-      </c>
-      <c r="G215" t="s">
-        <v>13</v>
-      </c>
-      <c r="H215" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B216" s="4" t="s">
+      <c r="B216" s="5">
+        <v>7.44</v>
+      </c>
+      <c r="C216" t="s">
+        <v>5</v>
+      </c>
+      <c r="D216" t="s">
+        <v>155</v>
+      </c>
+      <c r="F216" t="s">
+        <v>13</v>
+      </c>
+      <c r="G216" t="s">
+        <v>12</v>
+      </c>
+      <c r="H216" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="C216" s="5">
-        <v>7.44</v>
-      </c>
-      <c r="D216" t="s">
-        <v>5</v>
-      </c>
-      <c r="E216" t="s">
-        <v>155</v>
-      </c>
-      <c r="G216" t="s">
-        <v>13</v>
-      </c>
-      <c r="H216" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B217" s="9" t="s">
+      <c r="B217" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C217" t="s">
+        <v>157</v>
+      </c>
+      <c r="D217" t="s">
+        <v>155</v>
+      </c>
+      <c r="F217" t="s">
+        <v>13</v>
+      </c>
+      <c r="G217" t="s">
+        <v>12</v>
+      </c>
+      <c r="H217" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="C217" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="D217" t="s">
-        <v>157</v>
-      </c>
-      <c r="E217" t="s">
-        <v>155</v>
-      </c>
-      <c r="G217" t="s">
-        <v>13</v>
-      </c>
-      <c r="H217" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B218" s="13" t="s">
+      <c r="B218" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="C218" t="s">
+        <v>157</v>
+      </c>
+      <c r="D218" t="s">
+        <v>155</v>
+      </c>
+      <c r="F218" t="s">
+        <v>95</v>
+      </c>
+      <c r="G218" t="s">
+        <v>12</v>
+      </c>
+      <c r="H218" s="13" t="s">
         <v>45</v>
-      </c>
-      <c r="C218" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="D218" t="s">
-        <v>157</v>
-      </c>
-      <c r="E218" t="s">
-        <v>155</v>
-      </c>
-      <c r="G218" t="s">
-        <v>95</v>
-      </c>
-      <c r="H218" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B219" s="9" t="s">
+      <c r="B219" s="5">
+        <v>4.0000000000000001E-10</v>
+      </c>
+      <c r="C219" t="s">
+        <v>53</v>
+      </c>
+      <c r="D219" t="s">
+        <v>155</v>
+      </c>
+      <c r="F219" t="s">
+        <v>13</v>
+      </c>
+      <c r="G219" t="s">
+        <v>12</v>
+      </c>
+      <c r="H219" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="C219" s="5">
-        <v>4.0000000000000001E-10</v>
-      </c>
-      <c r="D219" t="s">
-        <v>53</v>
-      </c>
-      <c r="E219" t="s">
-        <v>155</v>
-      </c>
-      <c r="G219" t="s">
-        <v>13</v>
-      </c>
-      <c r="H219" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B220" s="9"/>
-      <c r="C220">
+      <c r="B220">
         <v>0.26300000000000001</v>
       </c>
+      <c r="C220" t="s">
+        <v>5</v>
+      </c>
       <c r="D220" t="s">
-        <v>5</v>
-      </c>
-      <c r="E220" t="s">
         <v>156</v>
       </c>
-      <c r="H220" t="s">
+      <c r="G220" t="s">
         <v>16</v>
       </c>
+      <c r="H220" s="9"/>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C221">
+      <c r="B221">
         <v>1.95</v>
       </c>
+      <c r="C221" t="s">
+        <v>159</v>
+      </c>
       <c r="D221" t="s">
-        <v>159</v>
-      </c>
-      <c r="E221" t="s">
         <v>156</v>
       </c>
-      <c r="H221" t="s">
+      <c r="G221" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4518,67 +4516,67 @@
       <c r="A222" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B222" s="9" t="s">
+      <c r="B222">
+        <v>8.69</v>
+      </c>
+      <c r="C222" t="s">
+        <v>5</v>
+      </c>
+      <c r="D222" t="s">
+        <v>155</v>
+      </c>
+      <c r="F222" t="s">
+        <v>15</v>
+      </c>
+      <c r="G222" t="s">
+        <v>12</v>
+      </c>
+      <c r="H222" s="9" t="s">
         <v>130</v>
-      </c>
-      <c r="C222">
-        <v>8.69</v>
-      </c>
-      <c r="D222" t="s">
-        <v>5</v>
-      </c>
-      <c r="E222" t="s">
-        <v>155</v>
-      </c>
-      <c r="G222" t="s">
-        <v>15</v>
-      </c>
-      <c r="H222" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="B223" s="9" t="s">
+      <c r="B223">
+        <v>3.6099999999999999E-3</v>
+      </c>
+      <c r="C223" t="s">
+        <v>162</v>
+      </c>
+      <c r="D223" t="s">
+        <v>155</v>
+      </c>
+      <c r="F223" t="s">
+        <v>15</v>
+      </c>
+      <c r="G223" t="s">
+        <v>12</v>
+      </c>
+      <c r="H223" s="9" t="s">
         <v>132</v>
-      </c>
-      <c r="C223">
-        <v>3.6099999999999999E-3</v>
-      </c>
-      <c r="D223" t="s">
-        <v>162</v>
-      </c>
-      <c r="E223" t="s">
-        <v>155</v>
-      </c>
-      <c r="G223" t="s">
-        <v>15</v>
-      </c>
-      <c r="H223" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="9"/>
-      <c r="B224" s="9"/>
-      <c r="C224" s="5"/>
+      <c r="B224" s="5"/>
+      <c r="H224" s="9"/>
     </row>
     <row r="226" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A226" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B226" s="1"/>
-      <c r="C226" s="7" t="s">
+      <c r="B226" s="7" t="s">
         <v>37</v>
       </c>
+      <c r="H226" s="1"/>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>11</v>
       </c>
-      <c r="C227" t="s">
+      <c r="B227" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4591,7 +4589,7 @@
       <c r="A229" t="s">
         <v>8</v>
       </c>
-      <c r="C229">
+      <c r="B229">
         <v>1</v>
       </c>
     </row>
@@ -4599,7 +4597,7 @@
       <c r="A230" t="s">
         <v>4</v>
       </c>
-      <c r="C230" t="s">
+      <c r="B230" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4607,189 +4605,189 @@
       <c r="A231" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B231" s="1"/>
+      <c r="H231" s="1"/>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B232" s="1"/>
-      <c r="C232" s="2" t="s">
+      <c r="B232" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C232" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="D232" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H232" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="H232" s="1"/>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B233" s="4" t="s">
+      <c r="B233" s="5">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="C233" t="s">
+        <v>5</v>
+      </c>
+      <c r="D233" t="s">
+        <v>155</v>
+      </c>
+      <c r="F233" t="s">
+        <v>14</v>
+      </c>
+      <c r="G233" t="s">
+        <v>12</v>
+      </c>
+      <c r="H233" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="C233" s="5">
-        <v>0.97899999999999998</v>
-      </c>
-      <c r="D233" t="s">
-        <v>5</v>
-      </c>
-      <c r="E233" t="s">
-        <v>155</v>
-      </c>
-      <c r="G233" t="s">
-        <v>14</v>
-      </c>
-      <c r="H233" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B234" s="4" t="s">
+      <c r="B234" s="5">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="C234" t="s">
+        <v>5</v>
+      </c>
+      <c r="D234" t="s">
+        <v>155</v>
+      </c>
+      <c r="F234" t="s">
+        <v>14</v>
+      </c>
+      <c r="G234" t="s">
+        <v>12</v>
+      </c>
+      <c r="H234" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="C234" s="5">
-        <v>0.97899999999999998</v>
-      </c>
-      <c r="D234" t="s">
-        <v>5</v>
-      </c>
-      <c r="E234" t="s">
-        <v>155</v>
-      </c>
-      <c r="G234" t="s">
-        <v>14</v>
-      </c>
-      <c r="H234" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B235" s="4" t="s">
+      <c r="B235" s="5">
+        <v>2.1100000000000001E-2</v>
+      </c>
+      <c r="C235" t="s">
+        <v>5</v>
+      </c>
+      <c r="D235" t="s">
+        <v>155</v>
+      </c>
+      <c r="F235" t="s">
+        <v>38</v>
+      </c>
+      <c r="G235" t="s">
+        <v>12</v>
+      </c>
+      <c r="H235" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="C235" s="5">
-        <v>2.1100000000000001E-2</v>
-      </c>
-      <c r="D235" t="s">
-        <v>5</v>
-      </c>
-      <c r="E235" t="s">
-        <v>155</v>
-      </c>
-      <c r="G235" t="s">
-        <v>38</v>
-      </c>
-      <c r="H235" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B236" s="4" t="s">
+      <c r="B236" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C236" t="s">
+        <v>157</v>
+      </c>
+      <c r="D236" t="s">
+        <v>155</v>
+      </c>
+      <c r="F236" t="s">
+        <v>14</v>
+      </c>
+      <c r="G236" t="s">
+        <v>12</v>
+      </c>
+      <c r="H236" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="C236" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="D236" t="s">
-        <v>157</v>
-      </c>
-      <c r="E236" t="s">
-        <v>155</v>
-      </c>
-      <c r="G236" t="s">
-        <v>14</v>
-      </c>
-      <c r="H236" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B237" s="13" t="s">
+      <c r="B237" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="C237" t="s">
+        <v>157</v>
+      </c>
+      <c r="D237" t="s">
+        <v>155</v>
+      </c>
+      <c r="F237" t="s">
+        <v>14</v>
+      </c>
+      <c r="G237" t="s">
+        <v>12</v>
+      </c>
+      <c r="H237" s="13" t="s">
         <v>45</v>
-      </c>
-      <c r="C237" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="D237" t="s">
-        <v>157</v>
-      </c>
-      <c r="E237" t="s">
-        <v>155</v>
-      </c>
-      <c r="G237" t="s">
-        <v>14</v>
-      </c>
-      <c r="H237" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B238" s="5">
+        <v>4.48E-10</v>
+      </c>
+      <c r="C238" t="s">
+        <v>4</v>
+      </c>
+      <c r="D238" t="s">
+        <v>155</v>
+      </c>
+      <c r="F238" t="s">
+        <v>14</v>
+      </c>
+      <c r="G238" t="s">
+        <v>12</v>
+      </c>
+      <c r="H238" t="s">
         <v>93</v>
-      </c>
-      <c r="C238" s="5">
-        <v>4.48E-10</v>
-      </c>
-      <c r="D238" t="s">
-        <v>4</v>
-      </c>
-      <c r="E238" t="s">
-        <v>155</v>
-      </c>
-      <c r="G238" t="s">
-        <v>14</v>
-      </c>
-      <c r="H238" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="9"/>
-      <c r="B239" s="9"/>
-      <c r="C239" s="5"/>
+      <c r="B239" s="5"/>
+      <c r="H239" s="9"/>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B242" s="1"/>
-      <c r="C242" s="21" t="s">
+      <c r="B242" s="21" t="s">
         <v>32</v>
       </c>
+      <c r="H242" s="1"/>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>11</v>
       </c>
-      <c r="C243" t="s">
+      <c r="B243" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4802,7 +4800,7 @@
       <c r="A245" t="s">
         <v>8</v>
       </c>
-      <c r="C245">
+      <c r="B245">
         <v>1</v>
       </c>
     </row>
@@ -4810,7 +4808,7 @@
       <c r="A246" t="s">
         <v>4</v>
       </c>
-      <c r="C246" t="s">
+      <c r="B246" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4818,203 +4816,203 @@
       <c r="A247" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B247" s="1"/>
+      <c r="H247" s="1"/>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B248" s="1"/>
-      <c r="C248" s="2" t="s">
+      <c r="B248" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C248" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="D248" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G248" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H248" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="H248" s="1"/>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B249" s="4" t="s">
+      <c r="B249" s="5">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="C249" t="s">
+        <v>5</v>
+      </c>
+      <c r="D249" t="s">
+        <v>155</v>
+      </c>
+      <c r="F249" t="s">
+        <v>14</v>
+      </c>
+      <c r="G249" t="s">
+        <v>12</v>
+      </c>
+      <c r="H249" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="C249" s="5">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="D249" t="s">
-        <v>5</v>
-      </c>
-      <c r="E249" t="s">
-        <v>155</v>
-      </c>
-      <c r="G249" t="s">
-        <v>14</v>
-      </c>
-      <c r="H249" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B250" s="4" t="s">
+      <c r="B250" s="5">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="C250" t="s">
+        <v>5</v>
+      </c>
+      <c r="D250" t="s">
+        <v>155</v>
+      </c>
+      <c r="F250" t="s">
+        <v>13</v>
+      </c>
+      <c r="G250" t="s">
+        <v>12</v>
+      </c>
+      <c r="H250" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="C250" s="5">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="D250" t="s">
-        <v>5</v>
-      </c>
-      <c r="E250" t="s">
-        <v>155</v>
-      </c>
-      <c r="G250" t="s">
-        <v>13</v>
-      </c>
-      <c r="H250" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="B251" s="4"/>
-      <c r="C251" s="5">
+      <c r="B251" s="5">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="D251" t="s">
-        <v>5</v>
-      </c>
-      <c r="E251" t="str">
-        <f>$C$2</f>
+      <c r="C251" t="s">
+        <v>5</v>
+      </c>
+      <c r="D251" t="str">
+        <f>$B$2</f>
         <v>sib_shan</v>
       </c>
-      <c r="H251" t="s">
-        <v>12</v>
-      </c>
+      <c r="G251" t="s">
+        <v>12</v>
+      </c>
+      <c r="H251" s="4"/>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B252" s="5">
+        <v>4.5800000000000002E-10</v>
+      </c>
+      <c r="C252" t="s">
+        <v>53</v>
+      </c>
+      <c r="D252" t="s">
+        <v>155</v>
+      </c>
+      <c r="F252" t="s">
+        <v>13</v>
+      </c>
+      <c r="G252" t="s">
+        <v>12</v>
+      </c>
+      <c r="H252" t="s">
         <v>93</v>
-      </c>
-      <c r="C252" s="5">
-        <v>4.5800000000000002E-10</v>
-      </c>
-      <c r="D252" t="s">
-        <v>53</v>
-      </c>
-      <c r="E252" t="s">
-        <v>155</v>
-      </c>
-      <c r="G252" t="s">
-        <v>13</v>
-      </c>
-      <c r="H252" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B253" s="4" t="s">
+      <c r="B253" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C253" t="s">
+        <v>157</v>
+      </c>
+      <c r="D253" t="s">
+        <v>155</v>
+      </c>
+      <c r="F253" t="s">
+        <v>13</v>
+      </c>
+      <c r="G253" t="s">
+        <v>12</v>
+      </c>
+      <c r="H253" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="C253" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="D253" t="s">
-        <v>157</v>
-      </c>
-      <c r="E253" t="s">
-        <v>155</v>
-      </c>
-      <c r="G253" t="s">
-        <v>13</v>
-      </c>
-      <c r="H253" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B254" s="13" t="s">
+      <c r="B254" s="5">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="C254" t="s">
+        <v>157</v>
+      </c>
+      <c r="D254" t="s">
+        <v>155</v>
+      </c>
+      <c r="F254" t="s">
+        <v>144</v>
+      </c>
+      <c r="G254" t="s">
+        <v>12</v>
+      </c>
+      <c r="H254" s="13" t="s">
         <v>45</v>
-      </c>
-      <c r="C254" s="5">
-        <v>0.54200000000000004</v>
-      </c>
-      <c r="D254" t="s">
-        <v>157</v>
-      </c>
-      <c r="E254" t="s">
-        <v>155</v>
-      </c>
-      <c r="G254" t="s">
-        <v>144</v>
-      </c>
-      <c r="H254" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B255" s="4" t="s">
+      <c r="B255" s="5">
+        <v>3.53</v>
+      </c>
+      <c r="C255" t="s">
+        <v>158</v>
+      </c>
+      <c r="D255" t="s">
+        <v>155</v>
+      </c>
+      <c r="F255" t="s">
+        <v>39</v>
+      </c>
+      <c r="G255" t="s">
+        <v>12</v>
+      </c>
+      <c r="H255" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="C255" s="5">
-        <v>3.53</v>
-      </c>
-      <c r="D255" t="s">
-        <v>158</v>
-      </c>
-      <c r="E255" t="s">
-        <v>155</v>
-      </c>
-      <c r="G255" t="s">
-        <v>39</v>
-      </c>
-      <c r="H255" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>21</v>
       </c>
-      <c r="C256" s="5">
+      <c r="B256" s="5">
         <v>12.72</v>
       </c>
+      <c r="C256" t="s">
+        <v>159</v>
+      </c>
       <c r="D256" t="s">
-        <v>159</v>
-      </c>
-      <c r="E256" t="s">
         <v>156</v>
       </c>
-      <c r="H256" t="s">
+      <c r="G256" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5022,16 +5020,16 @@
       <c r="A259" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B259" s="1"/>
-      <c r="C259" s="21" t="s">
+      <c r="B259" s="21" t="s">
         <v>142</v>
       </c>
+      <c r="H259" s="1"/>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>11</v>
       </c>
-      <c r="C260" t="s">
+      <c r="B260" t="s">
         <v>169</v>
       </c>
     </row>
@@ -5044,7 +5042,7 @@
       <c r="A262" t="s">
         <v>8</v>
       </c>
-      <c r="C262">
+      <c r="B262">
         <v>1</v>
       </c>
     </row>
@@ -5052,7 +5050,7 @@
       <c r="A263" t="s">
         <v>4</v>
       </c>
-      <c r="C263" t="s">
+      <c r="B263" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5060,177 +5058,177 @@
       <c r="A264" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B264" s="1"/>
+      <c r="H264" s="1"/>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B265" s="1"/>
-      <c r="C265" s="2" t="s">
+      <c r="B265" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C265" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="D265" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G265" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H265" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="H265" s="1"/>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B266" s="4" t="s">
+      <c r="B266" s="5">
+        <v>1.8100000000000002E-2</v>
+      </c>
+      <c r="C266" t="s">
+        <v>5</v>
+      </c>
+      <c r="D266" t="s">
+        <v>155</v>
+      </c>
+      <c r="F266" t="s">
+        <v>14</v>
+      </c>
+      <c r="G266" t="s">
+        <v>12</v>
+      </c>
+      <c r="H266" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="C266" s="5">
-        <v>1.8100000000000002E-2</v>
-      </c>
-      <c r="D266" t="s">
-        <v>5</v>
-      </c>
-      <c r="E266" t="s">
-        <v>155</v>
-      </c>
-      <c r="G266" t="s">
-        <v>14</v>
-      </c>
-      <c r="H266" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B267" s="22" t="s">
+      <c r="B267" s="5">
+        <v>4.2299999999999997E-2</v>
+      </c>
+      <c r="C267" t="s">
+        <v>5</v>
+      </c>
+      <c r="D267" t="s">
+        <v>155</v>
+      </c>
+      <c r="F267" t="s">
+        <v>14</v>
+      </c>
+      <c r="G267" t="s">
+        <v>12</v>
+      </c>
+      <c r="H267" s="22" t="s">
         <v>147</v>
-      </c>
-      <c r="C267" s="5">
-        <v>4.2299999999999997E-2</v>
-      </c>
-      <c r="D267" t="s">
-        <v>5</v>
-      </c>
-      <c r="E267" t="s">
-        <v>155</v>
-      </c>
-      <c r="G267" t="s">
-        <v>14</v>
-      </c>
-      <c r="H267" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B268" s="4" t="s">
+      <c r="B268" s="5">
+        <v>6.66</v>
+      </c>
+      <c r="C268" t="s">
+        <v>148</v>
+      </c>
+      <c r="D268" t="s">
+        <v>155</v>
+      </c>
+      <c r="F268" t="s">
+        <v>14</v>
+      </c>
+      <c r="G268" t="s">
+        <v>12</v>
+      </c>
+      <c r="H268" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="C268" s="5">
-        <v>6.66</v>
-      </c>
-      <c r="D268" t="s">
-        <v>148</v>
-      </c>
-      <c r="E268" t="s">
-        <v>155</v>
-      </c>
-      <c r="G268" t="s">
-        <v>14</v>
-      </c>
-      <c r="H268" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="B269" t="s">
+      <c r="B269" s="5">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="C269" t="s">
+        <v>148</v>
+      </c>
+      <c r="D269" t="s">
+        <v>155</v>
+      </c>
+      <c r="F269" t="s">
+        <v>14</v>
+      </c>
+      <c r="G269" t="s">
+        <v>12</v>
+      </c>
+      <c r="H269" t="s">
         <v>152</v>
-      </c>
-      <c r="C269" s="5">
-        <v>0.44600000000000001</v>
-      </c>
-      <c r="D269" t="s">
-        <v>148</v>
-      </c>
-      <c r="E269" t="s">
-        <v>155</v>
-      </c>
-      <c r="G269" t="s">
-        <v>14</v>
-      </c>
-      <c r="H269" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B270" s="4" t="s">
+      <c r="B270" s="5">
+        <v>9.3956999999999999E-2</v>
+      </c>
+      <c r="C270" t="s">
+        <v>157</v>
+      </c>
+      <c r="D270" t="s">
+        <v>155</v>
+      </c>
+      <c r="F270" t="s">
+        <v>13</v>
+      </c>
+      <c r="G270" t="s">
+        <v>12</v>
+      </c>
+      <c r="H270" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="C270" s="5">
-        <v>9.3956999999999999E-2</v>
-      </c>
-      <c r="D270" t="s">
-        <v>157</v>
-      </c>
-      <c r="E270" t="s">
-        <v>155</v>
-      </c>
-      <c r="G270" t="s">
-        <v>13</v>
-      </c>
-      <c r="H270" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B271" s="13" t="s">
+      <c r="B271" s="5">
+        <v>0.56374000000000002</v>
+      </c>
+      <c r="C271" t="s">
+        <v>157</v>
+      </c>
+      <c r="D271" t="s">
+        <v>155</v>
+      </c>
+      <c r="F271" t="s">
+        <v>144</v>
+      </c>
+      <c r="G271" t="s">
+        <v>12</v>
+      </c>
+      <c r="H271" s="13" t="s">
         <v>45</v>
-      </c>
-      <c r="C271" s="5">
-        <v>0.56374000000000002</v>
-      </c>
-      <c r="D271" t="s">
-        <v>157</v>
-      </c>
-      <c r="E271" t="s">
-        <v>155</v>
-      </c>
-      <c r="G271" t="s">
-        <v>144</v>
-      </c>
-      <c r="H271" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" s="4"/>
-      <c r="B272" s="4"/>
-      <c r="C272" s="5"/>
-    </row>
-    <row r="273" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C273" s="5"/>
+      <c r="B272" s="5"/>
+      <c r="H272" s="4"/>
+    </row>
+    <row r="273" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B273" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5239,12 +5237,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101008B99206B7DC69543AE34BCFBD34E33AE" ma:contentTypeVersion="4" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="075500c07a6b4cedf2f211c962ddf63c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9df43d4f-f25a-4c61-bbc2-7515b39020c0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7fc67ce68b0b1abce75b627b593138d8" ns3:_="">
     <xsd:import namespace="9df43d4f-f25a-4c61-bbc2-7515b39020c0"/>
@@ -5390,6 +5382,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5400,22 +5398,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5855932F-2918-4696-B2D1-0ED741520C0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="9df43d4f-f25a-4c61-bbc2-7515b39020c0"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFB2C521-9248-407E-ACEC-FA01CBCAF755}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5433,6 +5415,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5855932F-2918-4696-B2D1-0ED741520C0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="9df43d4f-f25a-4c61-bbc2-7515b39020c0"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC7C0EC8-0C3B-44A9-8033-00137DC09A49}">
   <ds:schemaRefs>

--- a/data/inputs/layered oxide cathode type_HC anode SIB .xlsx
+++ b/data/inputs/layered oxide cathode type_HC anode SIB .xlsx
@@ -535,13 +535,13 @@
     <t>polyethylene reference production, low density, granulate</t>
   </si>
   <si>
-    <t>heat reference production, natural gas, at boiler condensing modulating &lt;100kW</t>
-  </si>
-  <si>
     <t>printed wiring board reference production, for surface mounting, Pb containing surface</t>
   </si>
   <si>
     <t>process</t>
+  </si>
+  <si>
+    <t>heat production, natural gas, at boiler condensing modulating &lt;100kW</t>
   </si>
 </sst>
 </file>
@@ -1010,7 +1010,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H273"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1054,7 +1056,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1184,7 +1186,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -1564,7 +1566,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -1834,7 +1836,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B53" s="5">
         <v>0.26700000000000002</v>
@@ -1892,7 +1894,7 @@
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -2160,7 +2162,7 @@
     </row>
     <row r="74" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B74" s="5">
         <v>10.6</v>
@@ -2239,7 +2241,7 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
@@ -2441,7 +2443,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B92" s="5">
         <v>2.62</v>
@@ -2599,7 +2601,7 @@
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
@@ -2815,7 +2817,7 @@
         <v>11</v>
       </c>
       <c r="B118" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
@@ -3148,7 +3150,7 @@
         <v>11</v>
       </c>
       <c r="B138" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
@@ -3631,7 +3633,7 @@
         <v>11</v>
       </c>
       <c r="B167" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
@@ -4041,7 +4043,7 @@
         <v>11</v>
       </c>
       <c r="B192" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
@@ -4236,7 +4238,7 @@
         <v>11</v>
       </c>
       <c r="B206" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
@@ -4577,7 +4579,7 @@
         <v>11</v>
       </c>
       <c r="B227" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
@@ -4788,7 +4790,7 @@
         <v>11</v>
       </c>
       <c r="B243" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
@@ -5030,7 +5032,7 @@
         <v>11</v>
       </c>
       <c r="B260" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.3">
@@ -5086,7 +5088,7 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B266" s="5">
         <v>1.8100000000000002E-2</v>
@@ -5237,6 +5239,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101008B99206B7DC69543AE34BCFBD34E33AE" ma:contentTypeVersion="4" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="075500c07a6b4cedf2f211c962ddf63c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9df43d4f-f25a-4c61-bbc2-7515b39020c0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7fc67ce68b0b1abce75b627b593138d8" ns3:_="">
     <xsd:import namespace="9df43d4f-f25a-4c61-bbc2-7515b39020c0"/>
@@ -5382,35 +5399,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFB2C521-9248-407E-ACEC-FA01CBCAF755}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC7C0EC8-0C3B-44A9-8033-00137DC09A49}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9df43d4f-f25a-4c61-bbc2-7515b39020c0"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5432,9 +5424,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC7C0EC8-0C3B-44A9-8033-00137DC09A49}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFB2C521-9248-407E-ACEC-FA01CBCAF755}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9df43d4f-f25a-4c61-bbc2-7515b39020c0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/inputs/layered oxide cathode type_HC anode SIB .xlsx
+++ b/data/inputs/layered oxide cathode type_HC anode SIB .xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="168">
   <si>
     <t>cutoff</t>
   </si>
@@ -43,9 +43,6 @@
     <t>location</t>
   </si>
   <si>
-    <t>CN</t>
-  </si>
-  <si>
     <t>unit</t>
   </si>
   <si>
@@ -314,9 +311,6 @@
   </si>
   <si>
     <t>metal working factory</t>
-  </si>
-  <si>
-    <t>SBR</t>
   </si>
   <si>
     <t>Europe without Swizerland</t>
@@ -1010,8 +1004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1036,10 +1030,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -1047,16 +1041,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1064,12 +1058,12 @@
         <v>2</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1077,63 +1071,63 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11">
         <v>0.79900000000000004</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="str">
         <f>$B$2</f>
         <v>sib_shan</v>
       </c>
       <c r="F11" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11" t="str">
         <f>A11</f>
@@ -1142,24 +1136,24 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12">
         <f>1-B11</f>
         <v>0.20099999999999996</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="str">
         <f>$B$2</f>
         <v>sib_shan</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H12" t="str">
         <f>A12</f>
@@ -1177,16 +1171,16 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -1194,12 +1188,12 @@
         <v>2</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1207,63 +1201,63 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="15">
         <v>0.27</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" s="9" t="str">
         <f>$B$2</f>
         <v>sib_shan</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H22" t="str">
         <f>A22</f>
@@ -1272,23 +1266,23 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="15">
         <v>0.36499999999999999</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" s="9" t="str">
         <f>$B$2</f>
         <v>sib_shan</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H23" t="str">
         <f>A23</f>
@@ -1297,46 +1291,46 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B24">
         <v>2.12E-2</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25">
         <v>0.14699999999999999</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="str">
         <f>$B$2</f>
         <v>sib_shan</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H25" t="str">
         <f>A25</f>
@@ -1345,23 +1339,23 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26">
         <v>0.247</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="str">
         <f>$B$2</f>
         <v>sib_shan</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H26" t="str">
         <f>A26</f>
@@ -1370,180 +1364,180 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27">
         <v>1.0500000000000001E-2</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28" s="5">
         <v>4.0000000000000001E-10</v>
       </c>
       <c r="C28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29" s="5">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="C29" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D29" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B30" s="5">
         <v>0.25</v>
       </c>
       <c r="C30" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D30" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B31" s="5">
         <v>3.64</v>
       </c>
       <c r="C31" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D31" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B32" s="5">
         <v>26.31</v>
       </c>
       <c r="C32" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D32" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B33" s="5">
         <v>0.46899999999999997</v>
       </c>
       <c r="C33" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B34" s="5">
         <v>0.05</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -1557,16 +1551,16 @@
         <v>1</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -1574,12 +1568,12 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -1587,63 +1581,63 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="C43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B44" s="10">
         <v>0.85399999999999998</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="str">
         <f>$B$2</f>
         <v>sib_shan</v>
       </c>
       <c r="F44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H44" t="str">
         <f>A44</f>
@@ -1652,226 +1646,226 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B45" s="5">
         <v>1.8200000000000001E-2</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B46" s="5">
         <v>1.8200000000000001E-2</v>
       </c>
       <c r="C46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B47" s="5">
         <v>1.8200000000000001E-2</v>
       </c>
       <c r="C47" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B48" s="5">
         <v>3.1800000000000001E-3</v>
       </c>
       <c r="C48" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B49" s="5">
         <v>1.49E-2</v>
       </c>
       <c r="C49" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D49" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B50" s="5">
         <v>5.28E-2</v>
       </c>
       <c r="C50" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D50" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B51" s="12">
         <v>4.5800000000000002E-10</v>
       </c>
       <c r="C51" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H51" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B52" s="5">
         <v>2E-3</v>
       </c>
       <c r="C52" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D52" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B53" s="5">
         <v>0.26700000000000002</v>
       </c>
       <c r="C53" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D53" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B54" s="5">
         <v>0.26700000000000002</v>
       </c>
       <c r="C54" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D54" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -1885,16 +1879,16 @@
         <v>1</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H58" s="1"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -1902,12 +1896,12 @@
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -1915,109 +1909,109 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H63" s="7"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D64" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65" s="10">
         <v>0.55000000000000004</v>
       </c>
       <c r="C65" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B66" s="10">
         <v>0.41</v>
       </c>
       <c r="C66" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B67" s="5">
         <v>0.33600000000000002</v>
       </c>
       <c r="C67" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" s="4" t="str">
         <f>$B$2</f>
         <v>sib_shan</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H67" t="str">
         <f>A67</f>
@@ -2026,23 +2020,23 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B68" s="3">
         <v>2.75E-2</v>
       </c>
       <c r="C68" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" s="4" t="str">
         <f>$B$2</f>
         <v>sib_shan</v>
       </c>
       <c r="F68" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H68" t="str">
         <f>A68</f>
@@ -2051,169 +2045,169 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B69" s="3">
         <v>3.7699999999999997E-2</v>
       </c>
       <c r="C69" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H69" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B70" s="3">
         <v>0.13600000000000001</v>
       </c>
       <c r="C70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D70" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H70" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B71" s="3">
         <v>0.81699999999999995</v>
       </c>
       <c r="C71" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D71" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F71" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H71" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B72" s="5">
         <v>4.0000000000000001E-10</v>
       </c>
       <c r="C72" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F72" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H72" s="4"/>
     </row>
     <row r="73" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B73" s="5">
         <v>3.0800000000000001E-2</v>
       </c>
       <c r="C73" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D73" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H73" s="4"/>
     </row>
     <row r="74" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B74" s="5">
         <v>10.6</v>
       </c>
       <c r="C74" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D74" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H74" s="4"/>
     </row>
     <row r="75" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B75" s="5">
         <v>0.35299999999999998</v>
       </c>
       <c r="C75" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G75" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H75" s="4"/>
     </row>
     <row r="76" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B76" s="5">
         <v>10.71</v>
       </c>
       <c r="C76" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D76" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H76" s="4"/>
     </row>
@@ -2232,16 +2226,16 @@
         <v>1</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H79" s="1"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B80" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
@@ -2249,12 +2243,12 @@
         <v>2</v>
       </c>
       <c r="B81" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -2262,15 +2256,15 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B84"/>
       <c r="C84"/>
@@ -2281,301 +2275,301 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="C85" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D85" s="1" t="s">
+      <c r="E85" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B86" s="5">
         <v>1.42</v>
       </c>
       <c r="C86" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F86" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G86" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H86" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B87" s="5">
         <v>1.3</v>
       </c>
       <c r="C87" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F87" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G87" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H87" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B88" s="6">
         <v>7.98</v>
       </c>
       <c r="C88" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G88" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B89" s="5">
         <v>0.27200000000000002</v>
       </c>
       <c r="C89" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D89" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G89" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H89" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B90" s="5">
         <v>1.63</v>
       </c>
       <c r="C90" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D90" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F90" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G90" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H90" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B91" s="5">
         <v>1.12E-2</v>
       </c>
       <c r="C91" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D91" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F91" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H91" s="4"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B92" s="5">
         <v>2.62</v>
       </c>
       <c r="C92" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D92" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F92" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G92" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H92" s="4"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B93">
         <v>0.371</v>
       </c>
       <c r="C93" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G93" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H93" s="4"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B94">
         <v>2.29</v>
       </c>
       <c r="C94" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D94" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H94" s="4"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B95">
         <v>0.19400000000000001</v>
       </c>
       <c r="C95" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E95" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G95" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B96">
         <v>0.80900000000000005</v>
       </c>
       <c r="C96" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E96" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G96" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B97">
         <v>1.2699999999999999E-2</v>
       </c>
       <c r="C97" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E97" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G97" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B98">
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="C98" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E98" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G98" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
@@ -2592,16 +2586,16 @@
         <v>1</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H102" s="1"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B103" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
@@ -2609,12 +2603,12 @@
         <v>2</v>
       </c>
       <c r="B104" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -2622,10 +2616,10 @@
     </row>
     <row r="106" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B106" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C106"/>
       <c r="D106"/>
@@ -2636,165 +2630,165 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H107" s="1"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="C108" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D108" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D108" s="1" t="s">
+      <c r="E108" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B109">
         <v>0.1</v>
       </c>
       <c r="C109" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D109" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F109" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G109" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H109" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B110" s="15">
         <v>1.2</v>
       </c>
       <c r="C110" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D110" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E110" s="4"/>
       <c r="F110" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H110" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B111" s="5">
         <v>0.27200000000000002</v>
       </c>
       <c r="C111" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D111" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F111" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G111" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H111" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B112" s="5">
         <v>0.71699999999999997</v>
       </c>
       <c r="C112" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D112" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F112" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G112" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H112" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B113" s="5">
         <v>1.78</v>
       </c>
       <c r="C113" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D113" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F113" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G113" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H113" s="4"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B114">
         <v>6.42</v>
       </c>
       <c r="C114" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D114" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G114" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H114" s="4"/>
     </row>
@@ -2808,16 +2802,16 @@
         <v>1</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H117" s="1"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B118" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
@@ -2825,12 +2819,12 @@
         <v>2</v>
       </c>
       <c r="B119" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -2838,299 +2832,299 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H122" s="1"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="C123" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D123" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C123" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D123" s="1" t="s">
+      <c r="E123" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H123" s="1"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B124" s="5">
         <v>0.80100000000000005</v>
       </c>
       <c r="C124" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D124" t="str">
         <f>$B$2</f>
         <v>sib_shan</v>
       </c>
       <c r="F124" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G124" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B125" s="5">
         <v>2.5899999999999999E-2</v>
       </c>
       <c r="C125" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D125" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F125" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G125" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H125" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B126" s="5">
         <v>2.4199999999999999E-2</v>
       </c>
       <c r="C126" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D126" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F126" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G126" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H126" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B127" s="5">
         <v>1.04E-2</v>
       </c>
       <c r="C127" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D127" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F127" t="s">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="G127" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B128" s="5">
         <v>0.34499999999999997</v>
       </c>
       <c r="C128" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D128" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F128" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G128" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H128" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B129" s="5">
         <v>0.13800000000000001</v>
       </c>
       <c r="C129" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D129" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F129" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G129" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H129" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B130" s="5">
         <v>0.13800000000000001</v>
       </c>
       <c r="C130" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D130" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F130" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G130" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H130" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B131" s="5">
         <v>1.8800000000000001E-2</v>
       </c>
       <c r="C131" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D131" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F131" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G131" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H131" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B132" s="5">
         <v>5.7700000000000001E-2</v>
       </c>
       <c r="C132" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D132" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F132" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G132" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H132" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B133" s="5">
         <v>4.5800000000000002E-10</v>
       </c>
       <c r="C133" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D133" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F133" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G133" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H133" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B134" s="5">
         <v>1.1200000000000001</v>
       </c>
       <c r="C134" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D134" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G134" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B135" s="5">
         <v>0.34499999999999997</v>
       </c>
       <c r="C135" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D135" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G135" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
@@ -3141,16 +3135,16 @@
         <v>1</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H137" s="1"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B138" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
@@ -3158,12 +3152,12 @@
         <v>2</v>
       </c>
       <c r="B139" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -3171,446 +3165,446 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H142" s="1"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="C143" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D143" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C143" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D143" s="1" t="s">
+      <c r="E143" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B144">
         <v>20</v>
       </c>
       <c r="C144" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D144" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F144" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G144" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H144" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B145" s="5">
         <v>0.107</v>
       </c>
       <c r="C145" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D145" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F145" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G145" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B146">
         <v>9.52</v>
       </c>
       <c r="C146" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D146" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F146" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G146" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B147" s="5">
         <v>0.17799999999999999</v>
       </c>
       <c r="C147" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D147" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F147" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G147" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B148" s="5">
         <v>0.26700000000000002</v>
       </c>
       <c r="C148" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D148" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F148" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G148" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H148" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B149">
         <v>6.99</v>
       </c>
       <c r="C149" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D149" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F149" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G149" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H149" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B150">
         <v>1.38</v>
       </c>
       <c r="C150" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D150" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F150" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G150" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H150" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B151">
         <v>4.8600000000000003</v>
       </c>
       <c r="C151" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D151" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F151" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G151" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H151" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B152" s="5">
         <v>4.0000000000000001E-10</v>
       </c>
       <c r="C152" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D152" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F152" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G152" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H152" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B153">
         <v>6.6199999999999996E-5</v>
       </c>
       <c r="C153" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D153" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G153" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B154">
         <v>29.33</v>
       </c>
       <c r="C154" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D154" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G154" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B155">
         <v>3.5300000000000002E-4</v>
       </c>
       <c r="C155" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D155" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G155" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B156">
         <v>6.1599999999999997E-3</v>
       </c>
       <c r="C156" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D156" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G156" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B157">
         <v>1.17E-3</v>
       </c>
       <c r="C157" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D157" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G157" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B158">
         <v>1.1E-4</v>
       </c>
       <c r="C158" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D158" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G158" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B159">
         <v>8.8899999999999996E-6</v>
       </c>
       <c r="C159" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D159" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G159" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B160">
         <v>5.0799999999999999E-4</v>
       </c>
       <c r="C160" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D160" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G160" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B161">
         <v>9.9</v>
       </c>
       <c r="C161" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D161" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G161" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H161" s="8"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B162" s="5">
         <v>4.44E-4</v>
       </c>
       <c r="C162" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D162" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F162" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G162" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H162" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B163" s="5">
         <v>1.78E-2</v>
       </c>
       <c r="C163" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D163" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F163" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G163" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H163" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
@@ -3624,16 +3618,16 @@
         <v>1</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H166" s="1"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B167" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
@@ -3641,12 +3635,12 @@
         <v>2</v>
       </c>
       <c r="B168" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -3654,373 +3648,373 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B170" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H171" s="1"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B172" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="C172" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D172" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C172" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D172" s="1" t="s">
+      <c r="E172" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H172" s="1"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B173" s="5">
         <v>0.752</v>
       </c>
       <c r="C173" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D173" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F173" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G173" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H173" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B174" s="5">
         <v>1.8</v>
       </c>
       <c r="C174" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D174" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F174" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G174" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H174" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B175" s="5">
         <v>0.251</v>
       </c>
       <c r="C175" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D175" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F175" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G175" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H175" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B176" s="5">
         <v>2.7300000000000001E-2</v>
       </c>
       <c r="C176" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D176" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F176" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G176" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H176" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B177" s="5">
         <v>0.01</v>
       </c>
       <c r="C177" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D177" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F177" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G177" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H177" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B178" s="5">
         <v>5.0400000000000002E-3</v>
       </c>
       <c r="C178" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D178" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F178" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G178" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H178" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B179" s="5">
         <v>4.0000000000000001E-10</v>
       </c>
       <c r="C179" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D179" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F179" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G179" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H179" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B180" s="5">
         <v>0</v>
       </c>
       <c r="C180" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D180" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F180" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G180" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H180" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B181" s="5">
         <v>0.105</v>
       </c>
       <c r="C181" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D181" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F181" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G181" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H181" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B182" s="5">
         <v>0.627</v>
       </c>
       <c r="C182" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D182" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F182" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G182" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H182" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B183" s="5">
         <v>0.55000000000000004</v>
       </c>
       <c r="C183" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D183" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F183" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G183" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H183" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B184">
         <v>13.75</v>
       </c>
       <c r="C184" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D184" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F184" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G184" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H184" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B185" s="5">
         <v>1.44E-2</v>
       </c>
       <c r="C185" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D185" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F185" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G185" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H185" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B186" s="5">
         <v>15.73</v>
       </c>
       <c r="C186" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D186" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G186" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B187" s="5">
         <v>1.8</v>
       </c>
       <c r="C187" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D187" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G187" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
@@ -4034,16 +4028,16 @@
         <v>1</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H191" s="1"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B192" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
@@ -4051,12 +4045,12 @@
         <v>2</v>
       </c>
       <c r="B193" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -4064,104 +4058,104 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H196" s="1"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B197" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B197" s="2" t="s">
+      <c r="C197" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D197" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C197" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D197" s="1" t="s">
+      <c r="E197" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H197" s="1"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B198" s="5">
         <v>0.70699999999999996</v>
       </c>
       <c r="C198" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D198" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F198" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G198" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H198" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B199" s="5">
         <v>0.17699999999999999</v>
       </c>
       <c r="C199" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D199" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F199" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G199" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H199" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B200" s="5">
         <v>0.11700000000000001</v>
       </c>
       <c r="C200" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D200" t="str">
         <f>$B$2</f>
         <v>sib_shan</v>
       </c>
       <c r="F200" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G200" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H200" t="str">
         <f>A200</f>
@@ -4170,48 +4164,48 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B201" s="5">
         <v>0.1</v>
       </c>
       <c r="C201" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D201" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F201" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G201" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H201" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B202" s="5">
         <v>0.6</v>
       </c>
       <c r="C202" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D202" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F202" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G202" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H202" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
@@ -4229,16 +4223,16 @@
         <v>1</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H205" s="1"/>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B206" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
@@ -4246,12 +4240,12 @@
         <v>2</v>
       </c>
       <c r="B207" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -4259,305 +4253,305 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B209" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H210" s="1"/>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B211" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B211" s="2" t="s">
+      <c r="C211" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D211" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C211" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D211" s="1" t="s">
+      <c r="E211" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E211" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H211" s="1"/>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B212" s="5">
         <v>0.27700000000000002</v>
       </c>
       <c r="C212" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D212" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F212" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G212" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H212" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B213" s="5">
         <v>1.98</v>
       </c>
       <c r="C213" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D213" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F213" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G213" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H213" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B214" s="20">
         <v>4.04</v>
       </c>
       <c r="C214" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D214" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F214" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G214" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H214" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B215" s="5">
         <v>1.25E-3</v>
       </c>
       <c r="C215" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D215" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F215" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G215" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H215" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B216" s="5">
         <v>7.44</v>
       </c>
       <c r="C216" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D216" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F216" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G216" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H216" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B217" s="5">
         <v>0.1</v>
       </c>
       <c r="C217" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D217" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F217" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G217" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H217" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B218" s="5">
         <v>0.6</v>
       </c>
       <c r="C218" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D218" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F218" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G218" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H218" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B219" s="5">
         <v>4.0000000000000001E-10</v>
       </c>
       <c r="C219" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D219" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F219" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G219" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H219" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B220">
         <v>0.26300000000000001</v>
       </c>
       <c r="C220" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D220" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G220" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H220" s="9"/>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B221">
         <v>1.95</v>
       </c>
       <c r="C221" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D221" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G221" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B222">
         <v>8.69</v>
       </c>
       <c r="C222" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D222" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F222" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G222" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H222" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B223">
         <v>3.6099999999999999E-3</v>
       </c>
       <c r="C223" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D223" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F223" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G223" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H223" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
@@ -4570,16 +4564,16 @@
         <v>1</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H226" s="1"/>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B227" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
@@ -4589,7 +4583,7 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B229">
         <v>1</v>
@@ -4597,178 +4591,178 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B230" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H231" s="1"/>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B232" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B232" s="2" t="s">
+      <c r="C232" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D232" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C232" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D232" s="1" t="s">
+      <c r="E232" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E232" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H232" s="1"/>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B233" s="5">
         <v>0.97899999999999998</v>
       </c>
       <c r="C233" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D233" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F233" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G233" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H233" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B234" s="5">
         <v>0.97899999999999998</v>
       </c>
       <c r="C234" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D234" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F234" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G234" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H234" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B235" s="5">
         <v>2.1100000000000001E-2</v>
       </c>
       <c r="C235" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D235" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F235" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G235" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H235" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B236" s="5">
         <v>0.2</v>
       </c>
       <c r="C236" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D236" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F236" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G236" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H236" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B237" s="5">
         <v>1.2</v>
       </c>
       <c r="C237" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D237" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F237" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G237" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H237" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B238" s="5">
         <v>4.48E-10</v>
       </c>
       <c r="C238" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D238" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F238" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G238" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H238" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
@@ -4781,26 +4775,29 @@
         <v>1</v>
       </c>
       <c r="B242" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H242" s="1"/>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B243" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>2</v>
       </c>
+      <c r="B244" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B245">
         <v>1</v>
@@ -4808,214 +4805,217 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B246" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H247" s="1"/>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B248" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B248" s="2" t="s">
+      <c r="C248" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D248" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C248" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D248" s="1" t="s">
+      <c r="E248" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E248" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="F248" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G248" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H248" s="1"/>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B249" s="5">
         <v>0.14499999999999999</v>
       </c>
       <c r="C249" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D249" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F249" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G249" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H249" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B250" s="5">
         <v>0.14499999999999999</v>
       </c>
       <c r="C250" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D250" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F250" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G250" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H250" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B251" s="5">
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="C251" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D251" t="str">
         <f>$B$2</f>
         <v>sib_shan</v>
       </c>
+      <c r="F251" t="s">
+        <v>38</v>
+      </c>
       <c r="G251" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H251" s="4"/>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B252" s="5">
         <v>4.5800000000000002E-10</v>
       </c>
       <c r="C252" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D252" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F252" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G252" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H252" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B253" s="5">
         <v>0.1</v>
       </c>
       <c r="C253" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D253" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F253" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G253" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H253" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B254" s="5">
         <v>0.54200000000000004</v>
       </c>
       <c r="C254" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D254" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F254" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G254" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H254" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B255" s="5">
         <v>3.53</v>
       </c>
       <c r="C255" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D255" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F255" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G255" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H255" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B256" s="5">
         <v>12.72</v>
       </c>
       <c r="C256" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D256" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G256" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.3">
@@ -5023,26 +5023,29 @@
         <v>1</v>
       </c>
       <c r="B259" s="21" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H259" s="1"/>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B260" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>2</v>
       </c>
+      <c r="B261" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B262">
         <v>1</v>
@@ -5050,178 +5053,178 @@
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B263" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H264" s="1"/>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B265" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B265" s="2" t="s">
+      <c r="C265" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D265" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C265" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D265" s="1" t="s">
+      <c r="E265" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E265" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="F265" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G265" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H265" s="1"/>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B266" s="5">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="C266" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D266" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F266" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G266" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H266" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B267" s="5">
         <v>4.2299999999999997E-2</v>
       </c>
       <c r="C267" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D267" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F267" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G267" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H267" s="22" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B268" s="5">
         <v>6.66</v>
       </c>
       <c r="C268" t="s">
+        <v>146</v>
+      </c>
+      <c r="D268" t="s">
+        <v>153</v>
+      </c>
+      <c r="F268" t="s">
+        <v>13</v>
+      </c>
+      <c r="G268" t="s">
+        <v>11</v>
+      </c>
+      <c r="H268" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="D268" t="s">
-        <v>155</v>
-      </c>
-      <c r="F268" t="s">
-        <v>14</v>
-      </c>
-      <c r="G268" t="s">
-        <v>12</v>
-      </c>
-      <c r="H268" s="4" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" s="18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B269" s="5">
         <v>0.44600000000000001</v>
       </c>
       <c r="C269" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D269" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F269" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G269" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H269" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B270" s="5">
         <v>9.3956999999999999E-2</v>
       </c>
       <c r="C270" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D270" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F270" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G270" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H270" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B271" s="5">
         <v>0.56374000000000002</v>
       </c>
       <c r="C271" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D271" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F271" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G271" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H271" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
@@ -5239,18 +5242,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5400,14 +5403,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC7C0EC8-0C3B-44A9-8033-00137DC09A49}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5855932F-2918-4696-B2D1-0ED741520C0F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -5419,6 +5414,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC7C0EC8-0C3B-44A9-8033-00137DC09A49}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/inputs/layered oxide cathode type_HC anode SIB .xlsx
+++ b/data/inputs/layered oxide cathode type_HC anode SIB .xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="165">
   <si>
     <t>cutoff</t>
   </si>
@@ -145,9 +145,6 @@
     <t>Nickel plated steel cell container</t>
   </si>
   <si>
-    <t>ROW</t>
-  </si>
-  <si>
     <t>SE</t>
   </si>
   <si>
@@ -277,9 +274,6 @@
     <t>sodium chloride, brine solution</t>
   </si>
   <si>
-    <t>market for lime, hydrated, loose weightmarket for electricity mix, China 2020</t>
-  </si>
-  <si>
     <t>lime, hydrated, loose weight</t>
   </si>
   <si>
@@ -313,9 +307,6 @@
     <t>metal working factory</t>
   </si>
   <si>
-    <t>Europe without Swizerland</t>
-  </si>
-  <si>
     <t>market for sugar, from sugar beet</t>
   </si>
   <si>
@@ -343,9 +334,6 @@
     <t>Sulfur dioxide</t>
   </si>
   <si>
-    <t>europe without Swizerlands</t>
-  </si>
-  <si>
     <t>treatment of wastewater, average, capacity 1E9l/year</t>
   </si>
   <si>
@@ -460,9 +448,6 @@
     <t>sheet rolling, steel</t>
   </si>
   <si>
-    <t>Europe without Swizerlands</t>
-  </si>
-  <si>
     <t>printed wiring board, for surface mounting, Pb containing surface</t>
   </si>
   <si>
@@ -523,19 +508,25 @@
     <t>reference product</t>
   </si>
   <si>
-    <t>battery separator reference production</t>
-  </si>
-  <si>
-    <t>polyethylene reference production, low density, granulate</t>
-  </si>
-  <si>
-    <t>printed wiring board reference production, for surface mounting, Pb containing surface</t>
-  </si>
-  <si>
     <t>process</t>
   </si>
   <si>
     <t>heat production, natural gas, at boiler condensing modulating &lt;100kW</t>
+  </si>
+  <si>
+    <t>air</t>
+  </si>
+  <si>
+    <t>battery separator production</t>
+  </si>
+  <si>
+    <t>polyethylene production, low density, granulate</t>
+  </si>
+  <si>
+    <t>printed wiring board production, for surface mounting, Pb containing surface</t>
+  </si>
+  <si>
+    <t>market for lime, hydrated, loose weight</t>
   </si>
 </sst>
 </file>
@@ -1004,8 +995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H273"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A261" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F272" sqref="F272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1030,10 +1021,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -1050,7 +1041,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1058,7 +1049,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1106,7 +1097,7 @@
         <v>10</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1124,7 +1115,7 @@
         <v>sib_shan</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G11" t="s">
         <v>11</v>
@@ -1150,7 +1141,7 @@
         <v>sib_shan</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="G12" t="s">
         <v>11</v>
@@ -1180,7 +1171,7 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -1188,7 +1179,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -1236,7 +1227,7 @@
         <v>10</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -1254,7 +1245,7 @@
         <v>sib_shan</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s">
         <v>11</v>
@@ -1279,7 +1270,7 @@
         <v>sib_shan</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
         <v>11</v>
@@ -1291,7 +1282,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B24">
         <v>2.12E-2</v>
@@ -1300,7 +1291,7 @@
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F24" t="s">
         <v>13</v>
@@ -1309,7 +1300,7 @@
         <v>11</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -1327,7 +1318,7 @@
         <v>sib_shan</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G25" t="s">
         <v>11</v>
@@ -1352,7 +1343,7 @@
         <v>sib_shan</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G26" t="s">
         <v>11</v>
@@ -1373,7 +1364,7 @@
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F27" t="s">
         <v>12</v>
@@ -1382,12 +1373,12 @@
         <v>11</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" s="5">
         <v>4.0000000000000001E-10</v>
@@ -1396,7 +1387,7 @@
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F28" t="s">
         <v>12</v>
@@ -1405,30 +1396,30 @@
         <v>11</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29" s="5">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="C29" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D29" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="G29" t="s">
         <v>11</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -1439,10 +1430,10 @@
         <v>0.25</v>
       </c>
       <c r="C30" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D30" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F30" t="s">
         <v>12</v>
@@ -1451,44 +1442,44 @@
         <v>11</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" s="5">
         <v>3.64</v>
       </c>
       <c r="C31" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D31" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s">
         <v>11</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B32" s="5">
         <v>26.31</v>
       </c>
       <c r="C32" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D32" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F32" t="s">
         <v>12</v>
@@ -1497,7 +1488,7 @@
         <v>11</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -1508,10 +1499,13 @@
         <v>0.46899999999999997</v>
       </c>
       <c r="C33" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D33" t="s">
-        <v>154</v>
+        <v>149</v>
+      </c>
+      <c r="E33" t="s">
+        <v>160</v>
       </c>
       <c r="G33" t="s">
         <v>15</v>
@@ -1519,7 +1513,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B34" s="5">
         <v>0.05</v>
@@ -1528,7 +1522,7 @@
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F34" t="s">
         <v>13</v>
@@ -1537,7 +1531,7 @@
         <v>11</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -1560,7 +1554,7 @@
         <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -1568,7 +1562,7 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -1616,12 +1610,12 @@
         <v>10</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B44" s="10">
         <v>0.85399999999999998</v>
@@ -1634,7 +1628,7 @@
         <v>sib_shan</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G44" t="s">
         <v>11</v>
@@ -1646,7 +1640,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B45" s="5">
         <v>1.8200000000000001E-2</v>
@@ -1655,7 +1649,7 @@
         <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F45" t="s">
         <v>13</v>
@@ -1664,12 +1658,12 @@
         <v>11</v>
       </c>
       <c r="H45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B46" s="5">
         <v>1.8200000000000001E-2</v>
@@ -1678,7 +1672,7 @@
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F46" t="s">
         <v>13</v>
@@ -1687,12 +1681,12 @@
         <v>11</v>
       </c>
       <c r="H46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B47" s="5">
         <v>1.8200000000000001E-2</v>
@@ -1701,7 +1695,7 @@
         <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F47" t="s">
         <v>13</v>
@@ -1710,12 +1704,12 @@
         <v>11</v>
       </c>
       <c r="H47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B48" s="5">
         <v>3.1800000000000001E-3</v>
@@ -1724,7 +1718,7 @@
         <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F48" t="s">
         <v>13</v>
@@ -1733,21 +1727,21 @@
         <v>11</v>
       </c>
       <c r="H48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B49" s="5">
         <v>1.49E-2</v>
       </c>
       <c r="C49" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D49" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F49" t="s">
         <v>12</v>
@@ -1756,7 +1750,7 @@
         <v>11</v>
       </c>
       <c r="H49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -1767,10 +1761,10 @@
         <v>5.28E-2</v>
       </c>
       <c r="C50" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D50" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F50" t="s">
         <v>12</v>
@@ -1779,12 +1773,12 @@
         <v>11</v>
       </c>
       <c r="H50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B51" s="12">
         <v>4.5800000000000002E-10</v>
@@ -1793,7 +1787,7 @@
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F51" t="s">
         <v>12</v>
@@ -1802,44 +1796,44 @@
         <v>11</v>
       </c>
       <c r="H51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B52" s="5">
         <v>2E-3</v>
       </c>
       <c r="C52" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D52" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G52" t="s">
         <v>11</v>
       </c>
       <c r="H52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B53" s="5">
         <v>0.26700000000000002</v>
       </c>
       <c r="C53" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D53" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F53" t="s">
         <v>28</v>
@@ -1848,7 +1842,7 @@
         <v>11</v>
       </c>
       <c r="H53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -1859,10 +1853,13 @@
         <v>0.26700000000000002</v>
       </c>
       <c r="C54" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D54" t="s">
-        <v>154</v>
+        <v>149</v>
+      </c>
+      <c r="E54" t="s">
+        <v>160</v>
       </c>
       <c r="G54" t="s">
         <v>15</v>
@@ -1879,7 +1876,7 @@
         <v>1</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H58" s="1"/>
     </row>
@@ -1888,7 +1885,7 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -1896,7 +1893,7 @@
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
@@ -1944,12 +1941,12 @@
         <v>10</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="10">
         <v>0.55000000000000004</v>
@@ -1958,7 +1955,7 @@
         <v>4</v>
       </c>
       <c r="D65" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F65" t="s">
         <v>13</v>
@@ -1967,12 +1964,12 @@
         <v>11</v>
       </c>
       <c r="H65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66" s="10">
         <v>0.41</v>
@@ -1981,7 +1978,7 @@
         <v>4</v>
       </c>
       <c r="D66" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F66" t="s">
         <v>13</v>
@@ -1990,12 +1987,12 @@
         <v>11</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B67" s="5">
         <v>0.33600000000000002</v>
@@ -2008,7 +2005,7 @@
         <v>sib_shan</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G67" t="s">
         <v>11</v>
@@ -2020,7 +2017,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B68" s="3">
         <v>2.75E-2</v>
@@ -2033,7 +2030,7 @@
         <v>sib_shan</v>
       </c>
       <c r="F68" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G68" t="s">
         <v>11</v>
@@ -2045,7 +2042,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B69" s="3">
         <v>3.7699999999999997E-2</v>
@@ -2054,7 +2051,7 @@
         <v>4</v>
       </c>
       <c r="D69" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F69" t="s">
         <v>12</v>
@@ -2063,21 +2060,21 @@
         <v>11</v>
       </c>
       <c r="H69" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B70" s="3">
         <v>0.13600000000000001</v>
       </c>
       <c r="C70" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D70" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F70" t="s">
         <v>12</v>
@@ -2086,7 +2083,7 @@
         <v>11</v>
       </c>
       <c r="H70" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
@@ -2097,10 +2094,10 @@
         <v>0.81699999999999995</v>
       </c>
       <c r="C71" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D71" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F71" t="s">
         <v>12</v>
@@ -2109,12 +2106,12 @@
         <v>11</v>
       </c>
       <c r="H71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B72" s="5">
         <v>4.0000000000000001E-10</v>
@@ -2123,7 +2120,7 @@
         <v>3</v>
       </c>
       <c r="D72" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F72" t="s">
         <v>12</v>
@@ -2135,19 +2132,19 @@
     </row>
     <row r="73" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B73" s="5">
         <v>3.0800000000000001E-2</v>
       </c>
       <c r="C73" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D73" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F73" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G73" t="s">
         <v>11</v>
@@ -2156,19 +2153,19 @@
     </row>
     <row r="74" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B74" s="5">
         <v>10.6</v>
       </c>
       <c r="C74" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D74" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G74" t="s">
         <v>11</v>
@@ -2186,7 +2183,7 @@
         <v>4</v>
       </c>
       <c r="D75" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G75" t="s">
         <v>15</v>
@@ -2201,10 +2198,13 @@
         <v>10.71</v>
       </c>
       <c r="C76" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D76" t="s">
-        <v>154</v>
+        <v>149</v>
+      </c>
+      <c r="E76" t="s">
+        <v>160</v>
       </c>
       <c r="G76" t="s">
         <v>15</v>
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H79" s="1"/>
     </row>
@@ -2235,7 +2235,7 @@
         <v>10</v>
       </c>
       <c r="B80" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
@@ -2243,7 +2243,7 @@
         <v>2</v>
       </c>
       <c r="B81" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
@@ -2296,12 +2296,12 @@
         <v>10</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B86" s="5">
         <v>1.42</v>
@@ -2310,7 +2310,7 @@
         <v>4</v>
       </c>
       <c r="D86" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F86" t="s">
         <v>13</v>
@@ -2319,12 +2319,12 @@
         <v>11</v>
       </c>
       <c r="H86" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B87" s="5">
         <v>1.3</v>
@@ -2333,7 +2333,7 @@
         <v>4</v>
       </c>
       <c r="D87" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F87" t="s">
         <v>13</v>
@@ -2342,7 +2342,7 @@
         <v>11</v>
       </c>
       <c r="H87" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
@@ -2356,7 +2356,7 @@
         <v>4</v>
       </c>
       <c r="D88" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F88" t="s">
         <v>28</v>
@@ -2365,21 +2365,21 @@
         <v>11</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B89" s="5">
         <v>0.27200000000000002</v>
       </c>
       <c r="C89" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D89" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F89" t="s">
         <v>14</v>
@@ -2388,7 +2388,7 @@
         <v>11</v>
       </c>
       <c r="H89" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2399,10 +2399,10 @@
         <v>1.63</v>
       </c>
       <c r="C90" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D90" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F90" t="s">
         <v>12</v>
@@ -2411,21 +2411,21 @@
         <v>11</v>
       </c>
       <c r="H90" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B91" s="5">
         <v>1.12E-2</v>
       </c>
       <c r="C91" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D91" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F91" t="s">
         <v>14</v>
@@ -2437,16 +2437,16 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B92" s="5">
         <v>2.62</v>
       </c>
       <c r="C92" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D92" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F92" t="s">
         <v>28</v>
@@ -2467,7 +2467,7 @@
         <v>4</v>
       </c>
       <c r="D93" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G93" t="s">
         <v>15</v>
@@ -2482,10 +2482,10 @@
         <v>2.29</v>
       </c>
       <c r="C94" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D94" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G94" t="s">
         <v>15</v>
@@ -2494,7 +2494,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B95">
         <v>0.19400000000000001</v>
@@ -2503,10 +2503,10 @@
         <v>4</v>
       </c>
       <c r="D95" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E95" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G95" t="s">
         <v>15</v>
@@ -2514,7 +2514,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B96">
         <v>0.80900000000000005</v>
@@ -2523,10 +2523,10 @@
         <v>4</v>
       </c>
       <c r="D96" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E96" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G96" t="s">
         <v>15</v>
@@ -2534,7 +2534,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B97">
         <v>1.2699999999999999E-2</v>
@@ -2543,10 +2543,10 @@
         <v>4</v>
       </c>
       <c r="D97" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E97" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G97" t="s">
         <v>15</v>
@@ -2554,7 +2554,7 @@
     </row>
     <row r="98" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B98">
         <v>1.2999999999999999E-2</v>
@@ -2563,10 +2563,10 @@
         <v>4</v>
       </c>
       <c r="D98" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E98" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G98" t="s">
         <v>15</v>
@@ -2586,7 +2586,7 @@
         <v>1</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H102" s="1"/>
     </row>
@@ -2595,7 +2595,7 @@
         <v>10</v>
       </c>
       <c r="B103" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
@@ -2603,7 +2603,7 @@
         <v>2</v>
       </c>
       <c r="B104" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
@@ -2657,12 +2657,12 @@
         <v>10</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B109">
         <v>0.1</v>
@@ -2671,7 +2671,7 @@
         <v>4</v>
       </c>
       <c r="D109" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F109" t="s">
         <v>13</v>
@@ -2680,12 +2680,12 @@
         <v>11</v>
       </c>
       <c r="H109" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>81</v>
+        <v>164</v>
       </c>
       <c r="B110" s="15">
         <v>1.2</v>
@@ -2694,7 +2694,7 @@
         <v>4</v>
       </c>
       <c r="D110" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E110" s="4"/>
       <c r="F110" t="s">
@@ -2704,21 +2704,21 @@
         <v>11</v>
       </c>
       <c r="H110" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B111" s="5">
         <v>0.27200000000000002</v>
       </c>
       <c r="C111" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D111" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F111" t="s">
         <v>12</v>
@@ -2727,7 +2727,7 @@
         <v>11</v>
       </c>
       <c r="H111" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
@@ -2738,10 +2738,10 @@
         <v>0.71699999999999997</v>
       </c>
       <c r="C112" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D112" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F112" t="s">
         <v>12</v>
@@ -2750,24 +2750,24 @@
         <v>11</v>
       </c>
       <c r="H112" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B113" s="5">
         <v>1.78</v>
       </c>
       <c r="C113" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D113" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G113" t="s">
         <v>11</v>
@@ -2782,10 +2782,13 @@
         <v>6.42</v>
       </c>
       <c r="C114" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D114" t="s">
-        <v>154</v>
+        <v>149</v>
+      </c>
+      <c r="E114" t="s">
+        <v>160</v>
       </c>
       <c r="G114" t="s">
         <v>15</v>
@@ -2811,7 +2814,7 @@
         <v>10</v>
       </c>
       <c r="B118" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
@@ -2819,7 +2822,7 @@
         <v>2</v>
       </c>
       <c r="B119" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
@@ -2870,7 +2873,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B124" s="5">
         <v>0.80100000000000005</v>
@@ -2883,7 +2886,7 @@
         <v>sib_shan</v>
       </c>
       <c r="F124" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G124" t="s">
         <v>11</v>
@@ -2891,7 +2894,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B125" s="5">
         <v>2.5899999999999999E-2</v>
@@ -2900,7 +2903,7 @@
         <v>4</v>
       </c>
       <c r="D125" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F125" t="s">
         <v>13</v>
@@ -2909,12 +2912,12 @@
         <v>11</v>
       </c>
       <c r="H125" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B126" s="5">
         <v>2.4199999999999999E-2</v>
@@ -2923,7 +2926,7 @@
         <v>4</v>
       </c>
       <c r="D126" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F126" t="s">
         <v>13</v>
@@ -2932,12 +2935,12 @@
         <v>11</v>
       </c>
       <c r="H126" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B127" s="5">
         <v>1.04E-2</v>
@@ -2946,10 +2949,10 @@
         <v>4</v>
       </c>
       <c r="D127" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F127" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G127" t="s">
         <v>11</v>
@@ -2966,21 +2969,21 @@
         <v>4</v>
       </c>
       <c r="D128" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F128" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="G128" t="s">
         <v>11</v>
       </c>
       <c r="H128" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B129" s="5">
         <v>0.13800000000000001</v>
@@ -2989,7 +2992,7 @@
         <v>4</v>
       </c>
       <c r="D129" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F129" t="s">
         <v>13</v>
@@ -2998,12 +3001,12 @@
         <v>11</v>
       </c>
       <c r="H129" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B130" s="5">
         <v>0.13800000000000001</v>
@@ -3012,7 +3015,7 @@
         <v>4</v>
       </c>
       <c r="D130" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F130" t="s">
         <v>13</v>
@@ -3021,30 +3024,30 @@
         <v>11</v>
       </c>
       <c r="H130" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B131" s="5">
         <v>1.8800000000000001E-2</v>
       </c>
       <c r="C131" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D131" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F131" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="G131" t="s">
         <v>11</v>
       </c>
       <c r="H131" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
@@ -3055,10 +3058,10 @@
         <v>5.7700000000000001E-2</v>
       </c>
       <c r="C132" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D132" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F132" t="s">
         <v>12</v>
@@ -3067,12 +3070,12 @@
         <v>11</v>
       </c>
       <c r="H132" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B133" s="5">
         <v>4.5800000000000002E-10</v>
@@ -3081,7 +3084,7 @@
         <v>3</v>
       </c>
       <c r="D133" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F133" t="s">
         <v>12</v>
@@ -3090,7 +3093,7 @@
         <v>11</v>
       </c>
       <c r="H133" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
@@ -3101,10 +3104,13 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="C134" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D134" t="s">
-        <v>154</v>
+        <v>149</v>
+      </c>
+      <c r="E134" t="s">
+        <v>160</v>
       </c>
       <c r="G134" t="s">
         <v>15</v>
@@ -3121,7 +3127,7 @@
         <v>4</v>
       </c>
       <c r="D135" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G135" t="s">
         <v>15</v>
@@ -3135,7 +3141,7 @@
         <v>1</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H137" s="1"/>
     </row>
@@ -3144,7 +3150,7 @@
         <v>10</v>
       </c>
       <c r="B138" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
@@ -3152,7 +3158,7 @@
         <v>2</v>
       </c>
       <c r="B139" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
@@ -3197,12 +3203,12 @@
         <v>10</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B144">
         <v>20</v>
@@ -3211,7 +3217,7 @@
         <v>4</v>
       </c>
       <c r="D144" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F144" t="s">
         <v>13</v>
@@ -3220,53 +3226,53 @@
         <v>11</v>
       </c>
       <c r="H144" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B145" s="5">
         <v>0.107</v>
       </c>
       <c r="C145" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D145" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F145" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G145" t="s">
         <v>11</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B146">
         <v>9.52</v>
       </c>
       <c r="C146" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D146" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F146" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="G146" t="s">
         <v>11</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
@@ -3280,21 +3286,21 @@
         <v>4</v>
       </c>
       <c r="D147" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F147" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="G147" t="s">
         <v>11</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B148" s="5">
         <v>0.26700000000000002</v>
@@ -3303,7 +3309,7 @@
         <v>4</v>
       </c>
       <c r="D148" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F148" t="s">
         <v>13</v>
@@ -3312,7 +3318,7 @@
         <v>11</v>
       </c>
       <c r="H148" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
@@ -3326,7 +3332,7 @@
         <v>4</v>
       </c>
       <c r="D149" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F149" t="s">
         <v>12</v>
@@ -3335,21 +3341,21 @@
         <v>11</v>
       </c>
       <c r="H149" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B150">
         <v>1.38</v>
       </c>
       <c r="C150" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D150" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F150" t="s">
         <v>12</v>
@@ -3358,7 +3364,7 @@
         <v>11</v>
       </c>
       <c r="H150" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
@@ -3369,10 +3375,10 @@
         <v>4.8600000000000003</v>
       </c>
       <c r="C151" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D151" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F151" t="s">
         <v>13</v>
@@ -3381,12 +3387,12 @@
         <v>11</v>
       </c>
       <c r="H151" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B152" s="5">
         <v>4.0000000000000001E-10</v>
@@ -3395,7 +3401,7 @@
         <v>35</v>
       </c>
       <c r="D152" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F152" t="s">
         <v>12</v>
@@ -3404,12 +3410,12 @@
         <v>11</v>
       </c>
       <c r="H152" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B153">
         <v>6.6199999999999996E-5</v>
@@ -3418,7 +3424,7 @@
         <v>4</v>
       </c>
       <c r="D153" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G153" t="s">
         <v>15</v>
@@ -3426,7 +3432,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B154">
         <v>29.33</v>
@@ -3435,7 +3441,7 @@
         <v>4</v>
       </c>
       <c r="D154" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G154" t="s">
         <v>15</v>
@@ -3443,7 +3449,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B155">
         <v>3.5300000000000002E-4</v>
@@ -3452,7 +3458,7 @@
         <v>4</v>
       </c>
       <c r="D155" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G155" t="s">
         <v>15</v>
@@ -3469,7 +3475,7 @@
         <v>4</v>
       </c>
       <c r="D156" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G156" t="s">
         <v>15</v>
@@ -3477,7 +3483,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B157">
         <v>1.17E-3</v>
@@ -3486,7 +3492,7 @@
         <v>4</v>
       </c>
       <c r="D157" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G157" t="s">
         <v>15</v>
@@ -3503,7 +3509,7 @@
         <v>4</v>
       </c>
       <c r="D158" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G158" t="s">
         <v>15</v>
@@ -3520,7 +3526,7 @@
         <v>4</v>
       </c>
       <c r="D159" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G159" t="s">
         <v>15</v>
@@ -3528,7 +3534,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B160">
         <v>5.0799999999999999E-4</v>
@@ -3537,7 +3543,7 @@
         <v>4</v>
       </c>
       <c r="D160" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G160" t="s">
         <v>15</v>
@@ -3551,10 +3557,13 @@
         <v>9.9</v>
       </c>
       <c r="C161" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D161" t="s">
-        <v>154</v>
+        <v>149</v>
+      </c>
+      <c r="E161" t="s">
+        <v>160</v>
       </c>
       <c r="G161" t="s">
         <v>15</v>
@@ -3563,7 +3572,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B162" s="5">
         <v>4.44E-4</v>
@@ -3572,16 +3581,16 @@
         <v>4</v>
       </c>
       <c r="D162" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F162" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G162" t="s">
         <v>11</v>
       </c>
       <c r="H162" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
@@ -3592,10 +3601,10 @@
         <v>1.78E-2</v>
       </c>
       <c r="C163" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D163" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F163" t="s">
         <v>28</v>
@@ -3604,7 +3613,7 @@
         <v>11</v>
       </c>
       <c r="H163" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
@@ -3618,7 +3627,7 @@
         <v>1</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H166" s="1"/>
     </row>
@@ -3627,7 +3636,7 @@
         <v>10</v>
       </c>
       <c r="B167" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
@@ -3635,7 +3644,7 @@
         <v>2</v>
       </c>
       <c r="B168" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
@@ -3686,7 +3695,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="15" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B173" s="5">
         <v>0.752</v>
@@ -3695,7 +3704,7 @@
         <v>4</v>
       </c>
       <c r="D173" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F173" t="s">
         <v>12</v>
@@ -3704,7 +3713,7 @@
         <v>11</v>
       </c>
       <c r="H173" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
@@ -3718,21 +3727,21 @@
         <v>4</v>
       </c>
       <c r="D174" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F174" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="G174" t="s">
         <v>11</v>
       </c>
       <c r="H174" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B175" s="5">
         <v>0.251</v>
@@ -3741,7 +3750,7 @@
         <v>4</v>
       </c>
       <c r="D175" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F175" t="s">
         <v>13</v>
@@ -3750,12 +3759,12 @@
         <v>11</v>
       </c>
       <c r="H175" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B176" s="5">
         <v>2.7300000000000001E-2</v>
@@ -3764,7 +3773,7 @@
         <v>4</v>
       </c>
       <c r="D176" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F176" t="s">
         <v>13</v>
@@ -3773,12 +3782,12 @@
         <v>11</v>
       </c>
       <c r="H176" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B177" s="5">
         <v>0.01</v>
@@ -3787,7 +3796,7 @@
         <v>4</v>
       </c>
       <c r="D177" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F177" t="s">
         <v>13</v>
@@ -3796,12 +3805,12 @@
         <v>11</v>
       </c>
       <c r="H177" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B178" s="5">
         <v>5.0400000000000002E-3</v>
@@ -3810,7 +3819,7 @@
         <v>4</v>
       </c>
       <c r="D178" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F178" t="s">
         <v>13</v>
@@ -3819,12 +3828,12 @@
         <v>11</v>
       </c>
       <c r="H178" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B179" s="5">
         <v>4.0000000000000001E-10</v>
@@ -3833,7 +3842,7 @@
         <v>3</v>
       </c>
       <c r="D179" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F179" t="s">
         <v>13</v>
@@ -3842,12 +3851,12 @@
         <v>11</v>
       </c>
       <c r="H179" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B180" s="5">
         <v>0</v>
@@ -3856,7 +3865,7 @@
         <v>4</v>
       </c>
       <c r="D180" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F180" t="s">
         <v>13</v>
@@ -3865,21 +3874,21 @@
         <v>11</v>
       </c>
       <c r="H180" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B181" s="5">
         <v>0.105</v>
       </c>
       <c r="C181" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D181" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F181" t="s">
         <v>12</v>
@@ -3888,7 +3897,7 @@
         <v>11</v>
       </c>
       <c r="H181" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
@@ -3899,10 +3908,10 @@
         <v>0.627</v>
       </c>
       <c r="C182" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D182" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F182" t="s">
         <v>12</v>
@@ -3911,44 +3920,44 @@
         <v>11</v>
       </c>
       <c r="H182" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B183" s="5">
         <v>0.55000000000000004</v>
       </c>
       <c r="C183" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D183" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F183" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G183" t="s">
         <v>11</v>
       </c>
       <c r="H183" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B184">
         <v>13.75</v>
       </c>
       <c r="C184" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D184" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F184" t="s">
         <v>12</v>
@@ -3957,12 +3966,12 @@
         <v>11</v>
       </c>
       <c r="H184" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B185" s="5">
         <v>1.44E-2</v>
@@ -3971,7 +3980,7 @@
         <v>3</v>
       </c>
       <c r="D185" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F185" t="s">
         <v>12</v>
@@ -3980,7 +3989,7 @@
         <v>11</v>
       </c>
       <c r="H185" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
@@ -3991,10 +4000,13 @@
         <v>15.73</v>
       </c>
       <c r="C186" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D186" t="s">
-        <v>154</v>
+        <v>149</v>
+      </c>
+      <c r="E186" t="s">
+        <v>160</v>
       </c>
       <c r="G186" t="s">
         <v>15</v>
@@ -4011,7 +4023,7 @@
         <v>4</v>
       </c>
       <c r="D187" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G187" t="s">
         <v>15</v>
@@ -4037,7 +4049,7 @@
         <v>10</v>
       </c>
       <c r="B192" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
@@ -4045,7 +4057,7 @@
         <v>2</v>
       </c>
       <c r="B193" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
@@ -4093,7 +4105,7 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B198" s="5">
         <v>0.70699999999999996</v>
@@ -4102,7 +4114,7 @@
         <v>4</v>
       </c>
       <c r="D198" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F198" t="s">
         <v>13</v>
@@ -4111,12 +4123,12 @@
         <v>11</v>
       </c>
       <c r="H198" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B199" s="5">
         <v>0.17699999999999999</v>
@@ -4125,7 +4137,7 @@
         <v>4</v>
       </c>
       <c r="D199" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F199" t="s">
         <v>13</v>
@@ -4134,12 +4146,12 @@
         <v>11</v>
       </c>
       <c r="H199" s="11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="15" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B200" s="5">
         <v>0.11700000000000001</v>
@@ -4152,7 +4164,7 @@
         <v>sib_shan</v>
       </c>
       <c r="F200" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G200" t="s">
         <v>11</v>
@@ -4164,16 +4176,16 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B201" s="5">
         <v>0.1</v>
       </c>
       <c r="C201" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D201" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F201" t="s">
         <v>12</v>
@@ -4182,7 +4194,7 @@
         <v>11</v>
       </c>
       <c r="H201" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
@@ -4193,10 +4205,10 @@
         <v>0.6</v>
       </c>
       <c r="C202" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D202" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F202" t="s">
         <v>12</v>
@@ -4205,7 +4217,7 @@
         <v>11</v>
       </c>
       <c r="H202" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
@@ -4223,7 +4235,7 @@
         <v>1</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H205" s="1"/>
     </row>
@@ -4232,7 +4244,7 @@
         <v>10</v>
       </c>
       <c r="B206" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
@@ -4240,7 +4252,7 @@
         <v>2</v>
       </c>
       <c r="B207" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
@@ -4291,7 +4303,7 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B212" s="5">
         <v>0.27700000000000002</v>
@@ -4300,7 +4312,7 @@
         <v>4</v>
       </c>
       <c r="D212" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F212" t="s">
         <v>13</v>
@@ -4309,12 +4321,12 @@
         <v>11</v>
       </c>
       <c r="H212" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B213" s="5">
         <v>1.98</v>
@@ -4323,7 +4335,7 @@
         <v>4</v>
       </c>
       <c r="D213" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F213" t="s">
         <v>13</v>
@@ -4332,7 +4344,7 @@
         <v>11</v>
       </c>
       <c r="H213" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
@@ -4346,7 +4358,7 @@
         <v>4</v>
       </c>
       <c r="D214" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F214" t="s">
         <v>12</v>
@@ -4355,7 +4367,7 @@
         <v>11</v>
       </c>
       <c r="H214" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
@@ -4369,7 +4381,7 @@
         <v>4</v>
       </c>
       <c r="D215" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F215" t="s">
         <v>12</v>
@@ -4378,7 +4390,7 @@
         <v>11</v>
       </c>
       <c r="H215" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
@@ -4392,7 +4404,7 @@
         <v>4</v>
       </c>
       <c r="D216" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F216" t="s">
         <v>12</v>
@@ -4401,21 +4413,21 @@
         <v>11</v>
       </c>
       <c r="H216" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B217" s="5">
         <v>0.1</v>
       </c>
       <c r="C217" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D217" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F217" t="s">
         <v>12</v>
@@ -4424,7 +4436,7 @@
         <v>11</v>
       </c>
       <c r="H217" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
@@ -4435,33 +4447,33 @@
         <v>0.6</v>
       </c>
       <c r="C218" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D218" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F218" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="G218" t="s">
         <v>11</v>
       </c>
       <c r="H218" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B219" s="5">
         <v>4.0000000000000001E-10</v>
       </c>
       <c r="C219" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D219" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F219" t="s">
         <v>12</v>
@@ -4470,12 +4482,12 @@
         <v>11</v>
       </c>
       <c r="H219" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="9" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B220">
         <v>0.26300000000000001</v>
@@ -4484,7 +4496,7 @@
         <v>4</v>
       </c>
       <c r="D220" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G220" t="s">
         <v>15</v>
@@ -4499,10 +4511,13 @@
         <v>1.95</v>
       </c>
       <c r="C221" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D221" t="s">
-        <v>154</v>
+        <v>149</v>
+      </c>
+      <c r="E221" t="s">
+        <v>160</v>
       </c>
       <c r="G221" t="s">
         <v>15</v>
@@ -4510,7 +4525,7 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B222">
         <v>8.69</v>
@@ -4519,7 +4534,7 @@
         <v>4</v>
       </c>
       <c r="D222" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F222" t="s">
         <v>14</v>
@@ -4528,21 +4543,21 @@
         <v>11</v>
       </c>
       <c r="H222" s="9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B223">
         <v>3.6099999999999999E-3</v>
       </c>
       <c r="C223" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D223" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F223" t="s">
         <v>14</v>
@@ -4551,7 +4566,7 @@
         <v>11</v>
       </c>
       <c r="H223" s="9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
@@ -4573,7 +4588,7 @@
         <v>10</v>
       </c>
       <c r="B227" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
@@ -4629,7 +4644,7 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B233" s="5">
         <v>0.97899999999999998</v>
@@ -4638,7 +4653,7 @@
         <v>4</v>
       </c>
       <c r="D233" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F233" t="s">
         <v>13</v>
@@ -4647,12 +4662,12 @@
         <v>11</v>
       </c>
       <c r="H233" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B234" s="5">
         <v>0.97899999999999998</v>
@@ -4661,7 +4676,7 @@
         <v>4</v>
       </c>
       <c r="D234" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F234" t="s">
         <v>13</v>
@@ -4670,12 +4685,12 @@
         <v>11</v>
       </c>
       <c r="H234" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B235" s="5">
         <v>2.1100000000000001E-2</v>
@@ -4684,30 +4699,30 @@
         <v>4</v>
       </c>
       <c r="D235" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F235" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="G235" t="s">
         <v>11</v>
       </c>
       <c r="H235" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B236" s="5">
         <v>0.2</v>
       </c>
       <c r="C236" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D236" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F236" t="s">
         <v>13</v>
@@ -4716,7 +4731,7 @@
         <v>11</v>
       </c>
       <c r="H236" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
@@ -4727,10 +4742,10 @@
         <v>1.2</v>
       </c>
       <c r="C237" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D237" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F237" t="s">
         <v>13</v>
@@ -4739,12 +4754,12 @@
         <v>11</v>
       </c>
       <c r="H237" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B238" s="5">
         <v>4.48E-10</v>
@@ -4753,7 +4768,7 @@
         <v>3</v>
       </c>
       <c r="D238" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F238" t="s">
         <v>13</v>
@@ -4762,7 +4777,7 @@
         <v>11</v>
       </c>
       <c r="H238" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
@@ -4784,7 +4799,7 @@
         <v>10</v>
       </c>
       <c r="B243" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
@@ -4792,7 +4807,7 @@
         <v>2</v>
       </c>
       <c r="B244" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
@@ -4843,7 +4858,7 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B249" s="5">
         <v>0.14499999999999999</v>
@@ -4852,7 +4867,7 @@
         <v>4</v>
       </c>
       <c r="D249" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F249" t="s">
         <v>13</v>
@@ -4861,12 +4876,12 @@
         <v>11</v>
       </c>
       <c r="H249" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B250" s="5">
         <v>0.14499999999999999</v>
@@ -4875,7 +4890,7 @@
         <v>4</v>
       </c>
       <c r="D250" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F250" t="s">
         <v>12</v>
@@ -4884,12 +4899,12 @@
         <v>11</v>
       </c>
       <c r="H250" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="15" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B251" s="5">
         <v>5.6000000000000001E-2</v>
@@ -4902,7 +4917,7 @@
         <v>sib_shan</v>
       </c>
       <c r="F251" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G251" t="s">
         <v>11</v>
@@ -4911,16 +4926,16 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B252" s="5">
         <v>4.5800000000000002E-10</v>
       </c>
       <c r="C252" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D252" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F252" t="s">
         <v>12</v>
@@ -4929,21 +4944,21 @@
         <v>11</v>
       </c>
       <c r="H252" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B253" s="5">
         <v>0.1</v>
       </c>
       <c r="C253" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D253" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F253" t="s">
         <v>12</v>
@@ -4952,7 +4967,7 @@
         <v>11</v>
       </c>
       <c r="H253" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
@@ -4963,42 +4978,42 @@
         <v>0.54200000000000004</v>
       </c>
       <c r="C254" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D254" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F254" t="s">
-        <v>142</v>
+        <v>28</v>
       </c>
       <c r="G254" t="s">
         <v>11</v>
       </c>
       <c r="H254" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B255" s="5">
         <v>3.53</v>
       </c>
       <c r="C255" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D255" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F255" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G255" t="s">
         <v>11</v>
       </c>
       <c r="H255" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
@@ -5009,10 +5024,13 @@
         <v>12.72</v>
       </c>
       <c r="C256" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D256" t="s">
-        <v>154</v>
+        <v>149</v>
+      </c>
+      <c r="E256" t="s">
+        <v>160</v>
       </c>
       <c r="G256" t="s">
         <v>15</v>
@@ -5023,7 +5041,7 @@
         <v>1</v>
       </c>
       <c r="B259" s="21" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H259" s="1"/>
     </row>
@@ -5032,7 +5050,7 @@
         <v>10</v>
       </c>
       <c r="B260" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.3">
@@ -5040,7 +5058,7 @@
         <v>2</v>
       </c>
       <c r="B261" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.3">
@@ -5091,7 +5109,7 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B266" s="5">
         <v>1.8100000000000002E-2</v>
@@ -5100,7 +5118,7 @@
         <v>4</v>
       </c>
       <c r="D266" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F266" t="s">
         <v>13</v>
@@ -5109,12 +5127,12 @@
         <v>11</v>
       </c>
       <c r="H266" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B267" s="5">
         <v>4.2299999999999997E-2</v>
@@ -5123,7 +5141,7 @@
         <v>4</v>
       </c>
       <c r="D267" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F267" t="s">
         <v>13</v>
@@ -5132,21 +5150,21 @@
         <v>11</v>
       </c>
       <c r="H267" s="22" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B268" s="5">
         <v>6.66</v>
       </c>
       <c r="C268" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D268" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F268" t="s">
         <v>13</v>
@@ -5155,21 +5173,21 @@
         <v>11</v>
       </c>
       <c r="H268" s="4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" s="18" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B269" s="5">
         <v>0.44600000000000001</v>
       </c>
       <c r="C269" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D269" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F269" t="s">
         <v>13</v>
@@ -5178,21 +5196,21 @@
         <v>11</v>
       </c>
       <c r="H269" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B270" s="5">
         <v>9.3956999999999999E-2</v>
       </c>
       <c r="C270" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D270" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F270" t="s">
         <v>12</v>
@@ -5201,7 +5219,7 @@
         <v>11</v>
       </c>
       <c r="H270" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.3">
@@ -5212,19 +5230,19 @@
         <v>0.56374000000000002</v>
       </c>
       <c r="C271" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D271" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F271" t="s">
-        <v>142</v>
+        <v>28</v>
       </c>
       <c r="G271" t="s">
         <v>11</v>
       </c>
       <c r="H271" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
@@ -5242,21 +5260,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101008B99206B7DC69543AE34BCFBD34E33AE" ma:contentTypeVersion="4" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="075500c07a6b4cedf2f211c962ddf63c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9df43d4f-f25a-4c61-bbc2-7515b39020c0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7fc67ce68b0b1abce75b627b593138d8" ns3:_="">
     <xsd:import namespace="9df43d4f-f25a-4c61-bbc2-7515b39020c0"/>
@@ -5402,31 +5405,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5855932F-2918-4696-B2D1-0ED741520C0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="9df43d4f-f25a-4c61-bbc2-7515b39020c0"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC7C0EC8-0C3B-44A9-8033-00137DC09A49}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFB2C521-9248-407E-ACEC-FA01CBCAF755}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5442,4 +5436,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC7C0EC8-0C3B-44A9-8033-00137DC09A49}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5855932F-2918-4696-B2D1-0ED741520C0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="9df43d4f-f25a-4c61-bbc2-7515b39020c0"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/inputs/layered oxide cathode type_HC anode SIB .xlsx
+++ b/data/inputs/layered oxide cathode type_HC anode SIB .xlsx
@@ -457,9 +457,6 @@
     <t>printed wiring board, for through-hole mounting, Pb free surface</t>
   </si>
   <si>
-    <t>m</t>
-  </si>
-  <si>
     <t>market for cable, data cable in infrastructure</t>
   </si>
   <si>
@@ -527,6 +524,9 @@
   </si>
   <si>
     <t>market for lime, hydrated, loose weight</t>
+  </si>
+  <si>
+    <t>meter</t>
   </si>
 </sst>
 </file>
@@ -995,9 +995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A261" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F272" sqref="F272"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1021,10 +1019,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" t="s">
         <v>146</v>
-      </c>
-      <c r="B2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -1041,7 +1039,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1097,7 +1095,7 @@
         <v>10</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1171,7 +1169,7 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -1227,7 +1225,7 @@
         <v>10</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -1282,7 +1280,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B24">
         <v>2.12E-2</v>
@@ -1291,7 +1289,7 @@
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F24" t="s">
         <v>13</v>
@@ -1364,7 +1362,7 @@
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F27" t="s">
         <v>12</v>
@@ -1387,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F28" t="s">
         <v>12</v>
@@ -1407,10 +1405,10 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="C29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F29" t="s">
         <v>14</v>
@@ -1430,10 +1428,10 @@
         <v>0.25</v>
       </c>
       <c r="C30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F30" t="s">
         <v>12</v>
@@ -1453,10 +1451,10 @@
         <v>3.64</v>
       </c>
       <c r="C31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F31" t="s">
         <v>37</v>
@@ -1476,10 +1474,10 @@
         <v>26.31</v>
       </c>
       <c r="C32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F32" t="s">
         <v>12</v>
@@ -1499,13 +1497,13 @@
         <v>0.46899999999999997</v>
       </c>
       <c r="C33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G33" t="s">
         <v>15</v>
@@ -1522,7 +1520,7 @@
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F34" t="s">
         <v>13</v>
@@ -1554,7 +1552,7 @@
         <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -1610,7 +1608,7 @@
         <v>10</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -1649,7 +1647,7 @@
         <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F45" t="s">
         <v>13</v>
@@ -1672,7 +1670,7 @@
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F46" t="s">
         <v>13</v>
@@ -1686,7 +1684,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B47" s="5">
         <v>1.8200000000000001E-2</v>
@@ -1695,10 +1693,10 @@
         <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G47" t="s">
         <v>11</v>
@@ -1718,7 +1716,7 @@
         <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F48" t="s">
         <v>13</v>
@@ -1738,10 +1736,10 @@
         <v>1.49E-2</v>
       </c>
       <c r="C49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F49" t="s">
         <v>12</v>
@@ -1761,10 +1759,10 @@
         <v>5.28E-2</v>
       </c>
       <c r="C50" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F50" t="s">
         <v>12</v>
@@ -1787,7 +1785,7 @@
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F51" t="s">
         <v>12</v>
@@ -1807,10 +1805,10 @@
         <v>2E-3</v>
       </c>
       <c r="C52" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D52" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F52" t="s">
         <v>37</v>
@@ -1824,16 +1822,16 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B53" s="5">
         <v>0.26700000000000002</v>
       </c>
       <c r="C53" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F53" t="s">
         <v>28</v>
@@ -1853,13 +1851,13 @@
         <v>0.26700000000000002</v>
       </c>
       <c r="C54" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D54" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G54" t="s">
         <v>15</v>
@@ -1885,7 +1883,7 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -1941,7 +1939,7 @@
         <v>10</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -1955,7 +1953,7 @@
         <v>4</v>
       </c>
       <c r="D65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F65" t="s">
         <v>13</v>
@@ -1978,7 +1976,7 @@
         <v>4</v>
       </c>
       <c r="D66" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F66" t="s">
         <v>13</v>
@@ -2051,7 +2049,7 @@
         <v>4</v>
       </c>
       <c r="D69" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F69" t="s">
         <v>12</v>
@@ -2071,10 +2069,10 @@
         <v>0.13600000000000001</v>
       </c>
       <c r="C70" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D70" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F70" t="s">
         <v>12</v>
@@ -2094,10 +2092,10 @@
         <v>0.81699999999999995</v>
       </c>
       <c r="C71" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D71" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F71" t="s">
         <v>12</v>
@@ -2120,7 +2118,7 @@
         <v>3</v>
       </c>
       <c r="D72" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F72" t="s">
         <v>12</v>
@@ -2138,10 +2136,10 @@
         <v>3.0800000000000001E-2</v>
       </c>
       <c r="C73" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D73" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F73" t="s">
         <v>37</v>
@@ -2153,16 +2151,16 @@
     </row>
     <row r="74" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B74" s="5">
         <v>10.6</v>
       </c>
       <c r="C74" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D74" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F74" t="s">
         <v>28</v>
@@ -2183,7 +2181,7 @@
         <v>4</v>
       </c>
       <c r="D75" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G75" t="s">
         <v>15</v>
@@ -2198,13 +2196,13 @@
         <v>10.71</v>
       </c>
       <c r="C76" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D76" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E76" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G76" t="s">
         <v>15</v>
@@ -2235,7 +2233,7 @@
         <v>10</v>
       </c>
       <c r="B80" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
@@ -2296,7 +2294,7 @@
         <v>10</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
@@ -2310,7 +2308,7 @@
         <v>4</v>
       </c>
       <c r="D86" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F86" t="s">
         <v>13</v>
@@ -2333,7 +2331,7 @@
         <v>4</v>
       </c>
       <c r="D87" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F87" t="s">
         <v>13</v>
@@ -2356,7 +2354,7 @@
         <v>4</v>
       </c>
       <c r="D88" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F88" t="s">
         <v>28</v>
@@ -2376,10 +2374,10 @@
         <v>0.27200000000000002</v>
       </c>
       <c r="C89" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D89" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F89" t="s">
         <v>14</v>
@@ -2399,10 +2397,10 @@
         <v>1.63</v>
       </c>
       <c r="C90" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D90" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F90" t="s">
         <v>12</v>
@@ -2422,10 +2420,10 @@
         <v>1.12E-2</v>
       </c>
       <c r="C91" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D91" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F91" t="s">
         <v>14</v>
@@ -2437,16 +2435,16 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B92" s="5">
         <v>2.62</v>
       </c>
       <c r="C92" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D92" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F92" t="s">
         <v>28</v>
@@ -2467,7 +2465,7 @@
         <v>4</v>
       </c>
       <c r="D93" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G93" t="s">
         <v>15</v>
@@ -2482,10 +2480,10 @@
         <v>2.29</v>
       </c>
       <c r="C94" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G94" t="s">
         <v>15</v>
@@ -2503,10 +2501,10 @@
         <v>4</v>
       </c>
       <c r="D95" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E95" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G95" t="s">
         <v>15</v>
@@ -2523,10 +2521,10 @@
         <v>4</v>
       </c>
       <c r="D96" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E96" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G96" t="s">
         <v>15</v>
@@ -2543,10 +2541,10 @@
         <v>4</v>
       </c>
       <c r="D97" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E97" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G97" t="s">
         <v>15</v>
@@ -2563,10 +2561,10 @@
         <v>4</v>
       </c>
       <c r="D98" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E98" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G98" t="s">
         <v>15</v>
@@ -2595,7 +2593,7 @@
         <v>10</v>
       </c>
       <c r="B103" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
@@ -2657,7 +2655,7 @@
         <v>10</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
@@ -2671,7 +2669,7 @@
         <v>4</v>
       </c>
       <c r="D109" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F109" t="s">
         <v>13</v>
@@ -2685,7 +2683,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B110" s="15">
         <v>1.2</v>
@@ -2694,7 +2692,7 @@
         <v>4</v>
       </c>
       <c r="D110" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E110" s="4"/>
       <c r="F110" t="s">
@@ -2715,10 +2713,10 @@
         <v>0.27200000000000002</v>
       </c>
       <c r="C111" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D111" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F111" t="s">
         <v>12</v>
@@ -2738,10 +2736,10 @@
         <v>0.71699999999999997</v>
       </c>
       <c r="C112" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D112" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F112" t="s">
         <v>12</v>
@@ -2761,10 +2759,10 @@
         <v>1.78</v>
       </c>
       <c r="C113" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D113" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F113" t="s">
         <v>37</v>
@@ -2782,13 +2780,13 @@
         <v>6.42</v>
       </c>
       <c r="C114" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D114" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E114" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G114" t="s">
         <v>15</v>
@@ -2814,7 +2812,7 @@
         <v>10</v>
       </c>
       <c r="B118" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
@@ -2903,7 +2901,7 @@
         <v>4</v>
       </c>
       <c r="D125" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F125" t="s">
         <v>13</v>
@@ -2926,7 +2924,7 @@
         <v>4</v>
       </c>
       <c r="D126" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F126" t="s">
         <v>13</v>
@@ -2949,7 +2947,7 @@
         <v>4</v>
       </c>
       <c r="D127" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F127" t="s">
         <v>37</v>
@@ -2969,7 +2967,7 @@
         <v>4</v>
       </c>
       <c r="D128" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F128" t="s">
         <v>28</v>
@@ -2992,7 +2990,7 @@
         <v>4</v>
       </c>
       <c r="D129" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F129" t="s">
         <v>13</v>
@@ -3015,7 +3013,7 @@
         <v>4</v>
       </c>
       <c r="D130" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F130" t="s">
         <v>13</v>
@@ -3035,10 +3033,10 @@
         <v>1.8800000000000001E-2</v>
       </c>
       <c r="C131" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D131" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F131" t="s">
         <v>14</v>
@@ -3058,10 +3056,10 @@
         <v>5.7700000000000001E-2</v>
       </c>
       <c r="C132" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D132" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F132" t="s">
         <v>12</v>
@@ -3084,7 +3082,7 @@
         <v>3</v>
       </c>
       <c r="D133" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F133" t="s">
         <v>12</v>
@@ -3104,13 +3102,13 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="C134" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D134" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E134" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G134" t="s">
         <v>15</v>
@@ -3127,7 +3125,7 @@
         <v>4</v>
       </c>
       <c r="D135" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G135" t="s">
         <v>15</v>
@@ -3150,7 +3148,7 @@
         <v>10</v>
       </c>
       <c r="B138" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
@@ -3203,7 +3201,7 @@
         <v>10</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
@@ -3217,7 +3215,7 @@
         <v>4</v>
       </c>
       <c r="D144" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F144" t="s">
         <v>13</v>
@@ -3237,10 +3235,10 @@
         <v>0.107</v>
       </c>
       <c r="C145" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D145" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F145" t="s">
         <v>37</v>
@@ -3260,10 +3258,10 @@
         <v>9.52</v>
       </c>
       <c r="C146" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D146" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F146" t="s">
         <v>28</v>
@@ -3286,7 +3284,7 @@
         <v>4</v>
       </c>
       <c r="D147" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F147" t="s">
         <v>28</v>
@@ -3309,7 +3307,7 @@
         <v>4</v>
       </c>
       <c r="D148" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F148" t="s">
         <v>13</v>
@@ -3332,7 +3330,7 @@
         <v>4</v>
       </c>
       <c r="D149" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F149" t="s">
         <v>12</v>
@@ -3352,10 +3350,10 @@
         <v>1.38</v>
       </c>
       <c r="C150" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D150" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F150" t="s">
         <v>12</v>
@@ -3375,10 +3373,10 @@
         <v>4.8600000000000003</v>
       </c>
       <c r="C151" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D151" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F151" t="s">
         <v>13</v>
@@ -3401,7 +3399,7 @@
         <v>35</v>
       </c>
       <c r="D152" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F152" t="s">
         <v>12</v>
@@ -3424,7 +3422,7 @@
         <v>4</v>
       </c>
       <c r="D153" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G153" t="s">
         <v>15</v>
@@ -3441,7 +3439,7 @@
         <v>4</v>
       </c>
       <c r="D154" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G154" t="s">
         <v>15</v>
@@ -3458,7 +3456,7 @@
         <v>4</v>
       </c>
       <c r="D155" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G155" t="s">
         <v>15</v>
@@ -3475,7 +3473,7 @@
         <v>4</v>
       </c>
       <c r="D156" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G156" t="s">
         <v>15</v>
@@ -3492,7 +3490,7 @@
         <v>4</v>
       </c>
       <c r="D157" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G157" t="s">
         <v>15</v>
@@ -3509,7 +3507,7 @@
         <v>4</v>
       </c>
       <c r="D158" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G158" t="s">
         <v>15</v>
@@ -3526,7 +3524,7 @@
         <v>4</v>
       </c>
       <c r="D159" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G159" t="s">
         <v>15</v>
@@ -3543,7 +3541,7 @@
         <v>4</v>
       </c>
       <c r="D160" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G160" t="s">
         <v>15</v>
@@ -3557,13 +3555,13 @@
         <v>9.9</v>
       </c>
       <c r="C161" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D161" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E161" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G161" t="s">
         <v>15</v>
@@ -3581,7 +3579,7 @@
         <v>4</v>
       </c>
       <c r="D162" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F162" t="s">
         <v>37</v>
@@ -3601,10 +3599,10 @@
         <v>1.78E-2</v>
       </c>
       <c r="C163" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D163" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F163" t="s">
         <v>28</v>
@@ -3636,7 +3634,7 @@
         <v>10</v>
       </c>
       <c r="B167" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
@@ -3704,7 +3702,7 @@
         <v>4</v>
       </c>
       <c r="D173" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F173" t="s">
         <v>12</v>
@@ -3727,7 +3725,7 @@
         <v>4</v>
       </c>
       <c r="D174" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F174" t="s">
         <v>28</v>
@@ -3750,7 +3748,7 @@
         <v>4</v>
       </c>
       <c r="D175" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F175" t="s">
         <v>13</v>
@@ -3773,7 +3771,7 @@
         <v>4</v>
       </c>
       <c r="D176" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F176" t="s">
         <v>13</v>
@@ -3787,7 +3785,7 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B177" s="5">
         <v>0.01</v>
@@ -3796,7 +3794,7 @@
         <v>4</v>
       </c>
       <c r="D177" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F177" t="s">
         <v>13</v>
@@ -3819,7 +3817,7 @@
         <v>4</v>
       </c>
       <c r="D178" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F178" t="s">
         <v>13</v>
@@ -3842,10 +3840,10 @@
         <v>3</v>
       </c>
       <c r="D179" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F179" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G179" t="s">
         <v>11</v>
@@ -3865,7 +3863,7 @@
         <v>4</v>
       </c>
       <c r="D180" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F180" t="s">
         <v>13</v>
@@ -3885,10 +3883,10 @@
         <v>0.105</v>
       </c>
       <c r="C181" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D181" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F181" t="s">
         <v>12</v>
@@ -3908,10 +3906,10 @@
         <v>0.627</v>
       </c>
       <c r="C182" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D182" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F182" t="s">
         <v>12</v>
@@ -3931,10 +3929,10 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="C183" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D183" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F183" t="s">
         <v>37</v>
@@ -3954,10 +3952,10 @@
         <v>13.75</v>
       </c>
       <c r="C184" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D184" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F184" t="s">
         <v>12</v>
@@ -3980,7 +3978,7 @@
         <v>3</v>
       </c>
       <c r="D185" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F185" t="s">
         <v>12</v>
@@ -4000,13 +3998,13 @@
         <v>15.73</v>
       </c>
       <c r="C186" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D186" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E186" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G186" t="s">
         <v>15</v>
@@ -4023,7 +4021,7 @@
         <v>4</v>
       </c>
       <c r="D187" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G187" t="s">
         <v>15</v>
@@ -4049,7 +4047,7 @@
         <v>10</v>
       </c>
       <c r="B192" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
@@ -4114,7 +4112,7 @@
         <v>4</v>
       </c>
       <c r="D198" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F198" t="s">
         <v>13</v>
@@ -4137,7 +4135,7 @@
         <v>4</v>
       </c>
       <c r="D199" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F199" t="s">
         <v>13</v>
@@ -4182,10 +4180,10 @@
         <v>0.1</v>
       </c>
       <c r="C201" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D201" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F201" t="s">
         <v>12</v>
@@ -4205,10 +4203,10 @@
         <v>0.6</v>
       </c>
       <c r="C202" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D202" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F202" t="s">
         <v>12</v>
@@ -4244,7 +4242,7 @@
         <v>10</v>
       </c>
       <c r="B206" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
@@ -4312,7 +4310,7 @@
         <v>4</v>
       </c>
       <c r="D212" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F212" t="s">
         <v>13</v>
@@ -4335,7 +4333,7 @@
         <v>4</v>
       </c>
       <c r="D213" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F213" t="s">
         <v>13</v>
@@ -4358,7 +4356,7 @@
         <v>4</v>
       </c>
       <c r="D214" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F214" t="s">
         <v>12</v>
@@ -4381,7 +4379,7 @@
         <v>4</v>
       </c>
       <c r="D215" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F215" t="s">
         <v>12</v>
@@ -4404,7 +4402,7 @@
         <v>4</v>
       </c>
       <c r="D216" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F216" t="s">
         <v>12</v>
@@ -4424,10 +4422,10 @@
         <v>0.1</v>
       </c>
       <c r="C217" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D217" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F217" t="s">
         <v>12</v>
@@ -4447,10 +4445,10 @@
         <v>0.6</v>
       </c>
       <c r="C218" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D218" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F218" t="s">
         <v>28</v>
@@ -4473,7 +4471,7 @@
         <v>51</v>
       </c>
       <c r="D219" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F219" t="s">
         <v>12</v>
@@ -4496,7 +4494,7 @@
         <v>4</v>
       </c>
       <c r="D220" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G220" t="s">
         <v>15</v>
@@ -4511,13 +4509,13 @@
         <v>1.95</v>
       </c>
       <c r="C221" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D221" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E221" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G221" t="s">
         <v>15</v>
@@ -4534,7 +4532,7 @@
         <v>4</v>
       </c>
       <c r="D222" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F222" t="s">
         <v>14</v>
@@ -4554,10 +4552,10 @@
         <v>3.6099999999999999E-3</v>
       </c>
       <c r="C223" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D223" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F223" t="s">
         <v>14</v>
@@ -4588,7 +4586,7 @@
         <v>10</v>
       </c>
       <c r="B227" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
@@ -4653,7 +4651,7 @@
         <v>4</v>
       </c>
       <c r="D233" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F233" t="s">
         <v>13</v>
@@ -4676,7 +4674,7 @@
         <v>4</v>
       </c>
       <c r="D234" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F234" t="s">
         <v>13</v>
@@ -4699,7 +4697,7 @@
         <v>4</v>
       </c>
       <c r="D235" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F235" t="s">
         <v>14</v>
@@ -4719,10 +4717,10 @@
         <v>0.2</v>
       </c>
       <c r="C236" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D236" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F236" t="s">
         <v>13</v>
@@ -4742,10 +4740,10 @@
         <v>1.2</v>
       </c>
       <c r="C237" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D237" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F237" t="s">
         <v>13</v>
@@ -4768,7 +4766,7 @@
         <v>3</v>
       </c>
       <c r="D238" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F238" t="s">
         <v>13</v>
@@ -4799,7 +4797,7 @@
         <v>10</v>
       </c>
       <c r="B243" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
@@ -4867,7 +4865,7 @@
         <v>4</v>
       </c>
       <c r="D249" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F249" t="s">
         <v>13</v>
@@ -4890,7 +4888,7 @@
         <v>4</v>
       </c>
       <c r="D250" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F250" t="s">
         <v>12</v>
@@ -4935,7 +4933,7 @@
         <v>51</v>
       </c>
       <c r="D252" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F252" t="s">
         <v>12</v>
@@ -4955,10 +4953,10 @@
         <v>0.1</v>
       </c>
       <c r="C253" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D253" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F253" t="s">
         <v>12</v>
@@ -4978,10 +4976,10 @@
         <v>0.54200000000000004</v>
       </c>
       <c r="C254" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D254" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F254" t="s">
         <v>28</v>
@@ -5001,10 +4999,10 @@
         <v>3.53</v>
       </c>
       <c r="C255" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D255" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F255" t="s">
         <v>37</v>
@@ -5024,13 +5022,13 @@
         <v>12.72</v>
       </c>
       <c r="C256" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D256" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E256" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G256" t="s">
         <v>15</v>
@@ -5050,7 +5048,7 @@
         <v>10</v>
       </c>
       <c r="B260" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.3">
@@ -5109,7 +5107,7 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B266" s="5">
         <v>1.8100000000000002E-2</v>
@@ -5118,7 +5116,7 @@
         <v>4</v>
       </c>
       <c r="D266" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F266" t="s">
         <v>13</v>
@@ -5141,7 +5139,7 @@
         <v>4</v>
       </c>
       <c r="D267" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F267" t="s">
         <v>13</v>
@@ -5155,16 +5153,16 @@
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B268" s="5">
         <v>6.66</v>
       </c>
       <c r="C268" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="D268" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F268" t="s">
         <v>13</v>
@@ -5173,21 +5171,21 @@
         <v>11</v>
       </c>
       <c r="H268" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B269" s="5">
         <v>0.44600000000000001</v>
       </c>
       <c r="C269" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="D269" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F269" t="s">
         <v>13</v>
@@ -5196,7 +5194,7 @@
         <v>11</v>
       </c>
       <c r="H269" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.3">
@@ -5207,10 +5205,10 @@
         <v>9.3956999999999999E-2</v>
       </c>
       <c r="C270" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D270" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F270" t="s">
         <v>12</v>
@@ -5230,10 +5228,10 @@
         <v>0.56374000000000002</v>
       </c>
       <c r="C271" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D271" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F271" t="s">
         <v>28</v>
@@ -5406,18 +5404,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5439,14 +5437,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC7C0EC8-0C3B-44A9-8033-00137DC09A49}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5855932F-2918-4696-B2D1-0ED741520C0F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -5460,4 +5450,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC7C0EC8-0C3B-44A9-8033-00137DC09A49}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>